--- a/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A57A19-CC87-418C-8676-B9D223FD82E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B879D7-DF7C-4754-AE8A-785F4372ECA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
@@ -734,7 +734,7 @@
     <col min="4" max="4" width="7.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="55.5" customWidth="1"/>
@@ -851,7 +851,9 @@
       <c r="F5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="9"/>
+      <c r="G5" s="10">
+        <v>1</v>
+      </c>
       <c r="H5" s="3"/>
       <c r="I5" s="9"/>
       <c r="J5" s="2"/>
@@ -1105,7 +1107,9 @@
       <c r="F17" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="10"/>
+      <c r="G17" s="10">
+        <v>1</v>
+      </c>
       <c r="H17" s="2"/>
       <c r="I17" s="10"/>
       <c r="J17" s="2"/>
@@ -1127,7 +1131,9 @@
       <c r="F18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="10"/>
+      <c r="G18" s="10">
+        <v>1</v>
+      </c>
       <c r="H18" s="2"/>
       <c r="I18" s="10"/>
       <c r="J18" s="2"/>

--- a/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhang\Documents\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A57A19-CC87-418C-8676-B9D223FD82E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1698EED-0E57-4812-A83F-A9F5A9F2C3D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1290" windowWidth="20490" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" concurrentManualCount="2"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -256,6 +256,13 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Q&amp;A待ち</t>
+    <rPh sb="3" eb="4">
+      <t>マ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -807,10 +814,14 @@
       <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="9"/>
+      <c r="G3" s="9">
+        <v>0.85</v>
+      </c>
       <c r="H3" s="3"/>
       <c r="I3" s="9"/>
-      <c r="J3" s="5"/>
+      <c r="J3" s="5" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="2">
@@ -829,10 +840,14 @@
       <c r="F4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="9"/>
+      <c r="G4" s="9">
+        <v>0.85</v>
+      </c>
       <c r="H4" s="3"/>
       <c r="I4" s="9"/>
-      <c r="J4" s="2"/>
+      <c r="J4" s="5" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="2">
@@ -937,7 +952,9 @@
       <c r="F9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="9">
+        <v>0.7</v>
+      </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="5"/>
@@ -957,7 +974,9 @@
       <c r="F10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="9"/>
+      <c r="G10" s="9">
+        <v>0.7</v>
+      </c>
       <c r="H10" s="3"/>
       <c r="I10" s="9"/>
       <c r="J10" s="5"/>
@@ -977,7 +996,9 @@
       <c r="F11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="3"/>
+      <c r="G11" s="9">
+        <v>0.8</v>
+      </c>
       <c r="H11" s="7"/>
       <c r="I11" s="3"/>
       <c r="J11" s="5"/>
@@ -997,7 +1018,9 @@
       <c r="F12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="9"/>
+      <c r="G12" s="9">
+        <v>0.8</v>
+      </c>
       <c r="H12" s="3"/>
       <c r="I12" s="9"/>
       <c r="J12" s="5"/>
@@ -1017,7 +1040,9 @@
       <c r="F13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="10"/>
+      <c r="G13" s="9">
+        <v>0.8</v>
+      </c>
       <c r="H13" s="2"/>
       <c r="I13" s="10"/>
       <c r="J13" s="2"/>
@@ -1039,7 +1064,9 @@
       <c r="F14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="9"/>
+      <c r="G14" s="9">
+        <v>0.8</v>
+      </c>
       <c r="H14" s="3"/>
       <c r="I14" s="9"/>
       <c r="J14" s="6"/>
@@ -1061,7 +1088,9 @@
       <c r="F15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="9"/>
+      <c r="G15" s="9">
+        <v>0.8</v>
+      </c>
       <c r="H15" s="3"/>
       <c r="I15" s="9"/>
       <c r="J15" s="2"/>
@@ -1083,7 +1112,9 @@
       <c r="F16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="10"/>
+      <c r="G16" s="9">
+        <v>0.8</v>
+      </c>
       <c r="H16" s="2"/>
       <c r="I16" s="10"/>
       <c r="J16" s="2"/>

--- a/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhang\Documents\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B879D7-DF7C-4754-AE8A-785F4372ECA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0232D8-29BC-46DF-A835-D5549732AFD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1290" windowWidth="20490" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" concurrentManualCount="2"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -256,6 +256,13 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Q&amp;A待ち</t>
+    <rPh sb="3" eb="4">
+      <t>マ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -807,10 +814,14 @@
       <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="9"/>
+      <c r="G3" s="9">
+        <v>0.85</v>
+      </c>
       <c r="H3" s="3"/>
       <c r="I3" s="9"/>
-      <c r="J3" s="5"/>
+      <c r="J3" s="5" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="2">
@@ -829,10 +840,14 @@
       <c r="F4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="9"/>
+      <c r="G4" s="9">
+        <v>0.85</v>
+      </c>
       <c r="H4" s="3"/>
       <c r="I4" s="9"/>
-      <c r="J4" s="2"/>
+      <c r="J4" s="5" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="2">
@@ -939,7 +954,9 @@
       <c r="F9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="9">
+        <v>0.7</v>
+      </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="5"/>
@@ -959,7 +976,9 @@
       <c r="F10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="9"/>
+      <c r="G10" s="9">
+        <v>0.7</v>
+      </c>
       <c r="H10" s="3"/>
       <c r="I10" s="9"/>
       <c r="J10" s="5"/>
@@ -979,7 +998,9 @@
       <c r="F11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="3"/>
+      <c r="G11" s="9">
+        <v>0.8</v>
+      </c>
       <c r="H11" s="7"/>
       <c r="I11" s="3"/>
       <c r="J11" s="5"/>
@@ -999,7 +1020,9 @@
       <c r="F12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="9"/>
+      <c r="G12" s="9">
+        <v>0.7</v>
+      </c>
       <c r="H12" s="3"/>
       <c r="I12" s="9"/>
       <c r="J12" s="5"/>
@@ -1019,7 +1042,9 @@
       <c r="F13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="10"/>
+      <c r="G13" s="9">
+        <v>0.7</v>
+      </c>
       <c r="H13" s="2"/>
       <c r="I13" s="10"/>
       <c r="J13" s="2"/>
@@ -1041,7 +1066,9 @@
       <c r="F14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="9"/>
+      <c r="G14" s="9">
+        <v>0.8</v>
+      </c>
       <c r="H14" s="3"/>
       <c r="I14" s="9"/>
       <c r="J14" s="6"/>
@@ -1063,7 +1090,9 @@
       <c r="F15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="9"/>
+      <c r="G15" s="9">
+        <v>0.8</v>
+      </c>
       <c r="H15" s="3"/>
       <c r="I15" s="9"/>
       <c r="J15" s="2"/>
@@ -1085,7 +1114,9 @@
       <c r="F16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="10"/>
+      <c r="G16" s="9">
+        <v>0.7</v>
+      </c>
       <c r="H16" s="2"/>
       <c r="I16" s="10"/>
       <c r="J16" s="2"/>

--- a/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhang\Documents\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0232D8-29BC-46DF-A835-D5549732AFD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54554E88-C187-45A7-B1A7-7E83F25D0518}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1290" windowWidth="20490" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentManualCount="2"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -265,13 +265,16 @@
       <t>マ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>章</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,6 +318,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -415,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -428,6 +438,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -748,35 +759,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="37.5" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="16" t="s">
+      <c r="E1" s="16"/>
+      <c r="F1" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="16" t="s">
+      <c r="G1" s="18"/>
+      <c r="H1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="12" t="s">
+      <c r="I1" s="18"/>
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
@@ -795,7 +806,7 @@
       <c r="I2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J2" s="13"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2">
@@ -949,7 +960,9 @@
       <c r="C9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
         <v>7</v>
@@ -971,7 +984,9 @@
       <c r="C10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
         <v>7</v>
@@ -993,7 +1008,9 @@
       <c r="C11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
         <v>7</v>
@@ -1015,7 +1032,9 @@
       <c r="C12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
         <v>7</v>
@@ -1037,7 +1056,9 @@
       <c r="C13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
         <v>7</v>

--- a/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhang\Documents\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0232D8-29BC-46DF-A835-D5549732AFD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DED03E-9C89-48CF-B425-F4CFA8BF6D5C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1290" windowWidth="20490" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31530" yWindow="810" windowWidth="23055" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029" concurrentManualCount="2"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,6 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -730,7 +733,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -810,7 +813,9 @@
       <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="9">
+        <v>0.3</v>
+      </c>
       <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
@@ -836,7 +841,9 @@
       <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="9">
+        <v>0.6</v>
+      </c>
       <c r="F4" s="3" t="s">
         <v>7</v>
       </c>
@@ -908,7 +915,9 @@
       <c r="D7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="9">
+        <v>0.2</v>
+      </c>
       <c r="F7" s="7" t="s">
         <v>6</v>
       </c>
@@ -930,7 +939,9 @@
       <c r="D8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="9">
+        <v>0.7</v>
+      </c>
       <c r="F8" s="7" t="s">
         <v>6</v>
       </c>

--- a/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DED03E-9C89-48CF-B425-F4CFA8BF6D5C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609AFECE-6EA9-4ED5-B98F-5495B51CC807}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31530" yWindow="810" windowWidth="23055" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29250" yWindow="225" windowWidth="23055" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
@@ -733,7 +733,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -842,7 +842,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="9">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>7</v>
@@ -940,7 +940,7 @@
         <v>12</v>
       </c>
       <c r="E8" s="9">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>6</v>

--- a/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhang\Documents\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54554E88-C187-45A7-B1A7-7E83F25D0518}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2647CB60-7108-411A-87FC-F3B2C315AC32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="55">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -826,13 +826,11 @@
         <v>7</v>
       </c>
       <c r="G3" s="9">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="9"/>
-      <c r="J3" s="5" t="s">
-        <v>53</v>
-      </c>
+      <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="2">
@@ -1016,7 +1014,7 @@
         <v>7</v>
       </c>
       <c r="G11" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="3"/>

--- a/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhang\Documents\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2647CB60-7108-411A-87FC-F3B2C315AC32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014658CB-B6C2-49D9-B3A0-DE14A0C22CF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -268,6 +268,10 @@
   </si>
   <si>
     <t>章</t>
+  </si>
+  <si>
+    <t>QAあり</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -899,10 +903,14 @@
       <c r="F6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="8"/>
+      <c r="G6" s="8">
+        <v>0.9</v>
+      </c>
       <c r="H6" s="7"/>
       <c r="I6" s="8"/>
-      <c r="J6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="2">

--- a/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\backdoor_cloud\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014658CB-B6C2-49D9-B3A0-DE14A0C22CF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB8F4AC-1113-46B5-8934-8FBA16AF4B6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" concurrentManualCount="2"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -278,7 +278,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -748,21 +748,21 @@
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.09765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.3984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="55.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="37.5" customHeight="1">
+    <row r="1" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -788,7 +788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -812,7 +812,7 @@
       </c>
       <c r="J2" s="14"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -836,7 +836,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -862,7 +862,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -875,7 +875,9 @@
       <c r="D5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="9">
+        <v>0.8</v>
+      </c>
       <c r="F5" s="7" t="s">
         <v>6</v>
       </c>
@@ -886,7 +888,7 @@
       <c r="I5" s="9"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -899,7 +901,9 @@
       <c r="D6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="9">
+        <v>0.8</v>
+      </c>
       <c r="F6" s="7" t="s">
         <v>6</v>
       </c>
@@ -912,7 +916,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -934,7 +938,7 @@
       <c r="I7" s="9"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" s="4" customFormat="1">
+    <row r="8" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -956,7 +960,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" s="4" customFormat="1">
+    <row r="9" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -980,7 +984,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" s="4" customFormat="1">
+    <row r="10" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1004,7 +1008,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" s="4" customFormat="1">
+    <row r="11" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1028,7 +1032,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1041,7 +1045,9 @@
       <c r="D12" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="9">
+        <v>0.8</v>
+      </c>
       <c r="F12" s="3" t="s">
         <v>7</v>
       </c>
@@ -1052,7 +1058,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1076,7 +1082,7 @@
       <c r="I13" s="10"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" s="4" customFormat="1">
+    <row r="14" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -1100,7 +1106,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -1124,7 +1130,7 @@
       <c r="I15" s="9"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -1148,7 +1154,7 @@
       <c r="I16" s="10"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -1172,7 +1178,7 @@
       <c r="I17" s="10"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -1196,7 +1202,7 @@
       <c r="I18" s="10"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -1214,7 +1220,7 @@
       <c r="I19" s="10"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -1232,12 +1238,12 @@
       <c r="I20" s="10"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="J22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="J23" t="s">
         <v>14</v>
       </c>

--- a/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\backdoor_cloud\backdoor\01_基本設計書\20200220リリース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB8F4AC-1113-46B5-8934-8FBA16AF4B6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4EED84-E2B0-489A-B6D1-3AF3571BA601}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29580" yWindow="780" windowWidth="19035" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentManualCount="2"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -278,7 +278,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -745,24 +745,24 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="4.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.09765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="55.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" ht="37.5" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -788,7 +788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10">
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -812,7 +812,7 @@
       </c>
       <c r="J2" s="14"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -825,7 +825,9 @@
       <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="9">
+        <v>0.6</v>
+      </c>
       <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
@@ -836,7 +838,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -849,7 +851,9 @@
       <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="9">
+        <v>0.5</v>
+      </c>
       <c r="F4" s="3" t="s">
         <v>7</v>
       </c>
@@ -862,7 +866,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -888,7 +892,7 @@
       <c r="I5" s="9"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -916,7 +920,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -929,7 +933,9 @@
       <c r="D7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="9">
+        <v>0.65</v>
+      </c>
       <c r="F7" s="7" t="s">
         <v>6</v>
       </c>
@@ -938,7 +944,7 @@
       <c r="I7" s="9"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" s="4" customFormat="1">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -951,7 +957,9 @@
       <c r="D8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="9">
+        <v>0.65</v>
+      </c>
       <c r="F8" s="7" t="s">
         <v>6</v>
       </c>
@@ -960,7 +968,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" s="4" customFormat="1">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -984,7 +992,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" s="4" customFormat="1">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1008,7 +1016,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" s="4" customFormat="1">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1032,7 +1040,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1058,7 +1066,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1082,7 +1090,7 @@
       <c r="I13" s="10"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" s="4" customFormat="1">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -1106,7 +1114,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -1130,7 +1138,7 @@
       <c r="I15" s="9"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -1154,7 +1162,7 @@
       <c r="I16" s="10"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -1178,7 +1186,7 @@
       <c r="I17" s="10"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -1202,7 +1210,7 @@
       <c r="I18" s="10"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -1220,7 +1228,7 @@
       <c r="I19" s="10"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -1238,12 +1246,12 @@
       <c r="I20" s="10"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10">
       <c r="J22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10">
       <c r="J23" t="s">
         <v>14</v>
       </c>

--- a/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4EED84-E2B0-489A-B6D1-3AF3571BA601}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CB4314-8126-4383-BE9F-729700EDCFC6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29580" yWindow="780" windowWidth="19035" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34575" yWindow="495" windowWidth="19035" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
@@ -745,7 +745,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -826,7 +826,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="9">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>7</v>
@@ -852,7 +852,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="9">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>7</v>
@@ -934,7 +934,7 @@
         <v>12</v>
       </c>
       <c r="E7" s="9">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>6</v>
@@ -958,7 +958,7 @@
         <v>12</v>
       </c>
       <c r="E8" s="9">
-        <v>0.65</v>
+        <v>0.9</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>6</v>
@@ -981,7 +981,9 @@
       <c r="D9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="9">
+        <v>0.9</v>
+      </c>
       <c r="F9" s="3" t="s">
         <v>7</v>
       </c>
@@ -1005,7 +1007,9 @@
       <c r="D10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="9">
+        <v>0.9</v>
+      </c>
       <c r="F10" s="3" t="s">
         <v>7</v>
       </c>
@@ -1029,7 +1033,9 @@
       <c r="D11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="9">
+        <v>0.9</v>
+      </c>
       <c r="F11" s="3" t="s">
         <v>7</v>
       </c>

--- a/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CB4314-8126-4383-BE9F-729700EDCFC6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57CE04E-E650-4BAE-A29A-0E8B9F09590F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34575" yWindow="495" windowWidth="19035" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
@@ -745,7 +745,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1085,7 +1085,9 @@
       <c r="D13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="9">
+        <v>0.8</v>
+      </c>
       <c r="F13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1109,7 +1111,9 @@
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="9">
+        <v>0.9</v>
+      </c>
       <c r="F14" s="3" t="s">
         <v>7</v>
       </c>
@@ -1133,7 +1137,9 @@
       <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="9">
+        <v>0.9</v>
+      </c>
       <c r="F15" s="3" t="s">
         <v>7</v>
       </c>
@@ -1157,7 +1163,9 @@
       <c r="D16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="9">
+        <v>0.9</v>
+      </c>
       <c r="F16" s="3" t="s">
         <v>7</v>
       </c>
@@ -1181,7 +1189,9 @@
       <c r="D17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="10">
+        <v>1</v>
+      </c>
       <c r="F17" s="7" t="s">
         <v>6</v>
       </c>
@@ -1205,7 +1215,9 @@
       <c r="D18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="10">
+        <v>1</v>
+      </c>
       <c r="F18" s="7" t="s">
         <v>6</v>
       </c>

--- a/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57CE04E-E650-4BAE-A29A-0E8B9F09590F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB913CCD-18AB-4FD3-BE09-11E2542E7613}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,16 +30,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="62">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>SC-M16</t>
-  </si>
-  <si>
-    <t>SC-M17</t>
   </si>
   <si>
     <t>画面名</t>
@@ -136,103 +133,49 @@
     <t>SC-K12A</t>
   </si>
   <si>
-    <t>進捗管理詳細.xlsx</t>
-  </si>
-  <si>
     <t>SC-K12</t>
   </si>
   <si>
-    <t>進捗管理.xlsx</t>
-  </si>
-  <si>
     <t>SC-K13A</t>
   </si>
   <si>
-    <t>当日詳細実績参照.xlsx</t>
-  </si>
-  <si>
     <t>SC-K13</t>
   </si>
   <si>
-    <t>当日実績参照.xlsx</t>
-  </si>
-  <si>
     <t>SC-K14A</t>
   </si>
   <si>
-    <t>前日以前詳細実績参照.xlsx</t>
-  </si>
-  <si>
     <t>SC-K14</t>
   </si>
   <si>
-    <t>前日以前実績参照.xlsx</t>
-  </si>
-  <si>
     <t>SC-K16A</t>
   </si>
   <si>
-    <t>成形実績明細画面.xlsx</t>
-  </si>
-  <si>
     <t>SC-K16</t>
   </si>
   <si>
-    <t>成形実績参照画面.xlsx</t>
-  </si>
-  <si>
     <t>SC-K17</t>
   </si>
   <si>
-    <t>成形金型番号別不良分析.xlsx</t>
-  </si>
-  <si>
     <t>SC-K20</t>
   </si>
   <si>
-    <t>全工程で試作の在庫払出可能化.xlsx</t>
-  </si>
-  <si>
     <t>SC-K21A</t>
   </si>
   <si>
-    <t>工程別集計.xlsx</t>
-  </si>
-  <si>
     <t>SC-K21B</t>
   </si>
   <si>
-    <t>品名別集計.xlsx</t>
-  </si>
-  <si>
     <t>SC-K21C</t>
   </si>
   <si>
-    <t>工程品種別集計.xlsx</t>
-  </si>
-  <si>
     <t>SC-K21</t>
   </si>
   <si>
-    <t>全工程で試作の在庫払出可能化_伝票出力&amp;取消.xlsx</t>
-  </si>
-  <si>
-    <t>権限マスタ.xlsx</t>
-  </si>
-  <si>
-    <t>社員マスタ.xlsx</t>
-  </si>
-  <si>
     <t>SC-Z01A</t>
   </si>
   <si>
-    <t>入出庫来歴照会.xlsx</t>
-  </si>
-  <si>
     <t>SC-Z01</t>
-  </si>
-  <si>
-    <t>在庫照会.xlsx</t>
   </si>
   <si>
     <t>レイアウト</t>
@@ -271,6 +214,91 @@
   </si>
   <si>
     <t>QAあり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SC-K00A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SC-K00B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SC-M17</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実績参照メニュー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>在庫照会と進捗管理メニュー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進捗管理</t>
+  </si>
+  <si>
+    <t>進捗管理詳細</t>
+  </si>
+  <si>
+    <t>当日実績参照</t>
+  </si>
+  <si>
+    <t>当日詳細実績参照</t>
+  </si>
+  <si>
+    <t>前日以前実績参照</t>
+  </si>
+  <si>
+    <t>前日以前詳細実績参照</t>
+  </si>
+  <si>
+    <t>成形実績参照画面</t>
+  </si>
+  <si>
+    <t>成形実績明細画面</t>
+  </si>
+  <si>
+    <t>成形金型番号別不良分析</t>
+  </si>
+  <si>
+    <t>全工程で試作の在庫払出可能化</t>
+  </si>
+  <si>
+    <t>全工程で試作の在庫払出可能化_伝票出力&amp;取消</t>
+  </si>
+  <si>
+    <t>工程別集計</t>
+  </si>
+  <si>
+    <t>品名別集計</t>
+  </si>
+  <si>
+    <t>工程品種別集計</t>
+  </si>
+  <si>
+    <t>在庫照会</t>
+  </si>
+  <si>
+    <t>入出庫来歴照会</t>
+  </si>
+  <si>
+    <t>権限マスタ</t>
+  </si>
+  <si>
+    <t>社員マスタ</t>
+  </si>
+  <si>
+    <t>SC-K00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仮マイメニュー</t>
+    <rPh sb="0" eb="1">
+      <t>カリ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -742,7 +770,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection sqref="A1:A2"/>
@@ -767,25 +795,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="E1" s="16"/>
       <c r="F1" s="17" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="G1" s="18"/>
       <c r="H1" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I1" s="18"/>
       <c r="J1" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -793,22 +821,22 @@
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="J2" s="14"/>
     </row>
@@ -817,19 +845,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="9">
         <v>0.9</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G3" s="9">
         <v>1</v>
@@ -843,19 +871,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="9">
         <v>0.9</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G4" s="9">
         <v>0.85</v>
@@ -863,7 +891,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="9"/>
       <c r="J4" s="5" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -871,19 +899,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="9">
         <v>0.8</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G5" s="10">
         <v>1</v>
@@ -897,19 +925,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="9">
         <v>0.8</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G6" s="8">
         <v>0.9</v>
@@ -917,7 +945,7 @@
       <c r="H6" s="7"/>
       <c r="I6" s="8"/>
       <c r="J6" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -925,19 +953,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="9">
         <v>0.7</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="3"/>
@@ -949,19 +977,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" s="9">
         <v>0.9</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="3"/>
@@ -973,19 +1001,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="9">
         <v>0.9</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G9" s="9">
         <v>0.7</v>
@@ -999,19 +1027,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="9">
         <v>0.9</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G10" s="9">
         <v>0.7</v>
@@ -1025,19 +1053,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" s="9">
         <v>0.9</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G11" s="9">
         <v>1</v>
@@ -1051,19 +1079,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>35</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>54</v>
       </c>
       <c r="E12" s="9">
         <v>0.8</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G12" s="9">
         <v>0.7</v>
@@ -1077,19 +1105,19 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13" s="9">
         <v>0.8</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G13" s="9">
         <v>0.7</v>
@@ -1103,19 +1131,19 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14" s="9">
         <v>0.9</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G14" s="9">
         <v>0.8</v>
@@ -1129,19 +1157,19 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E15" s="9">
         <v>0.9</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G15" s="9">
         <v>0.8</v>
@@ -1155,19 +1183,19 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16" s="9">
         <v>0.9</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G16" s="9">
         <v>0.7</v>
@@ -1181,19 +1209,19 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17" s="10">
         <v>1</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G17" s="10">
         <v>1</v>
@@ -1207,19 +1235,19 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18" s="10">
         <v>1</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G18" s="10">
         <v>1</v>
@@ -1232,16 +1260,22 @@
       <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="10">
         <v>1</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="10"/>
       <c r="H19" s="2"/>
       <c r="I19" s="10"/>
       <c r="J19" s="2"/>
@@ -1250,28 +1284,90 @@
       <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="10"/>
+      <c r="B20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="10">
+        <v>1</v>
+      </c>
       <c r="H20" s="2"/>
       <c r="I20" s="10"/>
       <c r="J20" s="2"/>
     </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="2"/>
+    </row>
     <row r="22" spans="1:10">
-      <c r="J22" t="s">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="J25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="J26" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="J23" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhang\Documents\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57CE04E-E650-4BAE-A29A-0E8B9F09590F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182E3685-DC3E-4325-8D80-9A69E234BCCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="20490" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
@@ -1066,7 +1066,7 @@
         <v>7</v>
       </c>
       <c r="G12" s="9">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="9"/>
@@ -1092,7 +1092,7 @@
         <v>7</v>
       </c>
       <c r="G13" s="9">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="10"/>
@@ -1118,7 +1118,7 @@
         <v>7</v>
       </c>
       <c r="G14" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="9"/>
@@ -1144,7 +1144,7 @@
         <v>7</v>
       </c>
       <c r="G15" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="9"/>
@@ -1170,7 +1170,7 @@
         <v>7</v>
       </c>
       <c r="G16" s="9">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="10"/>

--- a/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhang\Documents\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182E3685-DC3E-4325-8D80-9A69E234BCCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB913CCD-18AB-4FD3-BE09-11E2542E7613}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="20490" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
@@ -30,16 +30,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="62">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>SC-M16</t>
-  </si>
-  <si>
-    <t>SC-M17</t>
   </si>
   <si>
     <t>画面名</t>
@@ -136,103 +133,49 @@
     <t>SC-K12A</t>
   </si>
   <si>
-    <t>進捗管理詳細.xlsx</t>
-  </si>
-  <si>
     <t>SC-K12</t>
   </si>
   <si>
-    <t>進捗管理.xlsx</t>
-  </si>
-  <si>
     <t>SC-K13A</t>
   </si>
   <si>
-    <t>当日詳細実績参照.xlsx</t>
-  </si>
-  <si>
     <t>SC-K13</t>
   </si>
   <si>
-    <t>当日実績参照.xlsx</t>
-  </si>
-  <si>
     <t>SC-K14A</t>
   </si>
   <si>
-    <t>前日以前詳細実績参照.xlsx</t>
-  </si>
-  <si>
     <t>SC-K14</t>
   </si>
   <si>
-    <t>前日以前実績参照.xlsx</t>
-  </si>
-  <si>
     <t>SC-K16A</t>
   </si>
   <si>
-    <t>成形実績明細画面.xlsx</t>
-  </si>
-  <si>
     <t>SC-K16</t>
   </si>
   <si>
-    <t>成形実績参照画面.xlsx</t>
-  </si>
-  <si>
     <t>SC-K17</t>
   </si>
   <si>
-    <t>成形金型番号別不良分析.xlsx</t>
-  </si>
-  <si>
     <t>SC-K20</t>
   </si>
   <si>
-    <t>全工程で試作の在庫払出可能化.xlsx</t>
-  </si>
-  <si>
     <t>SC-K21A</t>
   </si>
   <si>
-    <t>工程別集計.xlsx</t>
-  </si>
-  <si>
     <t>SC-K21B</t>
   </si>
   <si>
-    <t>品名別集計.xlsx</t>
-  </si>
-  <si>
     <t>SC-K21C</t>
   </si>
   <si>
-    <t>工程品種別集計.xlsx</t>
-  </si>
-  <si>
     <t>SC-K21</t>
   </si>
   <si>
-    <t>全工程で試作の在庫払出可能化_伝票出力&amp;取消.xlsx</t>
-  </si>
-  <si>
-    <t>権限マスタ.xlsx</t>
-  </si>
-  <si>
-    <t>社員マスタ.xlsx</t>
-  </si>
-  <si>
     <t>SC-Z01A</t>
   </si>
   <si>
-    <t>入出庫来歴照会.xlsx</t>
-  </si>
-  <si>
     <t>SC-Z01</t>
-  </si>
-  <si>
-    <t>在庫照会.xlsx</t>
   </si>
   <si>
     <t>レイアウト</t>
@@ -271,6 +214,91 @@
   </si>
   <si>
     <t>QAあり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SC-K00A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SC-K00B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SC-M17</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実績参照メニュー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>在庫照会と進捗管理メニュー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進捗管理</t>
+  </si>
+  <si>
+    <t>進捗管理詳細</t>
+  </si>
+  <si>
+    <t>当日実績参照</t>
+  </si>
+  <si>
+    <t>当日詳細実績参照</t>
+  </si>
+  <si>
+    <t>前日以前実績参照</t>
+  </si>
+  <si>
+    <t>前日以前詳細実績参照</t>
+  </si>
+  <si>
+    <t>成形実績参照画面</t>
+  </si>
+  <si>
+    <t>成形実績明細画面</t>
+  </si>
+  <si>
+    <t>成形金型番号別不良分析</t>
+  </si>
+  <si>
+    <t>全工程で試作の在庫払出可能化</t>
+  </si>
+  <si>
+    <t>全工程で試作の在庫払出可能化_伝票出力&amp;取消</t>
+  </si>
+  <si>
+    <t>工程別集計</t>
+  </si>
+  <si>
+    <t>品名別集計</t>
+  </si>
+  <si>
+    <t>工程品種別集計</t>
+  </si>
+  <si>
+    <t>在庫照会</t>
+  </si>
+  <si>
+    <t>入出庫来歴照会</t>
+  </si>
+  <si>
+    <t>権限マスタ</t>
+  </si>
+  <si>
+    <t>社員マスタ</t>
+  </si>
+  <si>
+    <t>SC-K00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仮マイメニュー</t>
+    <rPh sb="0" eb="1">
+      <t>カリ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -742,7 +770,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection sqref="A1:A2"/>
@@ -767,25 +795,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="E1" s="16"/>
       <c r="F1" s="17" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="G1" s="18"/>
       <c r="H1" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I1" s="18"/>
       <c r="J1" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -793,22 +821,22 @@
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="J2" s="14"/>
     </row>
@@ -817,19 +845,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="9">
         <v>0.9</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G3" s="9">
         <v>1</v>
@@ -843,19 +871,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="9">
         <v>0.9</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G4" s="9">
         <v>0.85</v>
@@ -863,7 +891,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="9"/>
       <c r="J4" s="5" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -871,19 +899,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="9">
         <v>0.8</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G5" s="10">
         <v>1</v>
@@ -897,19 +925,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="9">
         <v>0.8</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G6" s="8">
         <v>0.9</v>
@@ -917,7 +945,7 @@
       <c r="H6" s="7"/>
       <c r="I6" s="8"/>
       <c r="J6" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -925,19 +953,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="9">
         <v>0.7</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="3"/>
@@ -949,19 +977,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" s="9">
         <v>0.9</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="3"/>
@@ -973,19 +1001,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="9">
         <v>0.9</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G9" s="9">
         <v>0.7</v>
@@ -999,19 +1027,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="9">
         <v>0.9</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G10" s="9">
         <v>0.7</v>
@@ -1025,19 +1053,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" s="9">
         <v>0.9</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G11" s="9">
         <v>1</v>
@@ -1051,22 +1079,22 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>35</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>54</v>
       </c>
       <c r="E12" s="9">
         <v>0.8</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G12" s="9">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="9"/>
@@ -1077,22 +1105,22 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13" s="9">
         <v>0.8</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G13" s="9">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="10"/>
@@ -1103,22 +1131,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14" s="9">
         <v>0.9</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G14" s="9">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="9"/>
@@ -1129,22 +1157,22 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E15" s="9">
         <v>0.9</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G15" s="9">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="9"/>
@@ -1155,22 +1183,22 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16" s="9">
         <v>0.9</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G16" s="9">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="10"/>
@@ -1181,19 +1209,19 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17" s="10">
         <v>1</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G17" s="10">
         <v>1</v>
@@ -1207,19 +1235,19 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18" s="10">
         <v>1</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G18" s="10">
         <v>1</v>
@@ -1232,16 +1260,22 @@
       <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="10">
         <v>1</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="10"/>
       <c r="H19" s="2"/>
       <c r="I19" s="10"/>
       <c r="J19" s="2"/>
@@ -1250,28 +1284,90 @@
       <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="10"/>
+      <c r="B20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="10">
+        <v>1</v>
+      </c>
       <c r="H20" s="2"/>
       <c r="I20" s="10"/>
       <c r="J20" s="2"/>
     </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="2"/>
+    </row>
     <row r="22" spans="1:10">
-      <c r="J22" t="s">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="J25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="J26" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="J23" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB913CCD-18AB-4FD3-BE09-11E2542E7613}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD5F3CD-AD10-4F56-AD7C-EA01C09B8A7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="65">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -87,13 +87,6 @@
     <t>備考</t>
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>鄒</t>
-    <rPh sb="0" eb="1">
-      <t>スウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -298,6 +291,40 @@
     <t>仮マイメニュー</t>
     <rPh sb="0" eb="1">
       <t>カリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マスタページ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>言語対応</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンゴ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問題　　鄒　→　梁</t>
+    <rPh sb="0" eb="2">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問題　　鄒　→　章</t>
+    <rPh sb="0" eb="2">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ショウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -358,7 +385,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -374,6 +401,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,14 +490,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -489,6 +521,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -770,7 +806,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection sqref="A1:A2"/>
@@ -784,601 +820,719 @@
     <col min="4" max="4" width="7.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="55.5" customWidth="1"/>
+    <col min="10" max="10" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="55.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="37.5" customHeight="1">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:14" ht="37.5" customHeight="1">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="18"/>
-      <c r="J1" s="13" t="s">
+      <c r="D1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="F1" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="15"/>
+      <c r="H1" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="15"/>
+      <c r="J1" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="17"/>
+      <c r="L1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="17"/>
+      <c r="N1" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
+    <row r="2" spans="1:14">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="14"/>
-    </row>
-    <row r="3" spans="1:10">
+        <v>31</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="13"/>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="9">
+        <v>10</v>
+      </c>
+      <c r="E3" s="8">
         <v>0.9</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="3"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="9">
+      <c r="K3" s="8">
         <v>1</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="L3" s="3"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="9">
+        <v>10</v>
+      </c>
+      <c r="E4" s="8">
         <v>0.9</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="9">
+      <c r="K4" s="8">
         <v>0.85</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="L4" s="3"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="9">
+        <v>13</v>
+      </c>
+      <c r="E5" s="8">
         <v>0.8</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="3"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="10">
+      <c r="K5" s="9">
         <v>1</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="L5" s="3"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="9">
+        <v>13</v>
+      </c>
+      <c r="E6" s="8">
         <v>0.8</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="8">
+      <c r="K6" s="7">
         <v>0.9</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="L6" s="6"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="9">
+        <v>10</v>
+      </c>
+      <c r="E7" s="8">
         <v>0.7</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="3"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" s="4" customFormat="1">
+      <c r="K7" s="8"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="5"/>
+    </row>
+    <row r="8" spans="1:14" s="4" customFormat="1">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="9">
+        <v>10</v>
+      </c>
+      <c r="E8" s="8">
         <v>0.9</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="3"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" s="4" customFormat="1">
+      <c r="K8" s="8"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="5"/>
+    </row>
+    <row r="9" spans="1:14" s="4" customFormat="1">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="9">
+        <v>47</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="8">
         <v>0.9</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="11"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="9">
+      <c r="K9" s="8">
         <v>0.7</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" s="4" customFormat="1">
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="5"/>
+    </row>
+    <row r="10" spans="1:14" s="4" customFormat="1">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="9">
+        <v>48</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="8">
         <v>0.9</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="11"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="9">
+      <c r="K10" s="8">
         <v>0.7</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" s="4" customFormat="1">
+      <c r="L10" s="3"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="5"/>
+    </row>
+    <row r="11" spans="1:14" s="4" customFormat="1">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="9">
+        <v>49</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="8">
         <v>0.9</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="11"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="9">
+      <c r="K11" s="8">
         <v>1</v>
       </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="L11" s="6"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="5"/>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="5"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="18">
+        <v>11</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="L13" s="18"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="4" customFormat="1">
+      <c r="A14" s="18">
+        <v>12</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="9">
+      <c r="C14" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="20">
+        <v>0.9</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="20">
         <v>0.8</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="L14" s="18"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="18">
+        <v>13</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="20">
+        <v>0.9</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="9">
+      <c r="K15" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="L15" s="18"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="18">
+        <v>14</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="20">
+        <v>0.9</v>
+      </c>
+      <c r="F16" s="18"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" s="20">
         <v>0.7</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="2">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="9">
-        <v>0.8</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="9">
-        <v>0.7</v>
-      </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" s="4" customFormat="1">
-      <c r="A14" s="2">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="9">
-        <v>0.8</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="2">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="9">
-        <v>0.8</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="2">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="9">
-        <v>0.7</v>
-      </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="L16" s="18"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="2">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="9">
         <v>1</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="3"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="10">
+      <c r="K17" s="9">
         <v>1</v>
       </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="L17" s="2"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="2">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="9">
         <v>1</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="3"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="10">
+      <c r="K18" s="9">
         <v>1</v>
       </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="L18" s="2"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="2"/>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="2">
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="10">
+      <c r="K19" s="9">
         <v>1</v>
       </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="L19" s="2"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="2">
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="10">
+      <c r="K20" s="9">
         <v>1</v>
       </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="L20" s="2"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="2"/>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="2">
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="D21" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="2"/>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>58</v>
+      <c r="C22" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="10"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
       <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22" s="9"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>59</v>
+      <c r="B23" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="10"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
       <c r="J23" s="2"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="J25" t="s">
+      <c r="K23" s="9"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="2"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="N25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="N26" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="J26" t="s">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="J1:J2"/>
+  <mergeCells count="9">
+    <mergeCell ref="N1:N2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:E1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
-    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhang\Documents\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD5F3CD-AD10-4F56-AD7C-EA01C09B8A7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC4D4B2-861F-409D-8FDB-7B8490E064D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="65">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -503,6 +503,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -521,10 +525,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -831,43 +831,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="37.5" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="14" t="s">
+      <c r="E1" s="19"/>
+      <c r="F1" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="14" t="s">
+      <c r="G1" s="19"/>
+      <c r="H1" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="16" t="s">
+      <c r="I1" s="19"/>
+      <c r="J1" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="16" t="s">
+      <c r="K1" s="21"/>
+      <c r="L1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="17"/>
-      <c r="N1" s="12" t="s">
+      <c r="M1" s="21"/>
+      <c r="N1" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
@@ -898,7 +898,7 @@
       <c r="M2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="13"/>
+      <c r="N2" s="17"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2">
@@ -1104,7 +1104,7 @@
         <v>6</v>
       </c>
       <c r="K9" s="8">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -1134,11 +1134,13 @@
         <v>6</v>
       </c>
       <c r="K10" s="8">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="8"/>
-      <c r="N10" s="5"/>
+      <c r="N10" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:14" s="4" customFormat="1">
       <c r="A11" s="2">
@@ -1194,137 +1196,137 @@
         <v>6</v>
       </c>
       <c r="K12" s="8">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="8"/>
       <c r="N12" s="5"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="18">
+      <c r="A13" s="12">
         <v>11</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="14">
         <v>0.8</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="18" t="s">
+      <c r="F13" s="13"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="20">
-        <v>0.7</v>
-      </c>
-      <c r="L13" s="18"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="21" t="s">
+      <c r="K13" s="14">
+        <v>1</v>
+      </c>
+      <c r="L13" s="12"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="15" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="4" customFormat="1">
-      <c r="A14" s="18">
+      <c r="A14" s="12">
         <v>12</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="14">
         <v>0.9</v>
       </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="18" t="s">
+      <c r="F14" s="12"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="20">
-        <v>0.8</v>
-      </c>
-      <c r="L14" s="18"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="21" t="s">
+      <c r="K14" s="14">
+        <v>1</v>
+      </c>
+      <c r="L14" s="12"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="15" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="18">
+      <c r="A15" s="12">
         <v>13</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="14">
         <v>0.9</v>
       </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="18" t="s">
+      <c r="F15" s="12"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="20">
-        <v>0.8</v>
-      </c>
-      <c r="L15" s="18"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="21" t="s">
+      <c r="K15" s="14">
+        <v>1</v>
+      </c>
+      <c r="L15" s="12"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="15" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="18">
+      <c r="A16" s="12">
         <v>14</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="14">
         <v>0.9</v>
       </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="18" t="s">
+      <c r="F16" s="12"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="K16" s="20">
-        <v>0.7</v>
-      </c>
-      <c r="L16" s="18"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="21" t="s">
+      <c r="K16" s="14">
+        <v>1</v>
+      </c>
+      <c r="L16" s="12"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="15" t="s">
         <v>64</v>
       </c>
     </row>

--- a/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhang\Documents\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC4D4B2-861F-409D-8FDB-7B8490E064D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A651ABC-4802-472B-B42D-73D003857B19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
@@ -1015,8 +1015,8 @@
       <c r="J6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="7">
-        <v>0.9</v>
+      <c r="K6" s="9">
+        <v>1</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="7"/>
@@ -1047,7 +1047,9 @@
       <c r="J7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="8"/>
+      <c r="K7" s="7">
+        <v>0.9</v>
+      </c>
       <c r="L7" s="3"/>
       <c r="M7" s="8"/>
       <c r="N7" s="5"/>

--- a/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A651ABC-4802-472B-B42D-73D003857B19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B79ED8D-039C-44B6-828F-E1A296B96C39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="63">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -305,26 +305,6 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>タイオウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>問題　　鄒　→　梁</t>
-    <rPh sb="0" eb="2">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>リョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>問題　　鄒　→　章</t>
-    <rPh sb="0" eb="2">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ショウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -333,7 +313,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -382,6 +362,29 @@
       <color rgb="FFFF0000"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -490,7 +493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -525,6 +528,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -817,7 +825,7 @@
     <col min="1" max="1" width="4.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.375" style="25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
@@ -868,7 +876,7 @@
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="22" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -910,13 +918,15 @@
       <c r="C3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="23" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="8">
         <v>0.9</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="26" t="s">
+        <v>10</v>
+      </c>
       <c r="G3" s="8"/>
       <c r="H3" s="3"/>
       <c r="I3" s="8"/>
@@ -940,13 +950,15 @@
       <c r="C4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="23" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="8">
         <v>0.9</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="26" t="s">
+        <v>10</v>
+      </c>
       <c r="G4" s="8"/>
       <c r="H4" s="3"/>
       <c r="I4" s="8"/>
@@ -972,13 +984,15 @@
       <c r="C5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="23" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="8">
         <v>0.8</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="26" t="s">
+        <v>10</v>
+      </c>
       <c r="G5" s="8"/>
       <c r="H5" s="3"/>
       <c r="I5" s="8"/>
@@ -1002,13 +1016,15 @@
       <c r="C6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="23" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="8">
         <v>0.8</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="26" t="s">
+        <v>10</v>
+      </c>
       <c r="G6" s="8"/>
       <c r="H6" s="3"/>
       <c r="I6" s="8"/>
@@ -1034,13 +1050,15 @@
       <c r="C7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="23" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="8">
         <v>0.7</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="26" t="s">
+        <v>10</v>
+      </c>
       <c r="G7" s="8"/>
       <c r="H7" s="3"/>
       <c r="I7" s="8"/>
@@ -1064,13 +1082,15 @@
       <c r="C8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="23" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="8">
         <v>0.9</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="26" t="s">
+        <v>10</v>
+      </c>
       <c r="G8" s="8"/>
       <c r="H8" s="3"/>
       <c r="I8" s="8"/>
@@ -1092,13 +1112,15 @@
       <c r="C9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="23" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="8">
         <v>0.9</v>
       </c>
-      <c r="F9" s="11"/>
+      <c r="F9" s="26" t="s">
+        <v>10</v>
+      </c>
       <c r="G9" s="8"/>
       <c r="H9" s="11"/>
       <c r="I9" s="8"/>
@@ -1122,13 +1144,15 @@
       <c r="C10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="23" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="8">
         <v>0.9</v>
       </c>
-      <c r="F10" s="11"/>
+      <c r="F10" s="26" t="s">
+        <v>10</v>
+      </c>
       <c r="G10" s="8"/>
       <c r="H10" s="11"/>
       <c r="I10" s="8"/>
@@ -1154,13 +1178,15 @@
       <c r="C11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="23" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="8">
         <v>0.9</v>
       </c>
-      <c r="F11" s="11"/>
+      <c r="F11" s="26" t="s">
+        <v>10</v>
+      </c>
       <c r="G11" s="8"/>
       <c r="H11" s="11"/>
       <c r="I11" s="8"/>
@@ -1184,13 +1210,15 @@
       <c r="C12" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="23" t="s">
         <v>34</v>
       </c>
       <c r="E12" s="8">
         <v>0.8</v>
       </c>
-      <c r="F12" s="11"/>
+      <c r="F12" s="26" t="s">
+        <v>10</v>
+      </c>
       <c r="G12" s="8"/>
       <c r="H12" s="11"/>
       <c r="I12" s="8"/>
@@ -1200,7 +1228,9 @@
       <c r="K12" s="8">
         <v>1</v>
       </c>
-      <c r="L12" s="3"/>
+      <c r="L12" s="26" t="s">
+        <v>10</v>
+      </c>
       <c r="M12" s="8"/>
       <c r="N12" s="5"/>
     </row>
@@ -1214,13 +1244,15 @@
       <c r="C13" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="24" t="s">
         <v>7</v>
       </c>
       <c r="E13" s="14">
         <v>0.8</v>
       </c>
-      <c r="F13" s="13"/>
+      <c r="F13" s="26" t="s">
+        <v>10</v>
+      </c>
       <c r="G13" s="14"/>
       <c r="H13" s="13"/>
       <c r="I13" s="14"/>
@@ -1232,9 +1264,7 @@
       </c>
       <c r="L13" s="12"/>
       <c r="M13" s="14"/>
-      <c r="N13" s="15" t="s">
-        <v>63</v>
-      </c>
+      <c r="N13" s="15"/>
     </row>
     <row r="14" spans="1:14" s="4" customFormat="1">
       <c r="A14" s="12">
@@ -1246,13 +1276,15 @@
       <c r="C14" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="14">
         <v>0.9</v>
       </c>
-      <c r="F14" s="12"/>
+      <c r="F14" s="26" t="s">
+        <v>10</v>
+      </c>
       <c r="G14" s="14"/>
       <c r="H14" s="12"/>
       <c r="I14" s="14"/>
@@ -1264,9 +1296,7 @@
       </c>
       <c r="L14" s="12"/>
       <c r="M14" s="14"/>
-      <c r="N14" s="15" t="s">
-        <v>64</v>
-      </c>
+      <c r="N14" s="15"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="12">
@@ -1278,13 +1308,15 @@
       <c r="C15" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="14">
         <v>0.9</v>
       </c>
-      <c r="F15" s="12"/>
+      <c r="F15" s="26" t="s">
+        <v>10</v>
+      </c>
       <c r="G15" s="14"/>
       <c r="H15" s="12"/>
       <c r="I15" s="14"/>
@@ -1296,9 +1328,7 @@
       </c>
       <c r="L15" s="12"/>
       <c r="M15" s="14"/>
-      <c r="N15" s="15" t="s">
-        <v>64</v>
-      </c>
+      <c r="N15" s="15"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="12">
@@ -1310,13 +1340,15 @@
       <c r="C16" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="14">
         <v>0.9</v>
       </c>
-      <c r="F16" s="12"/>
+      <c r="F16" s="26" t="s">
+        <v>10</v>
+      </c>
       <c r="G16" s="14"/>
       <c r="H16" s="12"/>
       <c r="I16" s="14"/>
@@ -1328,9 +1360,7 @@
       </c>
       <c r="L16" s="12"/>
       <c r="M16" s="14"/>
-      <c r="N16" s="15" t="s">
-        <v>64</v>
-      </c>
+      <c r="N16" s="15"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="2">
@@ -1342,13 +1372,15 @@
       <c r="C17" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="23" t="s">
         <v>7</v>
       </c>
       <c r="E17" s="9">
         <v>1</v>
       </c>
-      <c r="F17" s="3"/>
+      <c r="F17" s="26" t="s">
+        <v>10</v>
+      </c>
       <c r="G17" s="9"/>
       <c r="H17" s="3"/>
       <c r="I17" s="9"/>
@@ -1358,7 +1390,9 @@
       <c r="K17" s="9">
         <v>1</v>
       </c>
-      <c r="L17" s="2"/>
+      <c r="L17" s="26" t="s">
+        <v>10</v>
+      </c>
       <c r="M17" s="9"/>
       <c r="N17" s="2"/>
     </row>
@@ -1372,13 +1406,15 @@
       <c r="C18" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="23" t="s">
         <v>7</v>
       </c>
       <c r="E18" s="9">
         <v>1</v>
       </c>
-      <c r="F18" s="3"/>
+      <c r="F18" s="26" t="s">
+        <v>10</v>
+      </c>
       <c r="G18" s="9"/>
       <c r="H18" s="3"/>
       <c r="I18" s="9"/>
@@ -1388,7 +1424,9 @@
       <c r="K18" s="9">
         <v>1</v>
       </c>
-      <c r="L18" s="2"/>
+      <c r="L18" s="26" t="s">
+        <v>10</v>
+      </c>
       <c r="M18" s="9"/>
       <c r="N18" s="2"/>
     </row>
@@ -1402,11 +1440,13 @@
       <c r="C19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="23" t="s">
         <v>10</v>
       </c>
       <c r="E19" s="9"/>
-      <c r="F19" s="11"/>
+      <c r="F19" s="26" t="s">
+        <v>10</v>
+      </c>
       <c r="G19" s="9"/>
       <c r="H19" s="11"/>
       <c r="I19" s="9"/>
@@ -1416,7 +1456,9 @@
       <c r="K19" s="9">
         <v>1</v>
       </c>
-      <c r="L19" s="2"/>
+      <c r="L19" s="26" t="s">
+        <v>10</v>
+      </c>
       <c r="M19" s="9"/>
       <c r="N19" s="2"/>
     </row>
@@ -1430,11 +1472,13 @@
       <c r="C20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="23" t="s">
         <v>10</v>
       </c>
       <c r="E20" s="9"/>
-      <c r="F20" s="11"/>
+      <c r="F20" s="26" t="s">
+        <v>10</v>
+      </c>
       <c r="G20" s="9"/>
       <c r="H20" s="11"/>
       <c r="I20" s="9"/>
@@ -1444,7 +1488,9 @@
       <c r="K20" s="9">
         <v>1</v>
       </c>
-      <c r="L20" s="2"/>
+      <c r="L20" s="26" t="s">
+        <v>10</v>
+      </c>
       <c r="M20" s="9"/>
       <c r="N20" s="2"/>
     </row>
@@ -1458,11 +1504,11 @@
       <c r="C21" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="23" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="9"/>
-      <c r="F21" s="11"/>
+      <c r="F21" s="26"/>
       <c r="G21" s="9"/>
       <c r="H21" s="11"/>
       <c r="I21" s="9"/>
@@ -1482,7 +1528,7 @@
       <c r="C22" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="23"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -1504,7 +1550,7 @@
       <c r="C23" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="3"/>
+      <c r="D23" s="23"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>

--- a/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GithubProject\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B79ED8D-039C-44B6-828F-E1A296B96C39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" concurrentManualCount="2"/>
+  <calcPr calcId="152511" concurrentManualCount="2"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -312,18 +311,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -332,7 +331,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -353,28 +352,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -382,7 +381,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -510,6 +509,11 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -528,14 +532,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -812,20 +811,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="4.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.375" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.375" style="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
@@ -839,44 +838,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="37.5" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="18" t="s">
+      <c r="E1" s="24"/>
+      <c r="F1" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="18" t="s">
+      <c r="G1" s="24"/>
+      <c r="H1" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="20" t="s">
+      <c r="I1" s="24"/>
+      <c r="J1" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="20" t="s">
+      <c r="K1" s="26"/>
+      <c r="L1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="21"/>
-      <c r="N1" s="16" t="s">
+      <c r="M1" s="26"/>
+      <c r="N1" s="21" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="22" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="16" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -906,9 +905,9 @@
       <c r="M2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="17"/>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="N2" s="22"/>
+    </row>
+    <row r="3" spans="1:14" ht="18.75">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -918,13 +917,13 @@
       <c r="C3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="F3" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="20" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="8"/>
@@ -940,7 +939,7 @@
       <c r="M3" s="8"/>
       <c r="N3" s="5"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" ht="18.75">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -950,13 +949,13 @@
       <c r="C4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="F4" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="20" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="8"/>
@@ -984,13 +983,13 @@
       <c r="C5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="17" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="8">
         <v>0.8</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="20" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="8"/>
@@ -1016,13 +1015,13 @@
       <c r="C6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="17" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="8">
         <v>0.8</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="20" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="8"/>
@@ -1040,7 +1039,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" ht="18.75">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1050,13 +1049,13 @@
       <c r="C7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="8">
         <v>0.7</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="20" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="8"/>
@@ -1072,7 +1071,7 @@
       <c r="M7" s="8"/>
       <c r="N7" s="5"/>
     </row>
-    <row r="8" spans="1:14" s="4" customFormat="1">
+    <row r="8" spans="1:14" s="4" customFormat="1" ht="18.75">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1082,13 +1081,13 @@
       <c r="C8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="8">
         <v>0.9</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="20" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="8"/>
@@ -1102,7 +1101,7 @@
       <c r="M8" s="8"/>
       <c r="N8" s="5"/>
     </row>
-    <row r="9" spans="1:14" s="4" customFormat="1">
+    <row r="9" spans="1:14" s="4" customFormat="1" ht="18.75">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1112,13 +1111,13 @@
       <c r="C9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="8">
         <v>0.9</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="20" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="8"/>
@@ -1144,13 +1143,13 @@
       <c r="C10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="8">
         <v>0.9</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="20" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="8"/>
@@ -1168,7 +1167,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="4" customFormat="1">
+    <row r="11" spans="1:14" s="4" customFormat="1" ht="18.75">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1178,13 +1177,13 @@
       <c r="C11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="F11" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="20" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="8"/>
@@ -1200,7 +1199,7 @@
       <c r="M11" s="3"/>
       <c r="N11" s="5"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" ht="18.75">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1210,13 +1209,13 @@
       <c r="C12" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="17" t="s">
         <v>34</v>
       </c>
       <c r="E12" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="F12" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="20" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="8"/>
@@ -1228,13 +1227,13 @@
       <c r="K12" s="8">
         <v>1</v>
       </c>
-      <c r="L12" s="26" t="s">
+      <c r="L12" s="20" t="s">
         <v>10</v>
       </c>
       <c r="M12" s="8"/>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" ht="18.75">
       <c r="A13" s="12">
         <v>11</v>
       </c>
@@ -1244,13 +1243,13 @@
       <c r="C13" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E13" s="14">
         <v>0.8</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="20" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="14"/>
@@ -1266,7 +1265,7 @@
       <c r="M13" s="14"/>
       <c r="N13" s="15"/>
     </row>
-    <row r="14" spans="1:14" s="4" customFormat="1">
+    <row r="14" spans="1:14" s="4" customFormat="1" ht="18.75">
       <c r="A14" s="12">
         <v>12</v>
       </c>
@@ -1276,13 +1275,13 @@
       <c r="C14" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="18" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="14">
         <v>0.9</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="20" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="14"/>
@@ -1298,7 +1297,7 @@
       <c r="M14" s="14"/>
       <c r="N14" s="15"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" ht="18.75">
       <c r="A15" s="12">
         <v>13</v>
       </c>
@@ -1308,13 +1307,13 @@
       <c r="C15" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="18" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="14">
         <v>0.9</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="20" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="14"/>
@@ -1330,7 +1329,7 @@
       <c r="M15" s="14"/>
       <c r="N15" s="15"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" ht="18.75">
       <c r="A16" s="12">
         <v>14</v>
       </c>
@@ -1340,13 +1339,13 @@
       <c r="C16" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="18" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="14">
         <v>0.9</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="20" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="14"/>
@@ -1372,13 +1371,13 @@
       <c r="C17" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="17" t="s">
         <v>7</v>
       </c>
       <c r="E17" s="9">
         <v>1</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="20" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="9"/>
@@ -1390,7 +1389,7 @@
       <c r="K17" s="9">
         <v>1</v>
       </c>
-      <c r="L17" s="26" t="s">
+      <c r="L17" s="20" t="s">
         <v>10</v>
       </c>
       <c r="M17" s="9"/>
@@ -1406,13 +1405,13 @@
       <c r="C18" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="17" t="s">
         <v>7</v>
       </c>
       <c r="E18" s="9">
         <v>1</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="20" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="9"/>
@@ -1424,7 +1423,7 @@
       <c r="K18" s="9">
         <v>1</v>
       </c>
-      <c r="L18" s="26" t="s">
+      <c r="L18" s="20" t="s">
         <v>10</v>
       </c>
       <c r="M18" s="9"/>
@@ -1440,11 +1439,11 @@
       <c r="C19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E19" s="9"/>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="20" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="9"/>
@@ -1456,7 +1455,7 @@
       <c r="K19" s="9">
         <v>1</v>
       </c>
-      <c r="L19" s="26" t="s">
+      <c r="L19" s="20" t="s">
         <v>10</v>
       </c>
       <c r="M19" s="9"/>
@@ -1472,11 +1471,11 @@
       <c r="C20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E20" s="9"/>
-      <c r="F20" s="26" t="s">
+      <c r="F20" s="20" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="9"/>
@@ -1488,7 +1487,7 @@
       <c r="K20" s="9">
         <v>1</v>
       </c>
-      <c r="L20" s="26" t="s">
+      <c r="L20" s="20" t="s">
         <v>10</v>
       </c>
       <c r="M20" s="9"/>
@@ -1504,11 +1503,11 @@
       <c r="C21" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="9"/>
-      <c r="F21" s="26"/>
+      <c r="F21" s="20"/>
       <c r="G21" s="9"/>
       <c r="H21" s="11"/>
       <c r="I21" s="9"/>
@@ -1528,7 +1527,7 @@
       <c r="C22" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="23"/>
+      <c r="D22" s="17"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -1550,7 +1549,7 @@
       <c r="C23" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="23"/>
+      <c r="D23" s="17"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>

--- a/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GithubProject\backdoor\01_基本設計書\20200220リリース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA6D051-E796-4D31-9D10-310A1B386AE5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="29490" yWindow="255" windowWidth="21825" windowHeight="14805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
@@ -19,17 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="65">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -307,22 +303,42 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>上海(蔡)</t>
+    <rPh sb="0" eb="2">
+      <t>シャンハイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上海(王)</t>
+    <rPh sb="0" eb="2">
+      <t>シャンハイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -331,7 +347,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -352,28 +368,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -381,7 +397,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -534,7 +550,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -811,15 +827,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="4.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
@@ -827,7 +843,7 @@
     <col min="4" max="4" width="7.375" style="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.375" bestFit="1" customWidth="1"/>
@@ -907,7 +923,7 @@
       </c>
       <c r="N2" s="22"/>
     </row>
-    <row r="3" spans="1:14" ht="18.75">
+    <row r="3" spans="1:14">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -924,9 +940,11 @@
         <v>1</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="8"/>
+        <v>63</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1</v>
+      </c>
       <c r="H3" s="3"/>
       <c r="I3" s="8"/>
       <c r="J3" s="3" t="s">
@@ -939,7 +957,7 @@
       <c r="M3" s="8"/>
       <c r="N3" s="5"/>
     </row>
-    <row r="4" spans="1:14" ht="18.75">
+    <row r="4" spans="1:14">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -956,9 +974,11 @@
         <v>1</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="8"/>
+        <v>63</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1</v>
+      </c>
       <c r="H4" s="3"/>
       <c r="I4" s="8"/>
       <c r="J4" s="3" t="s">
@@ -990,9 +1010,11 @@
         <v>0.8</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="8"/>
+        <v>64</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0.7</v>
+      </c>
       <c r="H5" s="3"/>
       <c r="I5" s="8"/>
       <c r="J5" s="6" t="s">
@@ -1022,9 +1044,11 @@
         <v>0.8</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="8"/>
+        <v>64</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1</v>
+      </c>
       <c r="H6" s="3"/>
       <c r="I6" s="8"/>
       <c r="J6" s="6" t="s">
@@ -1039,7 +1063,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="18.75">
+    <row r="7" spans="1:14">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1053,12 +1077,14 @@
         <v>10</v>
       </c>
       <c r="E7" s="8">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="8"/>
+        <v>64</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1</v>
+      </c>
       <c r="H7" s="3"/>
       <c r="I7" s="8"/>
       <c r="J7" s="6" t="s">
@@ -1071,7 +1097,7 @@
       <c r="M7" s="8"/>
       <c r="N7" s="5"/>
     </row>
-    <row r="8" spans="1:14" s="4" customFormat="1" ht="18.75">
+    <row r="8" spans="1:14" s="4" customFormat="1">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1085,12 +1111,14 @@
         <v>10</v>
       </c>
       <c r="E8" s="8">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="8"/>
+        <v>64</v>
+      </c>
+      <c r="G8" s="8">
+        <v>1</v>
+      </c>
       <c r="H8" s="3"/>
       <c r="I8" s="8"/>
       <c r="J8" s="6" t="s">
@@ -1101,7 +1129,7 @@
       <c r="M8" s="8"/>
       <c r="N8" s="5"/>
     </row>
-    <row r="9" spans="1:14" s="4" customFormat="1" ht="18.75">
+    <row r="9" spans="1:14" s="4" customFormat="1">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1115,12 +1143,14 @@
         <v>10</v>
       </c>
       <c r="E9" s="8">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="8"/>
+        <v>64</v>
+      </c>
+      <c r="G9" s="8">
+        <v>1</v>
+      </c>
       <c r="H9" s="11"/>
       <c r="I9" s="8"/>
       <c r="J9" s="3" t="s">
@@ -1147,12 +1177,14 @@
         <v>10</v>
       </c>
       <c r="E10" s="8">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="8"/>
+        <v>64</v>
+      </c>
+      <c r="G10" s="8">
+        <v>1</v>
+      </c>
       <c r="H10" s="11"/>
       <c r="I10" s="8"/>
       <c r="J10" s="3" t="s">
@@ -1167,7 +1199,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="4" customFormat="1" ht="18.75">
+    <row r="11" spans="1:14" s="4" customFormat="1">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1184,9 +1216,11 @@
         <v>1</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="8"/>
+        <v>63</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1</v>
+      </c>
       <c r="H11" s="11"/>
       <c r="I11" s="8"/>
       <c r="J11" s="3" t="s">
@@ -1199,7 +1233,7 @@
       <c r="M11" s="3"/>
       <c r="N11" s="5"/>
     </row>
-    <row r="12" spans="1:14" ht="18.75">
+    <row r="12" spans="1:14">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1216,9 +1250,11 @@
         <v>1</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="8"/>
+        <v>63</v>
+      </c>
+      <c r="G12" s="8">
+        <v>1</v>
+      </c>
       <c r="H12" s="11"/>
       <c r="I12" s="8"/>
       <c r="J12" s="3" t="s">
@@ -1233,7 +1269,7 @@
       <c r="M12" s="8"/>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="1:14" ht="18.75">
+    <row r="13" spans="1:14">
       <c r="A13" s="12">
         <v>11</v>
       </c>
@@ -1250,7 +1286,7 @@
         <v>0.8</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="13"/>
@@ -1265,7 +1301,7 @@
       <c r="M13" s="14"/>
       <c r="N13" s="15"/>
     </row>
-    <row r="14" spans="1:14" s="4" customFormat="1" ht="18.75">
+    <row r="14" spans="1:14" s="4" customFormat="1">
       <c r="A14" s="12">
         <v>12</v>
       </c>
@@ -1282,7 +1318,7 @@
         <v>0.9</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="12"/>
@@ -1297,7 +1333,7 @@
       <c r="M14" s="14"/>
       <c r="N14" s="15"/>
     </row>
-    <row r="15" spans="1:14" ht="18.75">
+    <row r="15" spans="1:14">
       <c r="A15" s="12">
         <v>13</v>
       </c>
@@ -1314,7 +1350,7 @@
         <v>0.9</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="12"/>
@@ -1329,7 +1365,7 @@
       <c r="M15" s="14"/>
       <c r="N15" s="15"/>
     </row>
-    <row r="16" spans="1:14" ht="18.75">
+    <row r="16" spans="1:14">
       <c r="A16" s="12">
         <v>14</v>
       </c>
@@ -1346,7 +1382,7 @@
         <v>0.9</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="12"/>
@@ -1378,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="3"/>
@@ -1412,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="3"/>
@@ -1442,11 +1478,15 @@
       <c r="D19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="9"/>
+      <c r="E19" s="8">
+        <v>1</v>
+      </c>
       <c r="F19" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="9"/>
+        <v>64</v>
+      </c>
+      <c r="G19" s="8">
+        <v>1</v>
+      </c>
       <c r="H19" s="11"/>
       <c r="I19" s="9"/>
       <c r="J19" s="3" t="s">
@@ -1474,11 +1514,15 @@
       <c r="D20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="9"/>
+      <c r="E20" s="8">
+        <v>1</v>
+      </c>
       <c r="F20" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="9"/>
+        <v>64</v>
+      </c>
+      <c r="G20" s="8">
+        <v>1</v>
+      </c>
       <c r="H20" s="11"/>
       <c r="I20" s="9"/>
       <c r="J20" s="3" t="s">
@@ -1506,9 +1550,15 @@
       <c r="D21" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="9"/>
+      <c r="E21" s="8">
+        <v>1</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="8">
+        <v>1</v>
+      </c>
       <c r="H21" s="11"/>
       <c r="I21" s="9"/>
       <c r="J21" s="3"/>

--- a/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GithubProject\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA6D051-E796-4D31-9D10-310A1B386AE5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29490" yWindow="255" windowWidth="21825" windowHeight="14805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29490" yWindow="255" windowWidth="21825" windowHeight="14805"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
@@ -327,18 +326,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -347,7 +346,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -368,28 +367,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -397,7 +396,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -550,7 +549,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -827,15 +826,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="4.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
@@ -923,7 +922,7 @@
       </c>
       <c r="N2" s="22"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" ht="18.75">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -957,7 +956,7 @@
       <c r="M3" s="8"/>
       <c r="N3" s="5"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" ht="18.75">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1063,7 +1062,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" ht="18.75">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1097,7 +1096,7 @@
       <c r="M7" s="8"/>
       <c r="N7" s="5"/>
     </row>
-    <row r="8" spans="1:14" s="4" customFormat="1">
+    <row r="8" spans="1:14" s="4" customFormat="1" ht="18.75">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1129,7 +1128,7 @@
       <c r="M8" s="8"/>
       <c r="N8" s="5"/>
     </row>
-    <row r="9" spans="1:14" s="4" customFormat="1">
+    <row r="9" spans="1:14" s="4" customFormat="1" ht="18.75">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1199,7 +1198,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="4" customFormat="1">
+    <row r="11" spans="1:14" s="4" customFormat="1" ht="18.75">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1233,7 +1232,7 @@
       <c r="M11" s="3"/>
       <c r="N11" s="5"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" ht="18.75">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1269,7 +1268,7 @@
       <c r="M12" s="8"/>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" ht="18.75">
       <c r="A13" s="12">
         <v>11</v>
       </c>
@@ -1282,13 +1281,15 @@
       <c r="D13" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="14">
-        <v>0.8</v>
+      <c r="E13" s="8">
+        <v>1</v>
       </c>
       <c r="F13" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="G13" s="14"/>
+      <c r="G13" s="8">
+        <v>1</v>
+      </c>
       <c r="H13" s="13"/>
       <c r="I13" s="14"/>
       <c r="J13" s="12" t="s">
@@ -1301,7 +1302,7 @@
       <c r="M13" s="14"/>
       <c r="N13" s="15"/>
     </row>
-    <row r="14" spans="1:14" s="4" customFormat="1">
+    <row r="14" spans="1:14" s="4" customFormat="1" ht="18.75">
       <c r="A14" s="12">
         <v>12</v>
       </c>
@@ -1314,13 +1315,15 @@
       <c r="D14" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="14">
-        <v>0.9</v>
+      <c r="E14" s="8">
+        <v>1</v>
       </c>
       <c r="F14" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="14"/>
+      <c r="G14" s="8">
+        <v>1</v>
+      </c>
       <c r="H14" s="12"/>
       <c r="I14" s="14"/>
       <c r="J14" s="12" t="s">
@@ -1333,7 +1336,7 @@
       <c r="M14" s="14"/>
       <c r="N14" s="15"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" ht="18.75">
       <c r="A15" s="12">
         <v>13</v>
       </c>
@@ -1346,13 +1349,15 @@
       <c r="D15" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="14">
-        <v>0.9</v>
+      <c r="E15" s="8">
+        <v>1</v>
       </c>
       <c r="F15" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="14"/>
+      <c r="G15" s="8">
+        <v>1</v>
+      </c>
       <c r="H15" s="12"/>
       <c r="I15" s="14"/>
       <c r="J15" s="12" t="s">
@@ -1365,7 +1370,7 @@
       <c r="M15" s="14"/>
       <c r="N15" s="15"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" ht="18.75">
       <c r="A16" s="12">
         <v>14</v>
       </c>
@@ -1378,13 +1383,15 @@
       <c r="D16" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="14">
-        <v>0.9</v>
+      <c r="E16" s="8">
+        <v>1</v>
       </c>
       <c r="F16" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="G16" s="14"/>
+      <c r="G16" s="8">
+        <v>1</v>
+      </c>
       <c r="H16" s="12"/>
       <c r="I16" s="14"/>
       <c r="J16" s="12" t="s">

--- a/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GithubProject\backdoor\01_基本設計書\20200220リリース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8195405-0A3D-4A73-BA7C-C6F4C916465C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29490" yWindow="255" windowWidth="21825" windowHeight="14805"/>
+    <workbookView xWindow="30060" yWindow="585" windowWidth="21825" windowHeight="14805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
@@ -326,18 +327,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -346,7 +347,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -367,28 +368,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -396,7 +397,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -549,7 +550,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -826,15 +827,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="4.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
@@ -922,7 +923,7 @@
       </c>
       <c r="N2" s="22"/>
     </row>
-    <row r="3" spans="1:14" ht="18.75">
+    <row r="3" spans="1:14">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -956,7 +957,7 @@
       <c r="M3" s="8"/>
       <c r="N3" s="5"/>
     </row>
-    <row r="4" spans="1:14" ht="18.75">
+    <row r="4" spans="1:14">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1012,7 +1013,7 @@
         <v>64</v>
       </c>
       <c r="G5" s="8">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="8"/>
@@ -1062,7 +1063,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="18.75">
+    <row r="7" spans="1:14">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1096,7 +1097,7 @@
       <c r="M7" s="8"/>
       <c r="N7" s="5"/>
     </row>
-    <row r="8" spans="1:14" s="4" customFormat="1" ht="18.75">
+    <row r="8" spans="1:14" s="4" customFormat="1">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1128,7 +1129,7 @@
       <c r="M8" s="8"/>
       <c r="N8" s="5"/>
     </row>
-    <row r="9" spans="1:14" s="4" customFormat="1" ht="18.75">
+    <row r="9" spans="1:14" s="4" customFormat="1">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1198,7 +1199,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="4" customFormat="1" ht="18.75">
+    <row r="11" spans="1:14" s="4" customFormat="1">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1232,7 +1233,7 @@
       <c r="M11" s="3"/>
       <c r="N11" s="5"/>
     </row>
-    <row r="12" spans="1:14" ht="18.75">
+    <row r="12" spans="1:14">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1268,7 +1269,7 @@
       <c r="M12" s="8"/>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="1:14" ht="18.75">
+    <row r="13" spans="1:14">
       <c r="A13" s="12">
         <v>11</v>
       </c>
@@ -1302,7 +1303,7 @@
       <c r="M13" s="14"/>
       <c r="N13" s="15"/>
     </row>
-    <row r="14" spans="1:14" s="4" customFormat="1" ht="18.75">
+    <row r="14" spans="1:14" s="4" customFormat="1">
       <c r="A14" s="12">
         <v>12</v>
       </c>
@@ -1336,7 +1337,7 @@
       <c r="M14" s="14"/>
       <c r="N14" s="15"/>
     </row>
-    <row r="15" spans="1:14" ht="18.75">
+    <row r="15" spans="1:14">
       <c r="A15" s="12">
         <v>13</v>
       </c>
@@ -1370,7 +1371,7 @@
       <c r="M15" s="14"/>
       <c r="N15" s="15"/>
     </row>
-    <row r="16" spans="1:14" ht="18.75">
+    <row r="16" spans="1:14">
       <c r="A16" s="12">
         <v>14</v>
       </c>
@@ -1423,7 +1424,9 @@
       <c r="F17" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="G17" s="9"/>
+      <c r="G17" s="8">
+        <v>1</v>
+      </c>
       <c r="H17" s="3"/>
       <c r="I17" s="9"/>
       <c r="J17" s="6" t="s">
@@ -1457,7 +1460,9 @@
       <c r="F18" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="G18" s="9"/>
+      <c r="G18" s="8">
+        <v>1</v>
+      </c>
       <c r="H18" s="3"/>
       <c r="I18" s="9"/>
       <c r="J18" s="6" t="s">

--- a/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GithubProject\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8195405-0A3D-4A73-BA7C-C6F4C916465C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30060" yWindow="585" windowWidth="21825" windowHeight="14805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30060" yWindow="585" windowWidth="21825" windowHeight="14805"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
@@ -327,18 +326,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -347,7 +346,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -368,28 +367,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -397,7 +396,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -550,7 +549,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -827,15 +826,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="4.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
@@ -923,7 +922,7 @@
       </c>
       <c r="N2" s="22"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" ht="18.75">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -957,7 +956,7 @@
       <c r="M3" s="8"/>
       <c r="N3" s="5"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" ht="18.75">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1063,7 +1062,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" ht="18.75">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1097,7 +1096,7 @@
       <c r="M7" s="8"/>
       <c r="N7" s="5"/>
     </row>
-    <row r="8" spans="1:14" s="4" customFormat="1">
+    <row r="8" spans="1:14" s="4" customFormat="1" ht="18.75">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1129,7 +1128,7 @@
       <c r="M8" s="8"/>
       <c r="N8" s="5"/>
     </row>
-    <row r="9" spans="1:14" s="4" customFormat="1">
+    <row r="9" spans="1:14" s="4" customFormat="1" ht="18.75">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1199,7 +1198,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="4" customFormat="1">
+    <row r="11" spans="1:14" s="4" customFormat="1" ht="18.75">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1233,7 +1232,7 @@
       <c r="M11" s="3"/>
       <c r="N11" s="5"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" ht="18.75">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1264,12 +1263,14 @@
         <v>1</v>
       </c>
       <c r="L12" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="M12" s="8"/>
+        <v>63</v>
+      </c>
+      <c r="M12" s="8">
+        <v>0.2</v>
+      </c>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" ht="18.75">
       <c r="A13" s="12">
         <v>11</v>
       </c>
@@ -1303,7 +1304,7 @@
       <c r="M13" s="14"/>
       <c r="N13" s="15"/>
     </row>
-    <row r="14" spans="1:14" s="4" customFormat="1">
+    <row r="14" spans="1:14" s="4" customFormat="1" ht="18.75">
       <c r="A14" s="12">
         <v>12</v>
       </c>
@@ -1337,7 +1338,7 @@
       <c r="M14" s="14"/>
       <c r="N14" s="15"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" ht="18.75">
       <c r="A15" s="12">
         <v>13</v>
       </c>
@@ -1371,7 +1372,7 @@
       <c r="M15" s="14"/>
       <c r="N15" s="15"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" ht="18.75">
       <c r="A16" s="12">
         <v>14</v>
       </c>

--- a/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GithubProject\backdoor\01_基本設計書\20200220リリース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE95E17-1DB9-4E34-B4D9-A0E6E0D0D06F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30060" yWindow="585" windowWidth="21825" windowHeight="14805"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
@@ -326,18 +327,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -346,7 +347,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -367,28 +368,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -396,7 +397,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -549,7 +550,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -826,15 +827,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="4.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
@@ -922,7 +923,7 @@
       </c>
       <c r="N2" s="22"/>
     </row>
-    <row r="3" spans="1:14" ht="18.75">
+    <row r="3" spans="1:14">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -956,7 +957,7 @@
       <c r="M3" s="8"/>
       <c r="N3" s="5"/>
     </row>
-    <row r="4" spans="1:14" ht="18.75">
+    <row r="4" spans="1:14">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1062,7 +1063,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="18.75">
+    <row r="7" spans="1:14">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1096,7 +1097,7 @@
       <c r="M7" s="8"/>
       <c r="N7" s="5"/>
     </row>
-    <row r="8" spans="1:14" s="4" customFormat="1" ht="18.75">
+    <row r="8" spans="1:14" s="4" customFormat="1">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1128,7 +1129,7 @@
       <c r="M8" s="8"/>
       <c r="N8" s="5"/>
     </row>
-    <row r="9" spans="1:14" s="4" customFormat="1" ht="18.75">
+    <row r="9" spans="1:14" s="4" customFormat="1">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1198,7 +1199,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="4" customFormat="1" ht="18.75">
+    <row r="11" spans="1:14" s="4" customFormat="1">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1232,7 +1233,7 @@
       <c r="M11" s="3"/>
       <c r="N11" s="5"/>
     </row>
-    <row r="12" spans="1:14" ht="18.75">
+    <row r="12" spans="1:14">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1270,7 +1271,7 @@
       </c>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="1:14" ht="18.75">
+    <row r="13" spans="1:14">
       <c r="A13" s="12">
         <v>11</v>
       </c>
@@ -1304,7 +1305,7 @@
       <c r="M13" s="14"/>
       <c r="N13" s="15"/>
     </row>
-    <row r="14" spans="1:14" s="4" customFormat="1" ht="18.75">
+    <row r="14" spans="1:14" s="4" customFormat="1">
       <c r="A14" s="12">
         <v>12</v>
       </c>
@@ -1338,7 +1339,7 @@
       <c r="M14" s="14"/>
       <c r="N14" s="15"/>
     </row>
-    <row r="15" spans="1:14" ht="18.75">
+    <row r="15" spans="1:14">
       <c r="A15" s="12">
         <v>13</v>
       </c>
@@ -1372,7 +1373,7 @@
       <c r="M15" s="14"/>
       <c r="N15" s="15"/>
     </row>
-    <row r="16" spans="1:14" ht="18.75">
+    <row r="16" spans="1:14">
       <c r="A16" s="12">
         <v>14</v>
       </c>
@@ -1437,9 +1438,11 @@
         <v>1</v>
       </c>
       <c r="L17" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="M17" s="9"/>
+        <v>64</v>
+      </c>
+      <c r="M17" s="9">
+        <v>0.1</v>
+      </c>
       <c r="N17" s="2"/>
     </row>
     <row r="18" spans="1:14">

--- a/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GithubProject\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE95E17-1DB9-4E34-B4D9-A0E6E0D0D06F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
@@ -327,18 +326,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -347,7 +346,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -368,28 +367,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -397,7 +396,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -550,7 +549,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -827,7 +826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N26"/>
   <sheetViews>
@@ -835,7 +834,7 @@
       <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="4.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
@@ -923,7 +922,7 @@
       </c>
       <c r="N2" s="22"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" ht="18.75">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -957,7 +956,7 @@
       <c r="M3" s="8"/>
       <c r="N3" s="5"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" ht="18.75">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1063,7 +1062,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" ht="18.75">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1097,7 +1096,7 @@
       <c r="M7" s="8"/>
       <c r="N7" s="5"/>
     </row>
-    <row r="8" spans="1:14" s="4" customFormat="1">
+    <row r="8" spans="1:14" s="4" customFormat="1" ht="18.75">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1129,7 +1128,7 @@
       <c r="M8" s="8"/>
       <c r="N8" s="5"/>
     </row>
-    <row r="9" spans="1:14" s="4" customFormat="1">
+    <row r="9" spans="1:14" s="4" customFormat="1" ht="18.75">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1199,7 +1198,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="4" customFormat="1">
+    <row r="11" spans="1:14" s="4" customFormat="1" ht="18.75">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1233,7 +1232,7 @@
       <c r="M11" s="3"/>
       <c r="N11" s="5"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" ht="18.75">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1267,11 +1266,11 @@
         <v>63</v>
       </c>
       <c r="M12" s="8">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" ht="18.75">
       <c r="A13" s="12">
         <v>11</v>
       </c>
@@ -1305,7 +1304,7 @@
       <c r="M13" s="14"/>
       <c r="N13" s="15"/>
     </row>
-    <row r="14" spans="1:14" s="4" customFormat="1">
+    <row r="14" spans="1:14" s="4" customFormat="1" ht="18.75">
       <c r="A14" s="12">
         <v>12</v>
       </c>
@@ -1339,7 +1338,7 @@
       <c r="M14" s="14"/>
       <c r="N14" s="15"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" ht="18.75">
       <c r="A15" s="12">
         <v>13</v>
       </c>
@@ -1373,7 +1372,7 @@
       <c r="M15" s="14"/>
       <c r="N15" s="15"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" ht="18.75">
       <c r="A16" s="12">
         <v>14</v>
       </c>

--- a/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
@@ -1,23 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GithubProject\backdoor\01_基本設計書\20200220リリース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C05BB00-8D57-4162-9F9B-A84C513EE9D4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="30810" yWindow="585" windowWidth="19710" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentManualCount="2"/>
+  <calcPr calcId="191029" concurrentManualCount="2"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -326,18 +335,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -346,7 +355,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -367,28 +376,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -396,7 +405,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -549,7 +558,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -826,15 +835,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="4.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
@@ -922,7 +931,7 @@
       </c>
       <c r="N2" s="22"/>
     </row>
-    <row r="3" spans="1:14" ht="18.75">
+    <row r="3" spans="1:14">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -956,7 +965,7 @@
       <c r="M3" s="8"/>
       <c r="N3" s="5"/>
     </row>
-    <row r="4" spans="1:14" ht="18.75">
+    <row r="4" spans="1:14">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1062,7 +1071,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="18.75">
+    <row r="7" spans="1:14">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1096,7 +1105,7 @@
       <c r="M7" s="8"/>
       <c r="N7" s="5"/>
     </row>
-    <row r="8" spans="1:14" s="4" customFormat="1" ht="18.75">
+    <row r="8" spans="1:14" s="4" customFormat="1">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1128,7 +1137,7 @@
       <c r="M8" s="8"/>
       <c r="N8" s="5"/>
     </row>
-    <row r="9" spans="1:14" s="4" customFormat="1" ht="18.75">
+    <row r="9" spans="1:14" s="4" customFormat="1">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1198,7 +1207,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="4" customFormat="1" ht="18.75">
+    <row r="11" spans="1:14" s="4" customFormat="1">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1232,7 +1241,7 @@
       <c r="M11" s="3"/>
       <c r="N11" s="5"/>
     </row>
-    <row r="12" spans="1:14" ht="18.75">
+    <row r="12" spans="1:14">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1270,7 +1279,7 @@
       </c>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="1:14" ht="18.75">
+    <row r="13" spans="1:14">
       <c r="A13" s="12">
         <v>11</v>
       </c>
@@ -1304,7 +1313,7 @@
       <c r="M13" s="14"/>
       <c r="N13" s="15"/>
     </row>
-    <row r="14" spans="1:14" s="4" customFormat="1" ht="18.75">
+    <row r="14" spans="1:14" s="4" customFormat="1">
       <c r="A14" s="12">
         <v>12</v>
       </c>
@@ -1338,7 +1347,7 @@
       <c r="M14" s="14"/>
       <c r="N14" s="15"/>
     </row>
-    <row r="15" spans="1:14" ht="18.75">
+    <row r="15" spans="1:14">
       <c r="A15" s="12">
         <v>13</v>
       </c>
@@ -1372,7 +1381,7 @@
       <c r="M15" s="14"/>
       <c r="N15" s="15"/>
     </row>
-    <row r="16" spans="1:14" ht="18.75">
+    <row r="16" spans="1:14">
       <c r="A16" s="12">
         <v>14</v>
       </c>
@@ -1440,7 +1449,7 @@
         <v>64</v>
       </c>
       <c r="M17" s="9">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="N17" s="2"/>
     </row>

--- a/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GithubProject\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C05BB00-8D57-4162-9F9B-A84C513EE9D4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30810" yWindow="585" windowWidth="19710" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30810" yWindow="585" windowWidth="19710" windowHeight="12840"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentManualCount="2"/>
+  <calcPr calcId="152511" concurrentManualCount="2"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -335,18 +334,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -355,7 +354,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -376,28 +375,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -405,7 +404,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -558,7 +557,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -835,15 +834,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="4.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
@@ -931,7 +930,7 @@
       </c>
       <c r="N2" s="22"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" ht="18.75">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -965,7 +964,7 @@
       <c r="M3" s="8"/>
       <c r="N3" s="5"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" ht="18.75">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1071,7 +1070,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" ht="18.75">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1105,7 +1104,7 @@
       <c r="M7" s="8"/>
       <c r="N7" s="5"/>
     </row>
-    <row r="8" spans="1:14" s="4" customFormat="1">
+    <row r="8" spans="1:14" s="4" customFormat="1" ht="18.75">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1137,7 +1136,7 @@
       <c r="M8" s="8"/>
       <c r="N8" s="5"/>
     </row>
-    <row r="9" spans="1:14" s="4" customFormat="1">
+    <row r="9" spans="1:14" s="4" customFormat="1" ht="18.75">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1207,7 +1206,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="4" customFormat="1">
+    <row r="11" spans="1:14" s="4" customFormat="1" ht="18.75">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1241,7 +1240,7 @@
       <c r="M11" s="3"/>
       <c r="N11" s="5"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" ht="18.75">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1275,11 +1274,11 @@
         <v>63</v>
       </c>
       <c r="M12" s="8">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" ht="18.75">
       <c r="A13" s="12">
         <v>11</v>
       </c>
@@ -1313,7 +1312,7 @@
       <c r="M13" s="14"/>
       <c r="N13" s="15"/>
     </row>
-    <row r="14" spans="1:14" s="4" customFormat="1">
+    <row r="14" spans="1:14" s="4" customFormat="1" ht="18.75">
       <c r="A14" s="12">
         <v>12</v>
       </c>
@@ -1347,7 +1346,7 @@
       <c r="M14" s="14"/>
       <c r="N14" s="15"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" ht="18.75">
       <c r="A15" s="12">
         <v>13</v>
       </c>
@@ -1381,7 +1380,7 @@
       <c r="M15" s="14"/>
       <c r="N15" s="15"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" ht="18.75">
       <c r="A16" s="12">
         <v>14</v>
       </c>

--- a/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GithubProject\backdoor\01_基本設計書\20200220リリース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F780991D-24F6-4161-A95F-CFF7A00A4078}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30810" yWindow="585" windowWidth="19710" windowHeight="12840"/>
+    <workbookView xWindow="8625" yWindow="1470" windowWidth="19440" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
@@ -19,14 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -334,18 +327,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -354,7 +347,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -375,28 +368,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -404,7 +397,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -557,7 +550,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -834,15 +827,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="4.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
@@ -930,7 +923,7 @@
       </c>
       <c r="N2" s="22"/>
     </row>
-    <row r="3" spans="1:14" ht="18.75">
+    <row r="3" spans="1:14">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -964,7 +957,7 @@
       <c r="M3" s="8"/>
       <c r="N3" s="5"/>
     </row>
-    <row r="4" spans="1:14" ht="18.75">
+    <row r="4" spans="1:14">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1070,7 +1063,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="18.75">
+    <row r="7" spans="1:14">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1104,7 +1097,7 @@
       <c r="M7" s="8"/>
       <c r="N7" s="5"/>
     </row>
-    <row r="8" spans="1:14" s="4" customFormat="1" ht="18.75">
+    <row r="8" spans="1:14" s="4" customFormat="1">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1136,7 +1129,7 @@
       <c r="M8" s="8"/>
       <c r="N8" s="5"/>
     </row>
-    <row r="9" spans="1:14" s="4" customFormat="1" ht="18.75">
+    <row r="9" spans="1:14" s="4" customFormat="1">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1206,7 +1199,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="4" customFormat="1" ht="18.75">
+    <row r="11" spans="1:14" s="4" customFormat="1">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1240,7 +1233,7 @@
       <c r="M11" s="3"/>
       <c r="N11" s="5"/>
     </row>
-    <row r="12" spans="1:14" ht="18.75">
+    <row r="12" spans="1:14">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1278,7 +1271,7 @@
       </c>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="1:14" ht="18.75">
+    <row r="13" spans="1:14">
       <c r="A13" s="12">
         <v>11</v>
       </c>
@@ -1312,7 +1305,7 @@
       <c r="M13" s="14"/>
       <c r="N13" s="15"/>
     </row>
-    <row r="14" spans="1:14" s="4" customFormat="1" ht="18.75">
+    <row r="14" spans="1:14" s="4" customFormat="1">
       <c r="A14" s="12">
         <v>12</v>
       </c>
@@ -1346,7 +1339,7 @@
       <c r="M14" s="14"/>
       <c r="N14" s="15"/>
     </row>
-    <row r="15" spans="1:14" ht="18.75">
+    <row r="15" spans="1:14">
       <c r="A15" s="12">
         <v>13</v>
       </c>
@@ -1380,7 +1373,7 @@
       <c r="M15" s="14"/>
       <c r="N15" s="15"/>
     </row>
-    <row r="16" spans="1:14" ht="18.75">
+    <row r="16" spans="1:14">
       <c r="A16" s="12">
         <v>14</v>
       </c>
@@ -1448,7 +1441,7 @@
         <v>64</v>
       </c>
       <c r="M17" s="9">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="N17" s="2"/>
     </row>

--- a/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhang\Documents\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F780991D-24F6-4161-A95F-CFF7A00A4078}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9BB5DB-2E99-4188-A960-CA08529A2E3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8625" yWindow="1470" windowWidth="19440" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="67">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -320,6 +320,23 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>オウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー待</t>
+    <rPh sb="4" eb="5">
+      <t>タイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新要</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -355,13 +372,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
@@ -401,6 +411,13 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="5">
@@ -508,28 +525,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -548,6 +564,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -831,8 +849,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -840,7 +858,7 @@
     <col min="1" max="1" width="4.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.375" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.375" style="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.125" bestFit="1" customWidth="1"/>
@@ -854,44 +872,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="37.5" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="23" t="s">
+      <c r="E1" s="23"/>
+      <c r="F1" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="23" t="s">
+      <c r="G1" s="23"/>
+      <c r="H1" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="25" t="s">
+      <c r="I1" s="23"/>
+      <c r="J1" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="26"/>
-      <c r="L1" s="25" t="s">
+      <c r="K1" s="25"/>
+      <c r="L1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="26"/>
-      <c r="N1" s="21" t="s">
+      <c r="M1" s="25"/>
+      <c r="N1" s="20" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="16" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -921,7 +939,7 @@
       <c r="M2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="22"/>
+      <c r="N2" s="21"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2">
@@ -933,13 +951,13 @@
       <c r="C3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="8">
         <v>1</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="19" t="s">
         <v>63</v>
       </c>
       <c r="G3" s="8">
@@ -951,11 +969,13 @@
         <v>6</v>
       </c>
       <c r="K3" s="8">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="8"/>
-      <c r="N3" s="5"/>
+      <c r="N3" s="5" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2">
@@ -967,13 +987,13 @@
       <c r="C4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="8">
         <v>1</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="19" t="s">
         <v>63</v>
       </c>
       <c r="G4" s="8">
@@ -1003,13 +1023,13 @@
       <c r="C5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="8">
         <v>0.8</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="19" t="s">
         <v>64</v>
       </c>
       <c r="G5" s="8">
@@ -1037,13 +1057,13 @@
       <c r="C6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="8">
         <v>0.8</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="19" t="s">
         <v>64</v>
       </c>
       <c r="G6" s="8">
@@ -1073,13 +1093,13 @@
       <c r="C7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="8">
         <v>1</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="19" t="s">
         <v>64</v>
       </c>
       <c r="G7" s="8">
@@ -1107,13 +1127,13 @@
       <c r="C8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="8">
         <v>1</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="19" t="s">
         <v>64</v>
       </c>
       <c r="G8" s="8">
@@ -1139,13 +1159,13 @@
       <c r="C9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="8">
         <v>1</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="19" t="s">
         <v>64</v>
       </c>
       <c r="G9" s="8">
@@ -1157,11 +1177,13 @@
         <v>6</v>
       </c>
       <c r="K9" s="8">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-      <c r="N9" s="5"/>
+      <c r="N9" s="5" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="10" spans="1:14" s="4" customFormat="1">
       <c r="A10" s="2">
@@ -1173,13 +1195,13 @@
       <c r="C10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="8">
         <v>1</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="19" t="s">
         <v>64</v>
       </c>
       <c r="G10" s="8">
@@ -1209,13 +1231,13 @@
       <c r="C11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="8">
         <v>1</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="19" t="s">
         <v>63</v>
       </c>
       <c r="G11" s="8">
@@ -1231,7 +1253,9 @@
       </c>
       <c r="L11" s="6"/>
       <c r="M11" s="3"/>
-      <c r="N11" s="5"/>
+      <c r="N11" s="5" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2">
@@ -1243,13 +1267,13 @@
       <c r="C12" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>34</v>
       </c>
       <c r="E12" s="8">
         <v>1</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="19" t="s">
         <v>63</v>
       </c>
       <c r="G12" s="8">
@@ -1263,7 +1287,7 @@
       <c r="K12" s="8">
         <v>1</v>
       </c>
-      <c r="L12" s="20" t="s">
+      <c r="L12" s="19" t="s">
         <v>63</v>
       </c>
       <c r="M12" s="8">
@@ -1281,13 +1305,13 @@
       <c r="C13" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="17" t="s">
         <v>7</v>
       </c>
       <c r="E13" s="8">
         <v>1</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="19" t="s">
         <v>63</v>
       </c>
       <c r="G13" s="8">
@@ -1299,11 +1323,13 @@
         <v>6</v>
       </c>
       <c r="K13" s="14">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="L13" s="12"/>
       <c r="M13" s="14"/>
-      <c r="N13" s="15"/>
+      <c r="N13" s="26" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="14" spans="1:14" s="4" customFormat="1">
       <c r="A14" s="12">
@@ -1315,13 +1341,13 @@
       <c r="C14" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="17" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="8">
         <v>1</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="19" t="s">
         <v>63</v>
       </c>
       <c r="G14" s="8">
@@ -1333,11 +1359,13 @@
         <v>6</v>
       </c>
       <c r="K14" s="14">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="L14" s="12"/>
       <c r="M14" s="14"/>
-      <c r="N14" s="15"/>
+      <c r="N14" s="27" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="12">
@@ -1349,13 +1377,13 @@
       <c r="C15" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="17" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="8">
         <v>1</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="19" t="s">
         <v>63</v>
       </c>
       <c r="G15" s="8">
@@ -1367,11 +1395,13 @@
         <v>6</v>
       </c>
       <c r="K15" s="14">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="L15" s="12"/>
       <c r="M15" s="14"/>
-      <c r="N15" s="15"/>
+      <c r="N15" s="27" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="12">
@@ -1383,13 +1413,13 @@
       <c r="C16" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="17" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="8">
         <v>1</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="19" t="s">
         <v>63</v>
       </c>
       <c r="G16" s="8">
@@ -1401,11 +1431,13 @@
         <v>6</v>
       </c>
       <c r="K16" s="14">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="L16" s="12"/>
       <c r="M16" s="14"/>
-      <c r="N16" s="15"/>
+      <c r="N16" s="27" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="2">
@@ -1417,13 +1449,13 @@
       <c r="C17" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="16" t="s">
         <v>7</v>
       </c>
       <c r="E17" s="9">
         <v>1</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="19" t="s">
         <v>64</v>
       </c>
       <c r="G17" s="8">
@@ -1437,7 +1469,7 @@
       <c r="K17" s="9">
         <v>1</v>
       </c>
-      <c r="L17" s="20" t="s">
+      <c r="L17" s="19" t="s">
         <v>64</v>
       </c>
       <c r="M17" s="9">
@@ -1455,13 +1487,13 @@
       <c r="C18" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="16" t="s">
         <v>7</v>
       </c>
       <c r="E18" s="9">
         <v>1</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="19" t="s">
         <v>64</v>
       </c>
       <c r="G18" s="8">
@@ -1475,7 +1507,7 @@
       <c r="K18" s="9">
         <v>1</v>
       </c>
-      <c r="L18" s="20" t="s">
+      <c r="L18" s="19" t="s">
         <v>10</v>
       </c>
       <c r="M18" s="9"/>
@@ -1491,13 +1523,13 @@
       <c r="C19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E19" s="8">
         <v>1</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="19" t="s">
         <v>64</v>
       </c>
       <c r="G19" s="8">
@@ -1511,7 +1543,7 @@
       <c r="K19" s="9">
         <v>1</v>
       </c>
-      <c r="L19" s="20" t="s">
+      <c r="L19" s="19" t="s">
         <v>10</v>
       </c>
       <c r="M19" s="9"/>
@@ -1527,13 +1559,13 @@
       <c r="C20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E20" s="8">
         <v>1</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="19" t="s">
         <v>64</v>
       </c>
       <c r="G20" s="8">
@@ -1547,7 +1579,7 @@
       <c r="K20" s="9">
         <v>1</v>
       </c>
-      <c r="L20" s="20" t="s">
+      <c r="L20" s="19" t="s">
         <v>10</v>
       </c>
       <c r="M20" s="9"/>
@@ -1563,13 +1595,13 @@
       <c r="C21" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="8">
         <v>1</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="19" t="s">
         <v>64</v>
       </c>
       <c r="G21" s="8">
@@ -1593,7 +1625,7 @@
       <c r="C22" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="17"/>
+      <c r="D22" s="16"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -1615,7 +1647,7 @@
       <c r="C23" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="17"/>
+      <c r="D23" s="16"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>

--- a/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhang\Documents\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9BB5DB-2E99-4188-A960-CA08529A2E3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F246375-D1EE-4D91-A75A-840D7DA82F88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="67">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -546,6 +546,8 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -564,8 +566,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -860,7 +860,7 @@
     <col min="3" max="3" width="49" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.375" style="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.375" style="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.5" bestFit="1" customWidth="1"/>
@@ -872,50 +872,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="37.5" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="22" t="s">
+      <c r="E1" s="25"/>
+      <c r="F1" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="22" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="24" t="s">
+      <c r="I1" s="25"/>
+      <c r="J1" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="25"/>
-      <c r="L1" s="24" t="s">
+      <c r="K1" s="27"/>
+      <c r="L1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="25"/>
-      <c r="N1" s="20" t="s">
+      <c r="M1" s="27"/>
+      <c r="N1" s="22" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
       <c r="D2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -939,7 +939,7 @@
       <c r="M2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="21"/>
+      <c r="N2" s="23"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2">
@@ -957,7 +957,7 @@
       <c r="E3" s="8">
         <v>1</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="16" t="s">
         <v>63</v>
       </c>
       <c r="G3" s="8">
@@ -993,7 +993,7 @@
       <c r="E4" s="8">
         <v>1</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="16" t="s">
         <v>63</v>
       </c>
       <c r="G4" s="8">
@@ -1027,9 +1027,9 @@
         <v>13</v>
       </c>
       <c r="E5" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="F5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>64</v>
       </c>
       <c r="G5" s="8">
@@ -1061,9 +1061,9 @@
         <v>13</v>
       </c>
       <c r="E6" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="F6" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="16" t="s">
         <v>64</v>
       </c>
       <c r="G6" s="8">
@@ -1079,9 +1079,7 @@
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="7"/>
-      <c r="N6" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="N6" s="2"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2">
@@ -1099,7 +1097,7 @@
       <c r="E7" s="8">
         <v>1</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="16" t="s">
         <v>64</v>
       </c>
       <c r="G7" s="8">
@@ -1110,8 +1108,8 @@
       <c r="J7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="7">
-        <v>0.9</v>
+      <c r="K7" s="9">
+        <v>1</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="8"/>
@@ -1133,7 +1131,7 @@
       <c r="E8" s="8">
         <v>1</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="16" t="s">
         <v>64</v>
       </c>
       <c r="G8" s="8">
@@ -1144,10 +1142,14 @@
       <c r="J8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="8"/>
+      <c r="K8" s="7">
+        <v>0.9</v>
+      </c>
       <c r="L8" s="3"/>
       <c r="M8" s="8"/>
-      <c r="N8" s="5"/>
+      <c r="N8" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:14" s="4" customFormat="1">
       <c r="A9" s="2">
@@ -1165,7 +1167,7 @@
       <c r="E9" s="8">
         <v>1</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="16" t="s">
         <v>64</v>
       </c>
       <c r="G9" s="8">
@@ -1201,7 +1203,7 @@
       <c r="E10" s="8">
         <v>1</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="16" t="s">
         <v>64</v>
       </c>
       <c r="G10" s="8">
@@ -1237,7 +1239,7 @@
       <c r="E11" s="8">
         <v>1</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="16" t="s">
         <v>63</v>
       </c>
       <c r="G11" s="8">
@@ -1273,7 +1275,7 @@
       <c r="E12" s="8">
         <v>1</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="16" t="s">
         <v>63</v>
       </c>
       <c r="G12" s="8">
@@ -1311,7 +1313,7 @@
       <c r="E13" s="8">
         <v>1</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="16" t="s">
         <v>63</v>
       </c>
       <c r="G13" s="8">
@@ -1327,7 +1329,7 @@
       </c>
       <c r="L13" s="12"/>
       <c r="M13" s="14"/>
-      <c r="N13" s="26" t="s">
+      <c r="N13" s="20" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1347,7 +1349,7 @@
       <c r="E14" s="8">
         <v>1</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="16" t="s">
         <v>63</v>
       </c>
       <c r="G14" s="8">
@@ -1363,7 +1365,7 @@
       </c>
       <c r="L14" s="12"/>
       <c r="M14" s="14"/>
-      <c r="N14" s="27" t="s">
+      <c r="N14" s="21" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1383,7 +1385,7 @@
       <c r="E15" s="8">
         <v>1</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="16" t="s">
         <v>63</v>
       </c>
       <c r="G15" s="8">
@@ -1399,7 +1401,7 @@
       </c>
       <c r="L15" s="12"/>
       <c r="M15" s="14"/>
-      <c r="N15" s="27" t="s">
+      <c r="N15" s="21" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1419,7 +1421,7 @@
       <c r="E16" s="8">
         <v>1</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="16" t="s">
         <v>63</v>
       </c>
       <c r="G16" s="8">
@@ -1435,7 +1437,7 @@
       </c>
       <c r="L16" s="12"/>
       <c r="M16" s="14"/>
-      <c r="N16" s="27" t="s">
+      <c r="N16" s="21" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1452,10 +1454,10 @@
       <c r="D17" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="9">
-        <v>1</v>
-      </c>
-      <c r="F17" s="19" t="s">
+      <c r="E17" s="8">
+        <v>1</v>
+      </c>
+      <c r="F17" s="16" t="s">
         <v>64</v>
       </c>
       <c r="G17" s="8">
@@ -1490,10 +1492,10 @@
       <c r="D18" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="9">
-        <v>1</v>
-      </c>
-      <c r="F18" s="19" t="s">
+      <c r="E18" s="8">
+        <v>1</v>
+      </c>
+      <c r="F18" s="16" t="s">
         <v>64</v>
       </c>
       <c r="G18" s="8">
@@ -1529,7 +1531,7 @@
       <c r="E19" s="8">
         <v>1</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="16" t="s">
         <v>64</v>
       </c>
       <c r="G19" s="8">
@@ -1565,7 +1567,7 @@
       <c r="E20" s="8">
         <v>1</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="16" t="s">
         <v>64</v>
       </c>
       <c r="G20" s="8">
@@ -1601,7 +1603,7 @@
       <c r="E21" s="8">
         <v>1</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="16" t="s">
         <v>64</v>
       </c>
       <c r="G21" s="8">
@@ -1627,7 +1629,7 @@
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="F22" s="16"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -1649,7 +1651,7 @@
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="F23" s="16"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>

--- a/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F246375-D1EE-4D91-A75A-840D7DA82F88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BF1C8F-C87D-4E6A-81A5-2B1B9D512AB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="67">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -1074,12 +1074,14 @@
       <c r="J6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="9">
-        <v>1</v>
+      <c r="K6" s="8">
+        <v>0.95</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="7"/>
-      <c r="N6" s="2"/>
+      <c r="N6" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2">
@@ -1142,8 +1144,8 @@
       <c r="J8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="7">
-        <v>0.9</v>
+      <c r="K8" s="8">
+        <v>0.95</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="8"/>

--- a/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
@@ -8,24 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BF1C8F-C87D-4E6A-81A5-2B1B9D512AB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C3EC39-4C46-4E78-BCEE-EA71495AEE1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentManualCount="2"/>
+  <calcPr calcId="181029" concurrentManualCount="2"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="66">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -327,16 +333,6 @@
     <t>レビュー待</t>
     <rPh sb="4" eb="5">
       <t>タイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>更新要</t>
-    <rPh sb="0" eb="2">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1291,7 +1287,7 @@
       <c r="K12" s="8">
         <v>1</v>
       </c>
-      <c r="L12" s="19" t="s">
+      <c r="L12" s="16" t="s">
         <v>63</v>
       </c>
       <c r="M12" s="8">
@@ -1326,14 +1322,14 @@
       <c r="J13" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="14">
-        <v>0.7</v>
-      </c>
-      <c r="L13" s="12"/>
+      <c r="K13" s="8">
+        <v>1</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>10</v>
+      </c>
       <c r="M13" s="14"/>
-      <c r="N13" s="20" t="s">
-        <v>66</v>
-      </c>
+      <c r="N13" s="20"/>
     </row>
     <row r="14" spans="1:14" s="4" customFormat="1">
       <c r="A14" s="12">
@@ -1362,14 +1358,14 @@
       <c r="J14" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="14">
-        <v>0.7</v>
-      </c>
-      <c r="L14" s="12"/>
+      <c r="K14" s="8">
+        <v>1</v>
+      </c>
+      <c r="L14" s="19" t="s">
+        <v>10</v>
+      </c>
       <c r="M14" s="14"/>
-      <c r="N14" s="21" t="s">
-        <v>66</v>
-      </c>
+      <c r="N14" s="21"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="12">
@@ -1398,14 +1394,14 @@
       <c r="J15" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="14">
-        <v>0.7</v>
-      </c>
-      <c r="L15" s="12"/>
+      <c r="K15" s="8">
+        <v>1</v>
+      </c>
+      <c r="L15" s="19" t="s">
+        <v>10</v>
+      </c>
       <c r="M15" s="14"/>
-      <c r="N15" s="21" t="s">
-        <v>66</v>
-      </c>
+      <c r="N15" s="21"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="12">
@@ -1434,14 +1430,14 @@
       <c r="J16" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="K16" s="14">
-        <v>0.7</v>
-      </c>
-      <c r="L16" s="12"/>
+      <c r="K16" s="8">
+        <v>1</v>
+      </c>
+      <c r="L16" s="19" t="s">
+        <v>10</v>
+      </c>
       <c r="M16" s="14"/>
-      <c r="N16" s="21" t="s">
-        <v>66</v>
-      </c>
+      <c r="N16" s="21"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="2">
@@ -1473,7 +1469,7 @@
       <c r="K17" s="9">
         <v>1</v>
       </c>
-      <c r="L17" s="19" t="s">
+      <c r="L17" s="16" t="s">
         <v>64</v>
       </c>
       <c r="M17" s="9">
@@ -1511,7 +1507,7 @@
       <c r="K18" s="9">
         <v>1</v>
       </c>
-      <c r="L18" s="19" t="s">
+      <c r="L18" s="16" t="s">
         <v>10</v>
       </c>
       <c r="M18" s="9"/>
@@ -1547,7 +1543,7 @@
       <c r="K19" s="9">
         <v>1</v>
       </c>
-      <c r="L19" s="19" t="s">
+      <c r="L19" s="16" t="s">
         <v>10</v>
       </c>
       <c r="M19" s="9"/>
@@ -1583,7 +1579,7 @@
       <c r="K20" s="9">
         <v>1</v>
       </c>
-      <c r="L20" s="19" t="s">
+      <c r="L20" s="16" t="s">
         <v>10</v>
       </c>
       <c r="M20" s="9"/>

--- a/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GithubProject\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C969834A-3D51-4356-A8DB-D2F40C9DFD46}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6270" yWindow="120" windowWidth="22095" windowHeight="14220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6270" yWindow="120" windowWidth="22095" windowHeight="14220"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" concurrentManualCount="2"/>
+  <calcPr calcId="152511" concurrentManualCount="2"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -340,18 +339,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -360,7 +359,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -374,28 +373,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -403,7 +402,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -564,7 +563,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -841,15 +840,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="4.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
@@ -937,7 +936,7 @@
       </c>
       <c r="N2" s="23"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" ht="18.75">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -973,7 +972,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" ht="18.75">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1079,7 +1078,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" ht="18.75">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1149,7 +1148,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="4" customFormat="1">
+    <row r="9" spans="1:14" s="4" customFormat="1" ht="18.75">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1221,7 +1220,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="4" customFormat="1">
+    <row r="11" spans="1:14" s="4" customFormat="1" ht="18.75">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1257,7 +1256,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" ht="18.75">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1291,11 +1290,11 @@
         <v>63</v>
       </c>
       <c r="M12" s="8">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" ht="18.75">
       <c r="A13" s="12">
         <v>11</v>
       </c>
@@ -1331,7 +1330,7 @@
       <c r="M13" s="14"/>
       <c r="N13" s="20"/>
     </row>
-    <row r="14" spans="1:14" s="4" customFormat="1">
+    <row r="14" spans="1:14" s="4" customFormat="1" ht="18.75">
       <c r="A14" s="12">
         <v>12</v>
       </c>
@@ -1367,7 +1366,7 @@
       <c r="M14" s="14"/>
       <c r="N14" s="21"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" ht="18.75">
       <c r="A15" s="12">
         <v>13</v>
       </c>
@@ -1403,7 +1402,7 @@
       <c r="M15" s="14"/>
       <c r="N15" s="21"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" ht="18.75">
       <c r="A16" s="12">
         <v>14</v>
       </c>

--- a/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C3EC39-4C46-4E78-BCEE-EA71495AEE1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C969834A-3D51-4356-A8DB-D2F40C9DFD46}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6270" yWindow="120" windowWidth="22095" windowHeight="14220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="66">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -846,7 +846,7 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1473,7 +1473,7 @@
         <v>64</v>
       </c>
       <c r="M17" s="9">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="N17" s="2"/>
     </row>
@@ -1508,9 +1508,11 @@
         <v>1</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="M18" s="9"/>
+        <v>64</v>
+      </c>
+      <c r="M18" s="9">
+        <v>0.3</v>
+      </c>
       <c r="N18" s="2"/>
     </row>
     <row r="19" spans="1:14">

--- a/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GithubProject\backdoor\01_基本設計書\20200220リリース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhang\Documents\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CC8E71-6516-4829-9F28-975F0E0E4C71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6270" yWindow="120" windowWidth="22095" windowHeight="14220"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
@@ -19,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="67">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -335,22 +330,26 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>レビュー待</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -359,7 +358,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -373,28 +372,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -402,7 +401,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -563,7 +562,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -840,19 +839,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="4.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.125" customWidth="1"/>
     <col min="4" max="4" width="7.375" style="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.375" style="18" bestFit="1" customWidth="1"/>
@@ -936,7 +935,7 @@
       </c>
       <c r="N2" s="23"/>
     </row>
-    <row r="3" spans="1:14" ht="18.75">
+    <row r="3" spans="1:14">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -972,7 +971,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="18.75">
+    <row r="4" spans="1:14">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1078,7 +1077,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="18.75">
+    <row r="7" spans="1:14">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1148,7 +1147,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="4" customFormat="1" ht="18.75">
+    <row r="9" spans="1:14" s="4" customFormat="1">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1220,7 +1219,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="4" customFormat="1" ht="18.75">
+    <row r="11" spans="1:14" s="4" customFormat="1">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1248,15 +1247,13 @@
         <v>6</v>
       </c>
       <c r="K11" s="8">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="L11" s="6"/>
       <c r="M11" s="3"/>
-      <c r="N11" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="18.75">
+      <c r="N11" s="5"/>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1294,7 +1291,7 @@
       </c>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="1:14" ht="18.75">
+    <row r="13" spans="1:14">
       <c r="A13" s="12">
         <v>11</v>
       </c>
@@ -1322,15 +1319,17 @@
         <v>6</v>
       </c>
       <c r="K13" s="8">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="L13" s="19" t="s">
         <v>10</v>
       </c>
       <c r="M13" s="14"/>
-      <c r="N13" s="20"/>
-    </row>
-    <row r="14" spans="1:14" s="4" customFormat="1" ht="18.75">
+      <c r="N13" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="4" customFormat="1">
       <c r="A14" s="12">
         <v>12</v>
       </c>
@@ -1358,7 +1357,7 @@
         <v>6</v>
       </c>
       <c r="K14" s="8">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="L14" s="19" t="s">
         <v>10</v>
@@ -1366,7 +1365,7 @@
       <c r="M14" s="14"/>
       <c r="N14" s="21"/>
     </row>
-    <row r="15" spans="1:14" ht="18.75">
+    <row r="15" spans="1:14">
       <c r="A15" s="12">
         <v>13</v>
       </c>
@@ -1394,7 +1393,7 @@
         <v>6</v>
       </c>
       <c r="K15" s="8">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="L15" s="19" t="s">
         <v>10</v>
@@ -1402,7 +1401,7 @@
       <c r="M15" s="14"/>
       <c r="N15" s="21"/>
     </row>
-    <row r="16" spans="1:14" ht="18.75">
+    <row r="16" spans="1:14">
       <c r="A16" s="12">
         <v>14</v>
       </c>
@@ -1430,7 +1429,7 @@
         <v>6</v>
       </c>
       <c r="K16" s="8">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="L16" s="19" t="s">
         <v>10</v>

--- a/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhang\Documents\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CC8E71-6516-4829-9F28-975F0E0E4C71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6182F4BF-2685-4E55-89D1-58D0CC4F2986}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1290" windowWidth="20490" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="67">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -339,7 +339,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -405,13 +405,6 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="5">
@@ -519,7 +512,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -541,7 +534,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -866,43 +858,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="37.5" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="24" t="s">
+      <c r="E1" s="24"/>
+      <c r="F1" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="24" t="s">
+      <c r="G1" s="24"/>
+      <c r="H1" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="26" t="s">
+      <c r="I1" s="24"/>
+      <c r="J1" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="27"/>
-      <c r="L1" s="26" t="s">
+      <c r="K1" s="26"/>
+      <c r="L1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="27"/>
-      <c r="N1" s="22" t="s">
+      <c r="M1" s="26"/>
+      <c r="N1" s="21" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
       <c r="D2" s="15" t="s">
         <v>4</v>
       </c>
@@ -933,7 +925,7 @@
       <c r="M2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="23"/>
+      <c r="N2" s="22"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2">
@@ -1357,13 +1349,15 @@
         <v>6</v>
       </c>
       <c r="K14" s="8">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="L14" s="19" t="s">
         <v>10</v>
       </c>
       <c r="M14" s="14"/>
-      <c r="N14" s="21"/>
+      <c r="N14" s="20" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="12">
@@ -1399,7 +1393,9 @@
         <v>10</v>
       </c>
       <c r="M15" s="14"/>
-      <c r="N15" s="21"/>
+      <c r="N15" s="20" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="12">
@@ -1435,7 +1431,9 @@
         <v>10</v>
       </c>
       <c r="M16" s="14"/>
-      <c r="N16" s="21"/>
+      <c r="N16" s="20" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="2">

--- a/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
@@ -5,27 +5,33 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhang\Documents\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6182F4BF-2685-4E55-89D1-58D0CC4F2986}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5394059F-C454-40EA-8CDF-1D20704B4CA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1290" windowWidth="20490" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentManualCount="2"/>
+  <calcPr calcId="181029" concurrentManualCount="2"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="72">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -332,6 +338,27 @@
   </si>
   <si>
     <t>レビュー待</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+  </si>
+  <si>
+    <t>△</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+  </si>
+  <si>
+    <t>〇：レビュー中</t>
+    <rPh sb="6" eb="7">
+      <t>チュウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -433,7 +460,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -508,11 +535,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -551,6 +589,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -833,7 +886,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection sqref="A1:A2"/>
@@ -851,13 +904,15 @@
     <col min="8" max="8" width="7.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="55.5" customWidth="1"/>
+    <col min="11" max="11" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="55.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="37.5" customHeight="1">
+    <row r="1" spans="1:16" ht="37.5" customHeight="1">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -882,16 +937,18 @@
       <c r="J1" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="26"/>
-      <c r="L1" s="25" t="s">
+      <c r="K1" s="27"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="26"/>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="27"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:16">
       <c r="A2" s="22"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -920,14 +977,20 @@
         <v>31</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="22"/>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P2" s="22"/>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -957,13 +1020,17 @@
       <c r="K3" s="8">
         <v>0.95</v>
       </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="5" t="s">
+      <c r="L3" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="M3" s="3"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:16">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -993,13 +1060,17 @@
       <c r="K4" s="8">
         <v>0.85</v>
       </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="5" t="s">
+      <c r="L4" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:16">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1029,11 +1100,15 @@
       <c r="K5" s="9">
         <v>1</v>
       </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="L5" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1063,13 +1138,17 @@
       <c r="K6" s="8">
         <v>0.95</v>
       </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="2" t="s">
+      <c r="L6" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="M6" s="6"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:16">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1099,11 +1178,15 @@
       <c r="K7" s="9">
         <v>1</v>
       </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="5"/>
-    </row>
-    <row r="8" spans="1:14" s="4" customFormat="1">
+      <c r="L7" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="5"/>
+    </row>
+    <row r="8" spans="1:16" s="4" customFormat="1">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1133,13 +1216,17 @@
       <c r="K8" s="8">
         <v>0.95</v>
       </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="2" t="s">
+      <c r="L8" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="M8" s="3"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="4" customFormat="1">
+    <row r="9" spans="1:16" s="4" customFormat="1">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1169,13 +1256,17 @@
       <c r="K9" s="8">
         <v>0.95</v>
       </c>
-      <c r="L9" s="3"/>
+      <c r="L9" s="28" t="s">
+        <v>68</v>
+      </c>
       <c r="M9" s="3"/>
-      <c r="N9" s="5" t="s">
+      <c r="N9" s="3"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="4" customFormat="1">
+    <row r="10" spans="1:16" s="4" customFormat="1">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1205,13 +1296,17 @@
       <c r="K10" s="8">
         <v>0.9</v>
       </c>
-      <c r="L10" s="3"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="2" t="s">
+      <c r="L10" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="4" customFormat="1">
+    <row r="11" spans="1:16" s="4" customFormat="1">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1241,11 +1336,13 @@
       <c r="K11" s="8">
         <v>0.9</v>
       </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="5"/>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="L11" s="28"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="5"/>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1275,15 +1372,21 @@
       <c r="K12" s="8">
         <v>1</v>
       </c>
-      <c r="L12" s="16" t="s">
+      <c r="L12" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="M12" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="M12" s="8">
-        <v>1</v>
-      </c>
-      <c r="N12" s="5"/>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="N12" s="8">
+        <v>1</v>
+      </c>
+      <c r="O12" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="P12" s="5"/>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="12">
         <v>11</v>
       </c>
@@ -1313,15 +1416,19 @@
       <c r="K13" s="8">
         <v>0.95</v>
       </c>
-      <c r="L13" s="19" t="s">
+      <c r="L13" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="M13" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="M13" s="14"/>
-      <c r="N13" s="20" t="s">
+      <c r="N13" s="14"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="4" customFormat="1">
+    <row r="14" spans="1:16" s="4" customFormat="1">
       <c r="A14" s="12">
         <v>12</v>
       </c>
@@ -1351,15 +1458,19 @@
       <c r="K14" s="8">
         <v>0.95</v>
       </c>
-      <c r="L14" s="19" t="s">
+      <c r="L14" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="M14" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="14"/>
-      <c r="N14" s="20" t="s">
+      <c r="N14" s="14"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:16">
       <c r="A15" s="12">
         <v>13</v>
       </c>
@@ -1389,15 +1500,19 @@
       <c r="K15" s="8">
         <v>0.9</v>
       </c>
-      <c r="L15" s="19" t="s">
+      <c r="L15" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="M15" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="M15" s="14"/>
-      <c r="N15" s="20" t="s">
+      <c r="N15" s="14"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:16">
       <c r="A16" s="12">
         <v>14</v>
       </c>
@@ -1427,15 +1542,19 @@
       <c r="K16" s="8">
         <v>0.9</v>
       </c>
-      <c r="L16" s="19" t="s">
+      <c r="L16" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="M16" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="M16" s="14"/>
-      <c r="N16" s="20" t="s">
+      <c r="N16" s="14"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:16">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -1465,15 +1584,19 @@
       <c r="K17" s="9">
         <v>1</v>
       </c>
-      <c r="L17" s="16" t="s">
+      <c r="L17" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="M17" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="M17" s="9">
+      <c r="N17" s="9">
         <v>0.9</v>
       </c>
-      <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17" s="28"/>
+      <c r="P17" s="2"/>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -1503,15 +1626,19 @@
       <c r="K18" s="9">
         <v>1</v>
       </c>
-      <c r="L18" s="16" t="s">
+      <c r="L18" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="M18" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="M18" s="9">
+      <c r="N18" s="9">
         <v>0.3</v>
       </c>
-      <c r="N18" s="2"/>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18" s="28"/>
+      <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -1541,13 +1668,17 @@
       <c r="K19" s="9">
         <v>1</v>
       </c>
-      <c r="L19" s="16" t="s">
+      <c r="L19" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="M19" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="M19" s="9"/>
-      <c r="N19" s="2"/>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="N19" s="9"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="2"/>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -1577,13 +1708,17 @@
       <c r="K20" s="9">
         <v>1</v>
       </c>
-      <c r="L20" s="16" t="s">
+      <c r="L20" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="M20" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="M20" s="9"/>
-      <c r="N20" s="2"/>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="N20" s="9"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="2"/>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -1608,12 +1743,14 @@
       <c r="H21" s="11"/>
       <c r="I21" s="9"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="9"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21" s="9"/>
+      <c r="P21" s="2"/>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -1630,12 +1767,14 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="2"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="9"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22" s="9"/>
+      <c r="P22" s="2"/>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -1652,30 +1791,37 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="9"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="N25" t="s">
+      <c r="O23" s="9"/>
+      <c r="P23" s="2"/>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="P25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="P26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="P27" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="N26" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="P1:P2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="J1:L1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
   </mergeCells>

--- a/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GithubProject\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5394059F-C454-40EA-8CDF-1D20704B4CA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" concurrentManualCount="2"/>
+  <calcPr calcId="152511" concurrentManualCount="2"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -365,18 +364,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -385,7 +384,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -399,28 +398,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -428,7 +427,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -572,6 +571,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -587,27 +598,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -884,15 +883,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="4.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
@@ -913,45 +912,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="37.5" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="23" t="s">
+      <c r="E1" s="28"/>
+      <c r="F1" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="23" t="s">
+      <c r="G1" s="28"/>
+      <c r="H1" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="25" t="s">
+      <c r="I1" s="28"/>
+      <c r="J1" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="27"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="25" t="s">
+      <c r="K1" s="30"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="27"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="21" t="s">
+      <c r="N1" s="30"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="25" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
       <c r="D2" s="15" t="s">
         <v>4</v>
       </c>
@@ -988,9 +987,9 @@
       <c r="O2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="P2" s="22"/>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="P2" s="26"/>
+    </row>
+    <row r="3" spans="1:16" ht="18.75">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1020,17 +1019,17 @@
       <c r="K3" s="8">
         <v>0.95</v>
       </c>
-      <c r="L3" s="28" t="s">
+      <c r="L3" s="21" t="s">
         <v>68</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="8"/>
-      <c r="O3" s="28"/>
+      <c r="O3" s="21"/>
       <c r="P3" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" ht="18.75">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1060,12 +1059,12 @@
       <c r="K4" s="8">
         <v>0.85</v>
       </c>
-      <c r="L4" s="28" t="s">
+      <c r="L4" s="21" t="s">
         <v>69</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="8"/>
-      <c r="O4" s="28"/>
+      <c r="O4" s="21"/>
       <c r="P4" s="5" t="s">
         <v>33</v>
       </c>
@@ -1100,12 +1099,12 @@
       <c r="K5" s="9">
         <v>1</v>
       </c>
-      <c r="L5" s="28" t="s">
+      <c r="L5" s="21" t="s">
         <v>69</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="8"/>
-      <c r="O5" s="28"/>
+      <c r="O5" s="21"/>
       <c r="P5" s="2"/>
     </row>
     <row r="6" spans="1:16">
@@ -1138,17 +1137,17 @@
       <c r="K6" s="8">
         <v>0.95</v>
       </c>
-      <c r="L6" s="28" t="s">
+      <c r="L6" s="21" t="s">
         <v>69</v>
       </c>
       <c r="M6" s="6"/>
       <c r="N6" s="7"/>
-      <c r="O6" s="29"/>
+      <c r="O6" s="22"/>
       <c r="P6" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" ht="18.75">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1178,12 +1177,12 @@
       <c r="K7" s="9">
         <v>1</v>
       </c>
-      <c r="L7" s="28" t="s">
+      <c r="L7" s="21" t="s">
         <v>69</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="8"/>
-      <c r="O7" s="28"/>
+      <c r="O7" s="21"/>
       <c r="P7" s="5"/>
     </row>
     <row r="8" spans="1:16" s="4" customFormat="1">
@@ -1216,17 +1215,17 @@
       <c r="K8" s="8">
         <v>0.95</v>
       </c>
-      <c r="L8" s="28" t="s">
+      <c r="L8" s="21" t="s">
         <v>69</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="28"/>
+      <c r="O8" s="21"/>
       <c r="P8" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="4" customFormat="1">
+    <row r="9" spans="1:16" s="4" customFormat="1" ht="18.75">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1256,12 +1255,12 @@
       <c r="K9" s="8">
         <v>0.95</v>
       </c>
-      <c r="L9" s="28" t="s">
+      <c r="L9" s="21" t="s">
         <v>68</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
-      <c r="O9" s="30"/>
+      <c r="O9" s="23"/>
       <c r="P9" s="5" t="s">
         <v>65</v>
       </c>
@@ -1296,17 +1295,17 @@
       <c r="K10" s="8">
         <v>0.9</v>
       </c>
-      <c r="L10" s="28" t="s">
+      <c r="L10" s="21" t="s">
         <v>68</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="8"/>
-      <c r="O10" s="28"/>
+      <c r="O10" s="21"/>
       <c r="P10" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="4" customFormat="1">
+    <row r="11" spans="1:16" s="4" customFormat="1" ht="18.75">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1336,13 +1335,13 @@
       <c r="K11" s="8">
         <v>0.9</v>
       </c>
-      <c r="L11" s="28"/>
+      <c r="L11" s="21"/>
       <c r="M11" s="6"/>
       <c r="N11" s="3"/>
-      <c r="O11" s="30"/>
+      <c r="O11" s="23"/>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" ht="18.75">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1372,7 +1371,7 @@
       <c r="K12" s="8">
         <v>1</v>
       </c>
-      <c r="L12" s="28" t="s">
+      <c r="L12" s="21" t="s">
         <v>70</v>
       </c>
       <c r="M12" s="16" t="s">
@@ -1381,12 +1380,12 @@
       <c r="N12" s="8">
         <v>1</v>
       </c>
-      <c r="O12" s="28" t="s">
+      <c r="O12" s="21" t="s">
         <v>68</v>
       </c>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" ht="18.75">
       <c r="A13" s="12">
         <v>11</v>
       </c>
@@ -1416,19 +1415,21 @@
       <c r="K13" s="8">
         <v>0.95</v>
       </c>
-      <c r="L13" s="28" t="s">
+      <c r="L13" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="M13" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="N13" s="14"/>
-      <c r="O13" s="31"/>
+      <c r="M13" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="N13" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="O13" s="24"/>
       <c r="P13" s="20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="4" customFormat="1">
+    <row r="14" spans="1:16" s="4" customFormat="1" ht="18.75">
       <c r="A14" s="12">
         <v>12</v>
       </c>
@@ -1458,19 +1459,19 @@
       <c r="K14" s="8">
         <v>0.95</v>
       </c>
-      <c r="L14" s="28" t="s">
+      <c r="L14" s="21" t="s">
         <v>69</v>
       </c>
       <c r="M14" s="19" t="s">
         <v>10</v>
       </c>
       <c r="N14" s="14"/>
-      <c r="O14" s="31"/>
+      <c r="O14" s="24"/>
       <c r="P14" s="20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" ht="18.75">
       <c r="A15" s="12">
         <v>13</v>
       </c>
@@ -1500,19 +1501,19 @@
       <c r="K15" s="8">
         <v>0.9</v>
       </c>
-      <c r="L15" s="28" t="s">
+      <c r="L15" s="21" t="s">
         <v>69</v>
       </c>
       <c r="M15" s="19" t="s">
         <v>10</v>
       </c>
       <c r="N15" s="14"/>
-      <c r="O15" s="31"/>
+      <c r="O15" s="24"/>
       <c r="P15" s="20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" ht="18.75">
       <c r="A16" s="12">
         <v>14</v>
       </c>
@@ -1542,14 +1543,14 @@
       <c r="K16" s="8">
         <v>0.9</v>
       </c>
-      <c r="L16" s="28" t="s">
+      <c r="L16" s="21" t="s">
         <v>69</v>
       </c>
       <c r="M16" s="19" t="s">
         <v>10</v>
       </c>
       <c r="N16" s="14"/>
-      <c r="O16" s="31"/>
+      <c r="O16" s="24"/>
       <c r="P16" s="20" t="s">
         <v>66</v>
       </c>
@@ -1584,7 +1585,7 @@
       <c r="K17" s="9">
         <v>1</v>
       </c>
-      <c r="L17" s="28" t="s">
+      <c r="L17" s="21" t="s">
         <v>69</v>
       </c>
       <c r="M17" s="16" t="s">
@@ -1593,7 +1594,7 @@
       <c r="N17" s="9">
         <v>0.9</v>
       </c>
-      <c r="O17" s="28"/>
+      <c r="O17" s="21"/>
       <c r="P17" s="2"/>
     </row>
     <row r="18" spans="1:16">
@@ -1626,7 +1627,7 @@
       <c r="K18" s="9">
         <v>1</v>
       </c>
-      <c r="L18" s="28" t="s">
+      <c r="L18" s="21" t="s">
         <v>69</v>
       </c>
       <c r="M18" s="16" t="s">
@@ -1635,7 +1636,7 @@
       <c r="N18" s="9">
         <v>0.3</v>
       </c>
-      <c r="O18" s="28"/>
+      <c r="O18" s="21"/>
       <c r="P18" s="2"/>
     </row>
     <row r="19" spans="1:16">
@@ -1668,14 +1669,14 @@
       <c r="K19" s="9">
         <v>1</v>
       </c>
-      <c r="L19" s="28" t="s">
+      <c r="L19" s="21" t="s">
         <v>69</v>
       </c>
       <c r="M19" s="16" t="s">
         <v>10</v>
       </c>
       <c r="N19" s="9"/>
-      <c r="O19" s="28"/>
+      <c r="O19" s="21"/>
       <c r="P19" s="2"/>
     </row>
     <row r="20" spans="1:16">
@@ -1708,14 +1709,14 @@
       <c r="K20" s="9">
         <v>1</v>
       </c>
-      <c r="L20" s="28" t="s">
+      <c r="L20" s="21" t="s">
         <v>69</v>
       </c>
       <c r="M20" s="16" t="s">
         <v>10</v>
       </c>
       <c r="N20" s="9"/>
-      <c r="O20" s="28"/>
+      <c r="O20" s="21"/>
       <c r="P20" s="2"/>
     </row>
     <row r="21" spans="1:16">

--- a/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GithubProject\backdoor\01_基本設計書\20200220リリース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE37EFD-B0C5-4977-8DA2-0C9BB54A1964}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="5520" yWindow="90" windowWidth="22815" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -364,18 +359,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -384,7 +379,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -398,28 +393,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -427,7 +422,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -606,7 +601,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -883,15 +878,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="4.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
@@ -906,7 +901,7 @@
     <col min="11" max="11" width="5.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.25" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.25" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="55.5" customWidth="1"/>
   </cols>
@@ -989,7 +984,7 @@
       </c>
       <c r="P2" s="26"/>
     </row>
-    <row r="3" spans="1:16" ht="18.75">
+    <row r="3" spans="1:16">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1029,7 +1024,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="18.75">
+    <row r="4" spans="1:16">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1147,7 +1142,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="18.75">
+    <row r="7" spans="1:16">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1225,7 +1220,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="4" customFormat="1" ht="18.75">
+    <row r="9" spans="1:16" s="4" customFormat="1">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1305,7 +1300,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="4" customFormat="1" ht="18.75">
+    <row r="11" spans="1:16" s="4" customFormat="1">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1341,7 +1336,7 @@
       <c r="O11" s="23"/>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="1:16" ht="18.75">
+    <row r="12" spans="1:16">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1385,7 +1380,7 @@
       </c>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16" ht="18.75">
+    <row r="13" spans="1:16">
       <c r="A13" s="12">
         <v>11</v>
       </c>
@@ -1429,7 +1424,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="4" customFormat="1" ht="18.75">
+    <row r="14" spans="1:16" s="4" customFormat="1">
       <c r="A14" s="12">
         <v>12</v>
       </c>
@@ -1471,7 +1466,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="18.75">
+    <row r="15" spans="1:16">
       <c r="A15" s="12">
         <v>13</v>
       </c>
@@ -1513,7 +1508,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="18.75">
+    <row r="16" spans="1:16">
       <c r="A16" s="12">
         <v>14</v>
       </c>
@@ -1592,7 +1587,7 @@
         <v>64</v>
       </c>
       <c r="N17" s="9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O17" s="21"/>
       <c r="P17" s="2"/>
@@ -1634,7 +1629,7 @@
         <v>64</v>
       </c>
       <c r="N18" s="9">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="O18" s="21"/>
       <c r="P18" s="2"/>

--- a/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
@@ -1,31 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE37EFD-B0C5-4977-8DA2-0C9BB54A1964}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D39CCE0-6D8C-4FA3-B897-50CF52D9FDBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="90" windowWidth="22815" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentManualCount="2"/>
+  <calcPr calcId="181029" concurrentManualCount="2"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="73">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -353,6 +359,10 @@
     <rPh sb="6" eb="7">
       <t>チュウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -544,7 +554,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -598,6 +608,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -883,7 +896,7 @@
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1015,7 +1028,7 @@
         <v>0.95</v>
       </c>
       <c r="L3" s="21" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="8"/>
@@ -1054,9 +1067,7 @@
       <c r="K4" s="8">
         <v>0.85</v>
       </c>
-      <c r="L4" s="21" t="s">
-        <v>69</v>
-      </c>
+      <c r="L4" s="21"/>
       <c r="M4" s="3"/>
       <c r="N4" s="8"/>
       <c r="O4" s="21"/>
@@ -1251,14 +1262,12 @@
         <v>0.95</v>
       </c>
       <c r="L9" s="21" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="23"/>
-      <c r="P9" s="5" t="s">
-        <v>65</v>
-      </c>
+      <c r="P9" s="5"/>
     </row>
     <row r="10" spans="1:16" s="4" customFormat="1">
       <c r="A10" s="2">
@@ -1291,7 +1300,7 @@
         <v>0.9</v>
       </c>
       <c r="L10" s="21" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="8"/>
@@ -1410,8 +1419,8 @@
       <c r="K13" s="8">
         <v>0.95</v>
       </c>
-      <c r="L13" s="21" t="s">
-        <v>70</v>
+      <c r="L13" s="32" t="s">
+        <v>72</v>
       </c>
       <c r="M13" s="16" t="s">
         <v>63</v>
@@ -1420,9 +1429,7 @@
         <v>0.1</v>
       </c>
       <c r="O13" s="24"/>
-      <c r="P13" s="20" t="s">
-        <v>66</v>
-      </c>
+      <c r="P13" s="20"/>
     </row>
     <row r="14" spans="1:16" s="4" customFormat="1">
       <c r="A14" s="12">

--- a/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D39CCE0-6D8C-4FA3-B897-50CF52D9FDBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF92482-9784-4675-BA8C-DE1B68BC1A97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="75">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -363,6 +363,56 @@
   </si>
   <si>
     <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他払出系は不定期処理メニューから遷移する画面です。</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハライダシ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>フテイキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※その他払出系は不定期処理メニューから遷移する画面です。</t>
+    <rPh sb="3" eb="4">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハライダシ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>フテイキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ガメン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -554,7 +604,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -608,9 +658,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -895,8 +942,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1033,9 +1080,7 @@
       <c r="M3" s="3"/>
       <c r="N3" s="8"/>
       <c r="O3" s="21"/>
-      <c r="P3" s="5" t="s">
-        <v>65</v>
-      </c>
+      <c r="P3" s="5"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="2">
@@ -1419,7 +1464,7 @@
       <c r="K13" s="8">
         <v>0.95</v>
       </c>
-      <c r="L13" s="32" t="s">
+      <c r="L13" s="22" t="s">
         <v>72</v>
       </c>
       <c r="M13" s="16" t="s">
@@ -1462,16 +1507,14 @@
         <v>0.95</v>
       </c>
       <c r="L14" s="21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M14" s="19" t="s">
         <v>10</v>
       </c>
       <c r="N14" s="14"/>
       <c r="O14" s="24"/>
-      <c r="P14" s="20" t="s">
-        <v>66</v>
-      </c>
+      <c r="P14" s="20"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="12">
@@ -1504,16 +1547,14 @@
         <v>0.9</v>
       </c>
       <c r="L15" s="21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M15" s="19" t="s">
         <v>10</v>
       </c>
       <c r="N15" s="14"/>
       <c r="O15" s="24"/>
-      <c r="P15" s="20" t="s">
-        <v>66</v>
-      </c>
+      <c r="P15" s="20"/>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="12">
@@ -1546,16 +1587,14 @@
         <v>0.9</v>
       </c>
       <c r="L16" s="21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M16" s="19" t="s">
         <v>10</v>
       </c>
       <c r="N16" s="14"/>
       <c r="O16" s="24"/>
-      <c r="P16" s="20" t="s">
-        <v>66</v>
-      </c>
+      <c r="P16" s="20"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="2">
@@ -1672,14 +1711,16 @@
         <v>1</v>
       </c>
       <c r="L19" s="21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M19" s="16" t="s">
         <v>10</v>
       </c>
       <c r="N19" s="9"/>
       <c r="O19" s="21"/>
-      <c r="P19" s="2"/>
+      <c r="P19" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="2">
@@ -1712,7 +1753,7 @@
         <v>1</v>
       </c>
       <c r="L20" s="21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M20" s="16" t="s">
         <v>10</v>

--- a/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF92482-9784-4675-BA8C-DE1B68BC1A97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1E3E0C-1766-49EB-BCB6-0319B05E29BD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36285" yWindow="450" windowWidth="19770" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" concurrentManualCount="2"/>
+  <calcPr calcId="191029" concurrentManualCount="2"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="73">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -330,17 +332,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>レビュー待</t>
-    <rPh sb="4" eb="5">
-      <t>タイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レビュー待</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>レビュー</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -366,31 +357,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>その他払出系は不定期処理メニューから遷移する画面です。</t>
-    <rPh sb="2" eb="3">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ハライダシ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ケイ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>フテイキ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>※その他払出系は不定期処理メニューから遷移する画面です。</t>
     <rPh sb="3" eb="4">
       <t>タ</t>
@@ -413,6 +379,10 @@
     <rPh sb="23" eb="25">
       <t>ガメン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※受払データ.作番追加予定</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -943,7 +913,7 @@
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1031,7 +1001,7 @@
         <v>31</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>4</v>
@@ -1040,7 +1010,7 @@
         <v>31</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P2" s="26"/>
     </row>
@@ -1075,7 +1045,7 @@
         <v>0.95</v>
       </c>
       <c r="L3" s="21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="8"/>
@@ -1151,7 +1121,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="8"/>
@@ -1189,7 +1159,7 @@
         <v>0.95</v>
       </c>
       <c r="L6" s="21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M6" s="6"/>
       <c r="N6" s="7"/>
@@ -1229,7 +1199,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="8"/>
@@ -1267,7 +1237,7 @@
         <v>0.95</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="8"/>
@@ -1307,7 +1277,7 @@
         <v>0.95</v>
       </c>
       <c r="L9" s="21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -1345,7 +1315,7 @@
         <v>0.9</v>
       </c>
       <c r="L10" s="21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="8"/>
@@ -1421,7 +1391,7 @@
         <v>1</v>
       </c>
       <c r="L12" s="21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M12" s="16" t="s">
         <v>63</v>
@@ -1430,7 +1400,7 @@
         <v>1</v>
       </c>
       <c r="O12" s="21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P12" s="5"/>
     </row>
@@ -1465,7 +1435,7 @@
         <v>0.95</v>
       </c>
       <c r="L13" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M13" s="16" t="s">
         <v>63</v>
@@ -1507,7 +1477,7 @@
         <v>0.95</v>
       </c>
       <c r="L14" s="21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M14" s="19" t="s">
         <v>10</v>
@@ -1547,7 +1517,7 @@
         <v>0.9</v>
       </c>
       <c r="L15" s="21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M15" s="19" t="s">
         <v>10</v>
@@ -1587,7 +1557,7 @@
         <v>0.9</v>
       </c>
       <c r="L16" s="21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M16" s="19" t="s">
         <v>10</v>
@@ -1627,7 +1597,7 @@
         <v>1</v>
       </c>
       <c r="L17" s="21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M17" s="16" t="s">
         <v>64</v>
@@ -1669,16 +1639,18 @@
         <v>1</v>
       </c>
       <c r="L18" s="21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M18" s="16" t="s">
         <v>64</v>
       </c>
       <c r="N18" s="9">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="O18" s="21"/>
-      <c r="P18" s="2"/>
+      <c r="P18" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="2">
@@ -1711,7 +1683,7 @@
         <v>1</v>
       </c>
       <c r="L19" s="21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M19" s="16" t="s">
         <v>10</v>
@@ -1719,7 +1691,7 @@
       <c r="N19" s="9"/>
       <c r="O19" s="21"/>
       <c r="P19" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1753,7 +1725,7 @@
         <v>1</v>
       </c>
       <c r="L20" s="21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M20" s="16" t="s">
         <v>10</v>
@@ -1849,7 +1821,7 @@
     </row>
     <row r="26" spans="1:16">
       <c r="P26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:16">

--- a/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GithubProject\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1E3E0C-1766-49EB-BCB6-0319B05E29BD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36285" yWindow="450" windowWidth="19770" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36285" yWindow="450" windowWidth="19770" windowHeight="14025"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentManualCount="2"/>
+  <calcPr calcId="152511" concurrentManualCount="2"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -389,18 +388,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -409,7 +408,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -423,28 +422,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -452,7 +451,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -631,7 +630,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -908,15 +907,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="4.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
@@ -1014,7 +1013,7 @@
       </c>
       <c r="P2" s="26"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" ht="18.75">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1052,7 +1051,7 @@
       <c r="O3" s="21"/>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" ht="18.75">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1168,7 +1167,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" ht="18.75">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1246,7 +1245,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="4" customFormat="1">
+    <row r="9" spans="1:16" s="4" customFormat="1" ht="18.75">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1324,7 +1323,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="4" customFormat="1">
+    <row r="11" spans="1:16" s="4" customFormat="1" ht="18.75">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1360,7 +1359,7 @@
       <c r="O11" s="23"/>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" ht="18.75">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1404,7 +1403,7 @@
       </c>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" ht="18.75">
       <c r="A13" s="12">
         <v>11</v>
       </c>
@@ -1441,12 +1440,12 @@
         <v>63</v>
       </c>
       <c r="N13" s="14">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="O13" s="24"/>
       <c r="P13" s="20"/>
     </row>
-    <row r="14" spans="1:16" s="4" customFormat="1">
+    <row r="14" spans="1:16" s="4" customFormat="1" ht="18.75">
       <c r="A14" s="12">
         <v>12</v>
       </c>
@@ -1486,7 +1485,7 @@
       <c r="O14" s="24"/>
       <c r="P14" s="20"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" ht="18.75">
       <c r="A15" s="12">
         <v>13</v>
       </c>
@@ -1526,7 +1525,7 @@
       <c r="O15" s="24"/>
       <c r="P15" s="20"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" ht="18.75">
       <c r="A16" s="12">
         <v>14</v>
       </c>

--- a/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GithubProject\backdoor\01_基本設計書\20200220リリース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98EF859E-1A5D-4D8D-894B-D1DE92D75F1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36285" yWindow="450" windowWidth="19770" windowHeight="14025"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
@@ -19,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="73">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -388,18 +381,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -408,7 +401,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -422,28 +415,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -451,7 +444,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -573,7 +566,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -594,7 +587,6 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -630,7 +622,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -907,15 +899,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="4.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
@@ -936,45 +928,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="37.5" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="27" t="s">
+      <c r="E1" s="27"/>
+      <c r="F1" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="27" t="s">
+      <c r="G1" s="27"/>
+      <c r="H1" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="28"/>
-      <c r="J1" s="29" t="s">
+      <c r="I1" s="27"/>
+      <c r="J1" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="29" t="s">
+      <c r="K1" s="29"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="30"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="25" t="s">
+      <c r="N1" s="29"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="24" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
       <c r="D2" s="15" t="s">
         <v>4</v>
       </c>
@@ -1011,9 +1003,9 @@
       <c r="O2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="P2" s="26"/>
-    </row>
-    <row r="3" spans="1:16" ht="18.75">
+      <c r="P2" s="25"/>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1043,15 +1035,15 @@
       <c r="K3" s="8">
         <v>0.95</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="L3" s="20" t="s">
         <v>68</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="8"/>
-      <c r="O3" s="21"/>
+      <c r="O3" s="20"/>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" ht="18.75">
+    <row r="4" spans="1:16">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1081,10 +1073,10 @@
       <c r="K4" s="8">
         <v>0.85</v>
       </c>
-      <c r="L4" s="21"/>
+      <c r="L4" s="20"/>
       <c r="M4" s="3"/>
       <c r="N4" s="8"/>
-      <c r="O4" s="21"/>
+      <c r="O4" s="20"/>
       <c r="P4" s="5" t="s">
         <v>33</v>
       </c>
@@ -1119,12 +1111,12 @@
       <c r="K5" s="9">
         <v>1</v>
       </c>
-      <c r="L5" s="21" t="s">
+      <c r="L5" s="20" t="s">
         <v>67</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="8"/>
-      <c r="O5" s="21"/>
+      <c r="O5" s="20"/>
       <c r="P5" s="2"/>
     </row>
     <row r="6" spans="1:16">
@@ -1157,17 +1149,17 @@
       <c r="K6" s="8">
         <v>0.95</v>
       </c>
-      <c r="L6" s="21" t="s">
+      <c r="L6" s="20" t="s">
         <v>67</v>
       </c>
       <c r="M6" s="6"/>
       <c r="N6" s="7"/>
-      <c r="O6" s="22"/>
+      <c r="O6" s="21"/>
       <c r="P6" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="18.75">
+    <row r="7" spans="1:16">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1197,12 +1189,12 @@
       <c r="K7" s="9">
         <v>1</v>
       </c>
-      <c r="L7" s="21" t="s">
+      <c r="L7" s="20" t="s">
         <v>67</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="8"/>
-      <c r="O7" s="21"/>
+      <c r="O7" s="20"/>
       <c r="P7" s="5"/>
     </row>
     <row r="8" spans="1:16" s="4" customFormat="1">
@@ -1235,17 +1227,17 @@
       <c r="K8" s="8">
         <v>0.95</v>
       </c>
-      <c r="L8" s="21" t="s">
+      <c r="L8" s="20" t="s">
         <v>67</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="21"/>
+      <c r="O8" s="20"/>
       <c r="P8" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="4" customFormat="1" ht="18.75">
+    <row r="9" spans="1:16" s="4" customFormat="1">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1275,12 +1267,12 @@
       <c r="K9" s="8">
         <v>0.95</v>
       </c>
-      <c r="L9" s="21" t="s">
+      <c r="L9" s="20" t="s">
         <v>68</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
-      <c r="O9" s="23"/>
+      <c r="O9" s="22"/>
       <c r="P9" s="5"/>
     </row>
     <row r="10" spans="1:16" s="4" customFormat="1">
@@ -1313,17 +1305,17 @@
       <c r="K10" s="8">
         <v>0.9</v>
       </c>
-      <c r="L10" s="21" t="s">
+      <c r="L10" s="20" t="s">
         <v>68</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="8"/>
-      <c r="O10" s="21"/>
+      <c r="O10" s="20"/>
       <c r="P10" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="4" customFormat="1" ht="18.75">
+    <row r="11" spans="1:16" s="4" customFormat="1">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1353,13 +1345,13 @@
       <c r="K11" s="8">
         <v>0.9</v>
       </c>
-      <c r="L11" s="21"/>
+      <c r="L11" s="20"/>
       <c r="M11" s="6"/>
       <c r="N11" s="3"/>
-      <c r="O11" s="23"/>
+      <c r="O11" s="22"/>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="1:16" ht="18.75">
+    <row r="12" spans="1:16">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1389,7 +1381,7 @@
       <c r="K12" s="8">
         <v>1</v>
       </c>
-      <c r="L12" s="21" t="s">
+      <c r="L12" s="20" t="s">
         <v>68</v>
       </c>
       <c r="M12" s="16" t="s">
@@ -1398,12 +1390,14 @@
       <c r="N12" s="8">
         <v>1</v>
       </c>
-      <c r="O12" s="21" t="s">
+      <c r="O12" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="P12" s="5"/>
-    </row>
-    <row r="13" spans="1:16" ht="18.75">
+      <c r="P12" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="12">
         <v>11</v>
       </c>
@@ -1433,7 +1427,7 @@
       <c r="K13" s="8">
         <v>0.95</v>
       </c>
-      <c r="L13" s="22" t="s">
+      <c r="L13" s="21" t="s">
         <v>70</v>
       </c>
       <c r="M13" s="16" t="s">
@@ -1442,10 +1436,12 @@
       <c r="N13" s="14">
         <v>0.2</v>
       </c>
-      <c r="O13" s="24"/>
-      <c r="P13" s="20"/>
-    </row>
-    <row r="14" spans="1:16" s="4" customFormat="1" ht="18.75">
+      <c r="O13" s="23"/>
+      <c r="P13" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="4" customFormat="1">
       <c r="A14" s="12">
         <v>12</v>
       </c>
@@ -1475,17 +1471,19 @@
       <c r="K14" s="8">
         <v>0.95</v>
       </c>
-      <c r="L14" s="21" t="s">
+      <c r="L14" s="20" t="s">
         <v>68</v>
       </c>
       <c r="M14" s="19" t="s">
         <v>10</v>
       </c>
       <c r="N14" s="14"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="20"/>
-    </row>
-    <row r="15" spans="1:16" ht="18.75">
+      <c r="O14" s="23"/>
+      <c r="P14" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="12">
         <v>13</v>
       </c>
@@ -1515,17 +1513,19 @@
       <c r="K15" s="8">
         <v>0.9</v>
       </c>
-      <c r="L15" s="21" t="s">
+      <c r="L15" s="20" t="s">
         <v>68</v>
       </c>
       <c r="M15" s="19" t="s">
         <v>10</v>
       </c>
       <c r="N15" s="14"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="20"/>
-    </row>
-    <row r="16" spans="1:16" ht="18.75">
+      <c r="O15" s="23"/>
+      <c r="P15" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="12">
         <v>14</v>
       </c>
@@ -1555,15 +1555,17 @@
       <c r="K16" s="8">
         <v>0.9</v>
       </c>
-      <c r="L16" s="21" t="s">
+      <c r="L16" s="20" t="s">
         <v>68</v>
       </c>
       <c r="M16" s="19" t="s">
         <v>10</v>
       </c>
       <c r="N16" s="14"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="20"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="2" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="2">
@@ -1595,7 +1597,7 @@
       <c r="K17" s="9">
         <v>1</v>
       </c>
-      <c r="L17" s="21" t="s">
+      <c r="L17" s="20" t="s">
         <v>67</v>
       </c>
       <c r="M17" s="16" t="s">
@@ -1604,7 +1606,7 @@
       <c r="N17" s="9">
         <v>1</v>
       </c>
-      <c r="O17" s="21"/>
+      <c r="O17" s="20"/>
       <c r="P17" s="2"/>
     </row>
     <row r="18" spans="1:16">
@@ -1637,7 +1639,7 @@
       <c r="K18" s="9">
         <v>1</v>
       </c>
-      <c r="L18" s="21" t="s">
+      <c r="L18" s="20" t="s">
         <v>67</v>
       </c>
       <c r="M18" s="16" t="s">
@@ -1646,7 +1648,7 @@
       <c r="N18" s="9">
         <v>0.9</v>
       </c>
-      <c r="O18" s="21"/>
+      <c r="O18" s="20"/>
       <c r="P18" s="2" t="s">
         <v>72</v>
       </c>
@@ -1681,17 +1683,15 @@
       <c r="K19" s="9">
         <v>1</v>
       </c>
-      <c r="L19" s="21" t="s">
+      <c r="L19" s="20" t="s">
         <v>68</v>
       </c>
       <c r="M19" s="16" t="s">
         <v>10</v>
       </c>
       <c r="N19" s="9"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="O19" s="20"/>
+      <c r="P19" s="2"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="2">
@@ -1723,14 +1723,14 @@
       <c r="K20" s="9">
         <v>1</v>
       </c>
-      <c r="L20" s="21" t="s">
+      <c r="L20" s="20" t="s">
         <v>68</v>
       </c>
       <c r="M20" s="16" t="s">
         <v>10</v>
       </c>
       <c r="N20" s="9"/>
-      <c r="O20" s="21"/>
+      <c r="O20" s="20"/>
       <c r="P20" s="2"/>
     </row>
     <row r="21" spans="1:16">

--- a/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98EF859E-1A5D-4D8D-894B-D1DE92D75F1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D918B8-C1ED-49C8-8EA5-06F8AA4437D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1290" windowWidth="20490" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="74">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -375,6 +375,13 @@
   </si>
   <si>
     <t>※受払データ.作番追加予定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー待</t>
+    <rPh sb="4" eb="5">
+      <t>マ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1349,7 +1356,9 @@
       <c r="M11" s="6"/>
       <c r="N11" s="3"/>
       <c r="O11" s="22"/>
-      <c r="P11" s="5"/>
+      <c r="P11" s="5" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="2">

--- a/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D918B8-C1ED-49C8-8EA5-06F8AA4437D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316A1C57-193D-4F9E-9249-9F8C65910725}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1290" windowWidth="20490" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32310" yWindow="1050" windowWidth="22815" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="74">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -911,7 +911,7 @@
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1277,8 +1277,12 @@
       <c r="L9" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
+      <c r="M9" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="N9" s="9">
+        <v>0.1</v>
+      </c>
       <c r="O9" s="22"/>
       <c r="P9" s="5"/>
     </row>

--- a/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316A1C57-193D-4F9E-9249-9F8C65910725}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDBB5E8A-2527-4698-A496-2ABCE37AD835}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32310" yWindow="1050" windowWidth="22815" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="73">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -346,31 +346,6 @@
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※その他払出系は不定期処理メニューから遷移する画面です。</t>
-    <rPh sb="3" eb="4">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ハライダシ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ケイ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>フテイキ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ガメン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -911,7 +886,7 @@
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1080,7 +1055,9 @@
       <c r="K4" s="8">
         <v>0.85</v>
       </c>
-      <c r="L4" s="20"/>
+      <c r="L4" s="21" t="s">
+        <v>70</v>
+      </c>
       <c r="M4" s="3"/>
       <c r="N4" s="8"/>
       <c r="O4" s="20"/>
@@ -1361,7 +1338,7 @@
       <c r="N11" s="3"/>
       <c r="O11" s="22"/>
       <c r="P11" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1406,9 +1383,7 @@
       <c r="O12" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="P12" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="P12" s="2"/>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="12">
@@ -1450,9 +1425,7 @@
         <v>0.2</v>
       </c>
       <c r="O13" s="23"/>
-      <c r="P13" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="P13" s="2"/>
     </row>
     <row r="14" spans="1:16" s="4" customFormat="1">
       <c r="A14" s="12">
@@ -1492,9 +1465,7 @@
       </c>
       <c r="N14" s="14"/>
       <c r="O14" s="23"/>
-      <c r="P14" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="P14" s="2"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="12">
@@ -1534,9 +1505,7 @@
       </c>
       <c r="N15" s="14"/>
       <c r="O15" s="23"/>
-      <c r="P15" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="P15" s="2"/>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="12">
@@ -1576,9 +1545,7 @@
       </c>
       <c r="N16" s="14"/>
       <c r="O16" s="23"/>
-      <c r="P16" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="P16" s="2"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="2">
@@ -1663,7 +1630,7 @@
       </c>
       <c r="O18" s="20"/>
       <c r="P18" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:16">

--- a/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDBB5E8A-2527-4698-A496-2ABCE37AD835}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A1E80F-029F-4C09-A0DA-C8DA0A394579}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31755" yWindow="225" windowWidth="20985" windowHeight="15045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
@@ -886,7 +886,7 @@
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1258,7 +1258,7 @@
         <v>64</v>
       </c>
       <c r="N9" s="9">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="O9" s="22"/>
       <c r="P9" s="5"/>

--- a/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A1E80F-029F-4C09-A0DA-C8DA0A394579}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30ED1C1-71B7-4626-9DF7-24274310179F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31755" yWindow="225" windowWidth="20985" windowHeight="15045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="73">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -886,7 +886,7 @@
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1098,7 +1098,9 @@
       <c r="L5" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="M5" s="3"/>
+      <c r="M5" s="19" t="s">
+        <v>10</v>
+      </c>
       <c r="N5" s="8"/>
       <c r="O5" s="20"/>
       <c r="P5" s="2"/>
@@ -1136,7 +1138,9 @@
       <c r="L6" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="M6" s="6"/>
+      <c r="M6" s="19" t="s">
+        <v>10</v>
+      </c>
       <c r="N6" s="7"/>
       <c r="O6" s="21"/>
       <c r="P6" s="2" t="s">
@@ -1460,7 +1464,7 @@
       <c r="L14" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="M14" s="19" t="s">
+      <c r="M14" s="16" t="s">
         <v>10</v>
       </c>
       <c r="N14" s="14"/>
@@ -1500,7 +1504,7 @@
       <c r="L15" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="M15" s="19" t="s">
+      <c r="M15" s="16" t="s">
         <v>10</v>
       </c>
       <c r="N15" s="14"/>
@@ -1540,7 +1544,7 @@
       <c r="L16" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="M16" s="19" t="s">
+      <c r="M16" s="16" t="s">
         <v>10</v>
       </c>
       <c r="N16" s="14"/>

--- a/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhang\Documents\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30ED1C1-71B7-4626-9DF7-24274310179F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80017460-2468-49A4-8AEA-783394700BD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="72">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -187,13 +187,6 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Q&amp;A待ち</t>
-    <rPh sb="3" eb="4">
-      <t>マ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -885,8 +878,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -924,11 +917,11 @@
       </c>
       <c r="E1" s="27"/>
       <c r="F1" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G1" s="27"/>
       <c r="H1" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I1" s="27"/>
       <c r="J1" s="28" t="s">
@@ -974,7 +967,7 @@
         <v>31</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>4</v>
@@ -983,7 +976,7 @@
         <v>31</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P2" s="25"/>
     </row>
@@ -995,7 +988,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>10</v>
@@ -1004,7 +997,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G3" s="8">
         <v>1</v>
@@ -1018,7 +1011,7 @@
         <v>0.95</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="8"/>
@@ -1033,7 +1026,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>10</v>
@@ -1042,7 +1035,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G4" s="8">
         <v>1</v>
@@ -1056,13 +1049,13 @@
         <v>0.85</v>
       </c>
       <c r="L4" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="8"/>
       <c r="O4" s="20"/>
-      <c r="P4" s="5" t="s">
-        <v>33</v>
+      <c r="P4" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1073,7 +1066,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>13</v>
@@ -1082,7 +1075,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G5" s="8">
         <v>1</v>
@@ -1096,7 +1089,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M5" s="19" t="s">
         <v>10</v>
@@ -1113,7 +1106,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>13</v>
@@ -1122,7 +1115,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G6" s="8">
         <v>1</v>
@@ -1136,7 +1129,7 @@
         <v>0.95</v>
       </c>
       <c r="L6" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M6" s="19" t="s">
         <v>10</v>
@@ -1144,7 +1137,7 @@
       <c r="N6" s="7"/>
       <c r="O6" s="21"/>
       <c r="P6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1155,7 +1148,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>10</v>
@@ -1164,7 +1157,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G7" s="8">
         <v>1</v>
@@ -1178,7 +1171,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="8"/>
@@ -1193,7 +1186,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>10</v>
@@ -1202,7 +1195,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G8" s="8">
         <v>1</v>
@@ -1216,13 +1209,13 @@
         <v>0.95</v>
       </c>
       <c r="L8" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="8"/>
       <c r="O8" s="20"/>
       <c r="P8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="4" customFormat="1">
@@ -1233,7 +1226,7 @@
         <v>21</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>10</v>
@@ -1242,7 +1235,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G9" s="8">
         <v>1</v>
@@ -1256,10 +1249,10 @@
         <v>0.95</v>
       </c>
       <c r="L9" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N9" s="9">
         <v>0.5</v>
@@ -1275,7 +1268,7 @@
         <v>20</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>10</v>
@@ -1284,7 +1277,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G10" s="8">
         <v>1</v>
@@ -1298,13 +1291,13 @@
         <v>0.9</v>
       </c>
       <c r="L10" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="8"/>
       <c r="O10" s="20"/>
       <c r="P10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="4" customFormat="1">
@@ -1315,7 +1308,7 @@
         <v>22</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>10</v>
@@ -1324,7 +1317,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G11" s="8">
         <v>1</v>
@@ -1335,14 +1328,14 @@
         <v>6</v>
       </c>
       <c r="K11" s="8">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="L11" s="20"/>
       <c r="M11" s="6"/>
       <c r="N11" s="3"/>
       <c r="O11" s="22"/>
       <c r="P11" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1353,16 +1346,16 @@
         <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E12" s="8">
         <v>1</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G12" s="8">
         <v>1</v>
@@ -1376,16 +1369,16 @@
         <v>1</v>
       </c>
       <c r="L12" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M12" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N12" s="8">
         <v>1</v>
       </c>
       <c r="O12" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P12" s="2"/>
     </row>
@@ -1397,7 +1390,7 @@
         <v>27</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>7</v>
@@ -1406,7 +1399,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G13" s="8">
         <v>1</v>
@@ -1420,10 +1413,10 @@
         <v>0.95</v>
       </c>
       <c r="L13" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M13" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N13" s="14">
         <v>0.2</v>
@@ -1439,7 +1432,7 @@
         <v>24</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>13</v>
@@ -1448,7 +1441,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G14" s="8">
         <v>1</v>
@@ -1462,7 +1455,7 @@
         <v>0.95</v>
       </c>
       <c r="L14" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M14" s="16" t="s">
         <v>10</v>
@@ -1479,7 +1472,7 @@
         <v>25</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>13</v>
@@ -1488,7 +1481,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G15" s="8">
         <v>1</v>
@@ -1502,7 +1495,7 @@
         <v>0.9</v>
       </c>
       <c r="L15" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M15" s="16" t="s">
         <v>10</v>
@@ -1519,7 +1512,7 @@
         <v>26</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>13</v>
@@ -1528,7 +1521,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G16" s="8">
         <v>1</v>
@@ -1542,7 +1535,7 @@
         <v>0.9</v>
       </c>
       <c r="L16" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M16" s="16" t="s">
         <v>10</v>
@@ -1559,7 +1552,7 @@
         <v>29</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>7</v>
@@ -1568,7 +1561,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G17" s="8">
         <v>1</v>
@@ -1582,10 +1575,10 @@
         <v>1</v>
       </c>
       <c r="L17" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M17" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N17" s="9">
         <v>1</v>
@@ -1601,7 +1594,7 @@
         <v>28</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>7</v>
@@ -1610,7 +1603,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G18" s="8">
         <v>1</v>
@@ -1624,17 +1617,17 @@
         <v>1</v>
       </c>
       <c r="L18" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M18" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N18" s="9">
         <v>0.9</v>
       </c>
       <c r="O18" s="20"/>
       <c r="P18" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1642,10 +1635,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>10</v>
@@ -1654,7 +1647,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G19" s="8">
         <v>1</v>
@@ -1668,7 +1661,7 @@
         <v>1</v>
       </c>
       <c r="L19" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M19" s="16" t="s">
         <v>10</v>
@@ -1682,10 +1675,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>10</v>
@@ -1694,7 +1687,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G20" s="8">
         <v>1</v>
@@ -1708,7 +1701,7 @@
         <v>1</v>
       </c>
       <c r="L20" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M20" s="16" t="s">
         <v>10</v>
@@ -1722,10 +1715,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>10</v>
@@ -1734,7 +1727,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G21" s="8">
         <v>1</v>
@@ -1757,7 +1750,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="3"/>
@@ -1778,10 +1771,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="3"/>
@@ -1804,7 +1797,7 @@
     </row>
     <row r="26" spans="1:16">
       <c r="P26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:16">

--- a/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhang\Documents\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GithubProject\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80017460-2468-49A4-8AEA-783394700BD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
@@ -356,18 +355,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -376,7 +375,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -390,28 +389,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -419,7 +418,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -597,7 +596,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -874,15 +873,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C2"/>
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="4.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
@@ -980,7 +979,7 @@
       </c>
       <c r="P2" s="25"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" ht="18.75">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1140,7 +1139,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" ht="18.75">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1218,7 +1217,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="4" customFormat="1">
+    <row r="9" spans="1:16" s="4" customFormat="1" ht="18.75">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1300,7 +1299,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="4" customFormat="1">
+    <row r="11" spans="1:16" s="4" customFormat="1" ht="18.75">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1419,7 +1418,7 @@
         <v>62</v>
       </c>
       <c r="N13" s="14">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="O13" s="23"/>
       <c r="P13" s="2"/>

--- a/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GithubProject\backdoor\01_基本設計書\20200220リリース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E9C884-01C0-46B2-BC56-48289B4E93D7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
+    <workbookView xWindow="31380" yWindow="285" windowWidth="20985" windowHeight="15045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
@@ -355,18 +356,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -375,7 +376,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -389,28 +390,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -418,7 +419,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -596,7 +597,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -873,15 +874,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="4.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
@@ -979,7 +980,7 @@
       </c>
       <c r="P2" s="25"/>
     </row>
-    <row r="3" spans="1:16" ht="18.75">
+    <row r="3" spans="1:16">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1139,7 +1140,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="18.75">
+    <row r="7" spans="1:16">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1217,7 +1218,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="4" customFormat="1" ht="18.75">
+    <row r="9" spans="1:16" s="4" customFormat="1">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1254,7 +1255,7 @@
         <v>63</v>
       </c>
       <c r="N9" s="9">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="O9" s="22"/>
       <c r="P9" s="5"/>
@@ -1299,7 +1300,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="4" customFormat="1" ht="18.75">
+    <row r="11" spans="1:16" s="4" customFormat="1">
       <c r="A11" s="2">
         <v>9</v>
       </c>

--- a/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E9C884-01C0-46B2-BC56-48289B4E93D7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F497EA27-A0BF-4632-AF9B-26B12DD1D44F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31380" yWindow="285" windowWidth="20985" windowHeight="15045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentManualCount="2"/>
+  <calcPr calcId="181029" concurrentManualCount="2"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -218,12 +224,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>進捗管理</t>
-  </si>
-  <si>
-    <t>進捗管理詳細</t>
-  </si>
-  <si>
     <t>当日実績参照</t>
   </si>
   <si>
@@ -243,12 +243,6 @@
   </si>
   <si>
     <t>成形金型番号別不良分析</t>
-  </si>
-  <si>
-    <t>全工程で試作の在庫払出可能化</t>
-  </si>
-  <si>
-    <t>全工程で試作の在庫払出可能化_伝票出力&amp;取消</t>
   </si>
   <si>
     <t>工程別集計</t>
@@ -351,13 +345,66 @@
       <t>マ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>工程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>進捗管理</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>工程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>進捗管理明細</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他出庫</t>
+  </si>
+  <si>
+    <t>その他出庫参照・取消</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -419,6 +466,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
@@ -541,7 +596,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -595,6 +650,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -879,7 +937,7 @@
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -917,11 +975,11 @@
       </c>
       <c r="E1" s="27"/>
       <c r="F1" s="26" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G1" s="27"/>
       <c r="H1" s="26" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I1" s="27"/>
       <c r="J1" s="28" t="s">
@@ -967,7 +1025,7 @@
         <v>31</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>4</v>
@@ -976,7 +1034,7 @@
         <v>31</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="P2" s="25"/>
     </row>
@@ -987,8 +1045,8 @@
       <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>40</v>
+      <c r="C3" s="31" t="s">
+        <v>68</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>10</v>
@@ -997,7 +1055,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G3" s="8">
         <v>1</v>
@@ -1011,7 +1069,7 @@
         <v>0.95</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="8"/>
@@ -1025,8 +1083,8 @@
       <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>41</v>
+      <c r="C4" s="31" t="s">
+        <v>69</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>10</v>
@@ -1035,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G4" s="8">
         <v>1</v>
@@ -1049,7 +1107,7 @@
         <v>0.85</v>
       </c>
       <c r="L4" s="21" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="8"/>
@@ -1066,7 +1124,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>13</v>
@@ -1075,7 +1133,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G5" s="8">
         <v>1</v>
@@ -1089,7 +1147,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="M5" s="19" t="s">
         <v>10</v>
@@ -1106,7 +1164,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>13</v>
@@ -1115,7 +1173,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G6" s="8">
         <v>1</v>
@@ -1129,7 +1187,7 @@
         <v>0.95</v>
       </c>
       <c r="L6" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="M6" s="19" t="s">
         <v>10</v>
@@ -1148,7 +1206,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>10</v>
@@ -1157,7 +1215,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G7" s="8">
         <v>1</v>
@@ -1171,7 +1229,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="8"/>
@@ -1186,7 +1244,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>10</v>
@@ -1195,7 +1253,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G8" s="8">
         <v>1</v>
@@ -1209,7 +1267,7 @@
         <v>0.95</v>
       </c>
       <c r="L8" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="8"/>
@@ -1226,7 +1284,7 @@
         <v>21</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>10</v>
@@ -1235,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G9" s="8">
         <v>1</v>
@@ -1249,10 +1307,10 @@
         <v>0.95</v>
       </c>
       <c r="L9" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="N9" s="9">
         <v>0.8</v>
@@ -1268,7 +1326,7 @@
         <v>20</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>10</v>
@@ -1277,7 +1335,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G10" s="8">
         <v>1</v>
@@ -1291,7 +1349,7 @@
         <v>0.9</v>
       </c>
       <c r="L10" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="8"/>
@@ -1308,7 +1366,7 @@
         <v>22</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>10</v>
@@ -1317,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G11" s="8">
         <v>1</v>
@@ -1335,7 +1393,7 @@
       <c r="N11" s="3"/>
       <c r="O11" s="22"/>
       <c r="P11" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1345,8 +1403,8 @@
       <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>49</v>
+      <c r="C12" s="32" t="s">
+        <v>70</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>33</v>
@@ -1355,7 +1413,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G12" s="8">
         <v>1</v>
@@ -1369,16 +1427,16 @@
         <v>1</v>
       </c>
       <c r="L12" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="M12" s="16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="N12" s="8">
         <v>1</v>
       </c>
       <c r="O12" s="20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="P12" s="2"/>
     </row>
@@ -1389,8 +1447,8 @@
       <c r="B13" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>50</v>
+      <c r="C13" s="33" t="s">
+        <v>71</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>7</v>
@@ -1399,7 +1457,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G13" s="8">
         <v>1</v>
@@ -1413,10 +1471,10 @@
         <v>0.95</v>
       </c>
       <c r="L13" s="21" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="M13" s="16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="N13" s="14">
         <v>0.5</v>
@@ -1432,7 +1490,7 @@
         <v>24</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>13</v>
@@ -1441,7 +1499,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G14" s="8">
         <v>1</v>
@@ -1455,7 +1513,7 @@
         <v>0.95</v>
       </c>
       <c r="L14" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="M14" s="16" t="s">
         <v>10</v>
@@ -1472,7 +1530,7 @@
         <v>25</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>13</v>
@@ -1481,7 +1539,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G15" s="8">
         <v>1</v>
@@ -1495,7 +1553,7 @@
         <v>0.9</v>
       </c>
       <c r="L15" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="M15" s="16" t="s">
         <v>10</v>
@@ -1512,7 +1570,7 @@
         <v>26</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>13</v>
@@ -1521,7 +1579,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G16" s="8">
         <v>1</v>
@@ -1535,7 +1593,7 @@
         <v>0.9</v>
       </c>
       <c r="L16" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="M16" s="16" t="s">
         <v>10</v>
@@ -1552,7 +1610,7 @@
         <v>29</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>7</v>
@@ -1561,7 +1619,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G17" s="8">
         <v>1</v>
@@ -1575,10 +1633,10 @@
         <v>1</v>
       </c>
       <c r="L17" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="M17" s="16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="N17" s="9">
         <v>1</v>
@@ -1594,7 +1652,7 @@
         <v>28</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>7</v>
@@ -1603,7 +1661,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G18" s="8">
         <v>1</v>
@@ -1617,17 +1675,17 @@
         <v>1</v>
       </c>
       <c r="L18" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="M18" s="16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="N18" s="9">
         <v>0.9</v>
       </c>
       <c r="O18" s="20"/>
       <c r="P18" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1647,7 +1705,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G19" s="8">
         <v>1</v>
@@ -1661,7 +1719,7 @@
         <v>1</v>
       </c>
       <c r="L19" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="M19" s="16" t="s">
         <v>10</v>
@@ -1687,7 +1745,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G20" s="8">
         <v>1</v>
@@ -1701,7 +1759,7 @@
         <v>1</v>
       </c>
       <c r="L20" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="M20" s="16" t="s">
         <v>10</v>
@@ -1715,10 +1773,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>10</v>
@@ -1727,7 +1785,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G21" s="8">
         <v>1</v>
@@ -1750,7 +1808,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="3"/>
@@ -1774,7 +1832,7 @@
         <v>37</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="3"/>
@@ -1797,7 +1855,7 @@
     </row>
     <row r="26" spans="1:16">
       <c r="P26" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:16">

--- a/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GithubProject\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F497EA27-A0BF-4632-AF9B-26B12DD1D44F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" concurrentManualCount="2"/>
+  <calcPr calcId="152511" concurrentManualCount="2"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -351,7 +350,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -362,7 +361,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -374,7 +373,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -385,7 +384,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -403,18 +402,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -423,7 +422,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -437,28 +436,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -466,7 +465,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -474,7 +473,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -629,6 +628,9 @@
     <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -650,12 +652,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -932,15 +931,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="4.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
@@ -961,45 +960,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="37.5" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="26" t="s">
+      <c r="E1" s="30"/>
+      <c r="F1" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="26" t="s">
+      <c r="G1" s="30"/>
+      <c r="H1" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="28" t="s">
+      <c r="I1" s="30"/>
+      <c r="J1" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="29"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="28" t="s">
+      <c r="K1" s="32"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="29"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="24" t="s">
+      <c r="N1" s="32"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="27" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="15" t="s">
         <v>4</v>
       </c>
@@ -1036,16 +1035,16 @@
       <c r="O2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="P2" s="25"/>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="P2" s="28"/>
+    </row>
+    <row r="3" spans="1:16" ht="18.75">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="24" t="s">
         <v>68</v>
       </c>
       <c r="D3" s="16" t="s">
@@ -1083,7 +1082,7 @@
       <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="24" t="s">
         <v>69</v>
       </c>
       <c r="D4" s="16" t="s">
@@ -1198,7 +1197,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" ht="18.75">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1276,7 +1275,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="4" customFormat="1">
+    <row r="9" spans="1:16" s="4" customFormat="1" ht="18.75">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1358,7 +1357,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="4" customFormat="1">
+    <row r="11" spans="1:16" s="4" customFormat="1" ht="18.75">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1403,7 +1402,7 @@
       <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="25" t="s">
         <v>70</v>
       </c>
       <c r="D12" s="16" t="s">
@@ -1447,7 +1446,7 @@
       <c r="B13" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="26" t="s">
         <v>71</v>
       </c>
       <c r="D13" s="17" t="s">
@@ -1477,7 +1476,7 @@
         <v>58</v>
       </c>
       <c r="N13" s="14">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="O13" s="23"/>
       <c r="P13" s="2"/>

--- a/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GithubProject\backdoor\01_基本設計書\20200220リリース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67FCABD-9461-43C7-966E-079944F99877}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -350,7 +345,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -361,7 +356,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -373,7 +368,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -384,7 +379,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -402,18 +397,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -422,7 +417,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -436,28 +431,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -465,7 +460,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -473,7 +468,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -654,7 +649,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -931,15 +926,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="4.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
@@ -1037,7 +1032,7 @@
       </c>
       <c r="P2" s="28"/>
     </row>
-    <row r="3" spans="1:16" ht="18.75">
+    <row r="3" spans="1:16">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1197,7 +1192,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="18.75">
+    <row r="7" spans="1:16">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1275,7 +1270,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="4" customFormat="1" ht="18.75">
+    <row r="9" spans="1:16" s="4" customFormat="1">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1357,7 +1352,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="4" customFormat="1" ht="18.75">
+    <row r="11" spans="1:16" s="4" customFormat="1">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1469,8 +1464,8 @@
       <c r="K13" s="8">
         <v>0.95</v>
       </c>
-      <c r="L13" s="21" t="s">
-        <v>65</v>
+      <c r="L13" s="20" t="s">
+        <v>63</v>
       </c>
       <c r="M13" s="16" t="s">
         <v>58</v>

--- a/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GithubProject\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67FCABD-9461-43C7-966E-079944F99877}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
@@ -345,7 +344,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -356,7 +355,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -368,7 +367,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -379,7 +378,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -397,18 +396,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -417,7 +416,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -431,28 +430,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -460,7 +459,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -468,7 +467,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -649,7 +648,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -926,15 +925,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="4.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
@@ -1032,7 +1031,7 @@
       </c>
       <c r="P2" s="28"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" ht="18.75">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1192,7 +1191,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" ht="18.75">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1270,7 +1269,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="4" customFormat="1">
+    <row r="9" spans="1:16" s="4" customFormat="1" ht="18.75">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1352,7 +1351,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="4" customFormat="1">
+    <row r="11" spans="1:16" s="4" customFormat="1" ht="18.75">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1471,7 +1470,7 @@
         <v>58</v>
       </c>
       <c r="N13" s="14">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="O13" s="23"/>
       <c r="P13" s="2"/>

--- a/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GithubProject\backdoor\01_基本設計書\20200220リリース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA27C19E-E3B4-424B-9830-EC1A0C355383}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="74">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -329,10 +330,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※受払データ.作番追加予定</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>レビュー待</t>
     <rPh sb="4" eb="5">
       <t>マ</t>
@@ -344,7 +341,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -355,7 +352,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -367,7 +364,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -378,7 +375,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Yu Gothic"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -392,22 +389,53 @@
   <si>
     <t>その他出庫参照・取消</t>
   </si>
+  <si>
+    <t>王：バグ対応中</t>
+    <rPh sb="0" eb="1">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※受払データ.作番追加予定
+王：バグ対応中</t>
+    <rPh sb="18" eb="20">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>王：対応中</t>
+    <rPh sb="2" eb="5">
+      <t>タイオウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -416,7 +444,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -430,28 +458,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -459,7 +487,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -467,7 +495,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -589,7 +617,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -646,9 +674,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -925,15 +956,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="4.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
@@ -1031,7 +1062,7 @@
       </c>
       <c r="P2" s="28"/>
     </row>
-    <row r="3" spans="1:16" ht="18.75">
+    <row r="3" spans="1:16">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1039,7 +1070,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>10</v>
@@ -1077,7 +1108,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>10</v>
@@ -1191,7 +1222,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="18.75">
+    <row r="7" spans="1:16">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1269,7 +1300,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="4" customFormat="1" ht="18.75">
+    <row r="9" spans="1:16" s="4" customFormat="1">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1308,8 +1339,12 @@
       <c r="N9" s="9">
         <v>0.8</v>
       </c>
-      <c r="O9" s="22"/>
-      <c r="P9" s="5"/>
+      <c r="O9" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="10" spans="1:16" s="4" customFormat="1">
       <c r="A10" s="2">
@@ -1351,7 +1386,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="4" customFormat="1" ht="18.75">
+    <row r="11" spans="1:16" s="4" customFormat="1">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1386,7 +1421,7 @@
       <c r="N11" s="3"/>
       <c r="O11" s="22"/>
       <c r="P11" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1397,7 +1432,7 @@
         <v>23</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>33</v>
@@ -1441,7 +1476,7 @@
         <v>27</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>7</v>
@@ -1634,10 +1669,14 @@
       <c r="N17" s="9">
         <v>1</v>
       </c>
-      <c r="O17" s="20"/>
-      <c r="P17" s="2"/>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="O17" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="37.5">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -1676,9 +1715,11 @@
       <c r="N18" s="9">
         <v>0.9</v>
       </c>
-      <c r="O18" s="20"/>
-      <c r="P18" s="2" t="s">
-        <v>66</v>
+      <c r="O18" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="P18" s="34" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:16">

--- a/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ローカル作業_Wang\backdoor\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA27C19E-E3B4-424B-9830-EC1A0C355383}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3184047C-AAE3-4ED0-B6A8-0572535540B8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="77">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -414,10 +414,86 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>王：対応中</t>
-    <rPh sb="2" eb="5">
-      <t>タイオウチュウ</t>
-    </rPh>
+    <r>
+      <t>上海(蔡)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>⇒詹</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>シャンハイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上海</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>⇒王</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>シャンハイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>上海(王)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>⇒王</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>シャンハイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詹</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -653,6 +729,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -673,9 +752,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -960,7 +1036,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
@@ -969,61 +1045,61 @@
     <col min="1" max="1" width="4.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.125" customWidth="1"/>
-    <col min="4" max="4" width="7.375" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.375" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.375" style="18" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="7.375" style="18" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="6.125" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="7.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.25" customWidth="1"/>
     <col min="14" max="14" width="6.125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.25" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="55.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="37.5" customHeight="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="29" t="s">
+      <c r="E1" s="31"/>
+      <c r="F1" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="30"/>
-      <c r="H1" s="29" t="s">
+      <c r="G1" s="31"/>
+      <c r="H1" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31" t="s">
+      <c r="I1" s="31"/>
+      <c r="J1" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="32"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="31" t="s">
+      <c r="K1" s="33"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="32"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="27" t="s">
+      <c r="N1" s="33"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="28" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
       <c r="D2" s="15" t="s">
         <v>4</v>
       </c>
@@ -1060,7 +1136,7 @@
       <c r="O2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="P2" s="28"/>
+      <c r="P2" s="29"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="2">
@@ -1095,7 +1171,9 @@
       <c r="L3" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="M3" s="3"/>
+      <c r="M3" s="19" t="s">
+        <v>76</v>
+      </c>
       <c r="N3" s="8"/>
       <c r="O3" s="20"/>
       <c r="P3" s="5"/>
@@ -1133,7 +1211,9 @@
       <c r="L4" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="M4" s="3"/>
+      <c r="M4" s="19" t="s">
+        <v>76</v>
+      </c>
       <c r="N4" s="8"/>
       <c r="O4" s="20"/>
       <c r="P4" s="2" t="s">
@@ -1174,7 +1254,7 @@
         <v>62</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="N5" s="8"/>
       <c r="O5" s="20"/>
@@ -1214,7 +1294,7 @@
         <v>62</v>
       </c>
       <c r="M6" s="19" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="21"/>
@@ -1334,7 +1414,7 @@
         <v>63</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="N9" s="9">
         <v>0.8</v>
@@ -1342,9 +1422,7 @@
       <c r="O9" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="P9" s="5" t="s">
-        <v>73</v>
-      </c>
+      <c r="P9" s="5"/>
     </row>
     <row r="10" spans="1:16" s="4" customFormat="1">
       <c r="A10" s="2">
@@ -1379,7 +1457,9 @@
       <c r="L10" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="M10" s="3"/>
+      <c r="M10" s="19" t="s">
+        <v>5</v>
+      </c>
       <c r="N10" s="8"/>
       <c r="O10" s="20"/>
       <c r="P10" s="2" t="s">
@@ -1417,7 +1497,9 @@
         <v>0.95</v>
       </c>
       <c r="L11" s="20"/>
-      <c r="M11" s="6"/>
+      <c r="M11" s="19" t="s">
+        <v>76</v>
+      </c>
       <c r="N11" s="3"/>
       <c r="O11" s="22"/>
       <c r="P11" s="5" t="s">
@@ -1458,7 +1540,7 @@
         <v>63</v>
       </c>
       <c r="M12" s="16" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="N12" s="8">
         <v>1</v>
@@ -1502,7 +1584,7 @@
         <v>63</v>
       </c>
       <c r="M13" s="16" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="N13" s="14">
         <v>0.7</v>
@@ -1543,8 +1625,8 @@
       <c r="L14" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="M14" s="16" t="s">
-        <v>10</v>
+      <c r="M14" s="19" t="s">
+        <v>76</v>
       </c>
       <c r="N14" s="14"/>
       <c r="O14" s="23"/>
@@ -1583,8 +1665,8 @@
       <c r="L15" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="M15" s="16" t="s">
-        <v>10</v>
+      <c r="M15" s="19" t="s">
+        <v>76</v>
       </c>
       <c r="N15" s="14"/>
       <c r="O15" s="23"/>
@@ -1623,8 +1705,8 @@
       <c r="L16" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="M16" s="16" t="s">
-        <v>10</v>
+      <c r="M16" s="19" t="s">
+        <v>76</v>
       </c>
       <c r="N16" s="14"/>
       <c r="O16" s="23"/>
@@ -1664,7 +1746,7 @@
         <v>62</v>
       </c>
       <c r="M17" s="16" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="N17" s="9">
         <v>1</v>
@@ -1710,7 +1792,7 @@
         <v>62</v>
       </c>
       <c r="M18" s="16" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="N18" s="9">
         <v>0.9</v>
@@ -1718,7 +1800,7 @@
       <c r="O18" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="P18" s="34" t="s">
+      <c r="P18" s="27" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1755,8 +1837,8 @@
       <c r="L19" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="M19" s="16" t="s">
-        <v>10</v>
+      <c r="M19" s="19" t="s">
+        <v>76</v>
       </c>
       <c r="N19" s="9"/>
       <c r="O19" s="20"/>
@@ -1795,8 +1877,8 @@
       <c r="L20" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="M20" s="16" t="s">
-        <v>10</v>
+      <c r="M20" s="19" t="s">
+        <v>76</v>
       </c>
       <c r="N20" s="9"/>
       <c r="O20" s="20"/>

--- a/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ローカル作業_Wang\backdoor\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3184047C-AAE3-4ED0-B6A8-0572535540B8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1311C18A-E891-4D40-8428-3A934B41D188}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="77">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -1171,9 +1171,7 @@
       <c r="L3" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="M3" s="19" t="s">
-        <v>76</v>
-      </c>
+      <c r="M3" s="19"/>
       <c r="N3" s="8"/>
       <c r="O3" s="20"/>
       <c r="P3" s="5"/>
@@ -1211,9 +1209,7 @@
       <c r="L4" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="M4" s="19" t="s">
-        <v>76</v>
-      </c>
+      <c r="M4" s="19"/>
       <c r="N4" s="8"/>
       <c r="O4" s="20"/>
       <c r="P4" s="2" t="s">

--- a/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ローカル作業_Wang\backdoor\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhang\Documents\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1311C18A-E891-4D40-8428-3A934B41D188}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6648D2E8-07A5-4409-9729-5393D9FF840D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1170" windowWidth="20490" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
@@ -1036,8 +1036,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1539,7 +1539,7 @@
         <v>73</v>
       </c>
       <c r="N12" s="8">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O12" s="20" t="s">
         <v>61</v>
@@ -1583,7 +1583,7 @@
         <v>73</v>
       </c>
       <c r="N13" s="14">
-        <v>0.7</v>
+        <v>0.85</v>
       </c>
       <c r="O13" s="23"/>
       <c r="P13" s="2"/>
@@ -1624,7 +1624,9 @@
       <c r="M14" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="N14" s="14"/>
+      <c r="N14" s="14">
+        <v>0.85</v>
+      </c>
       <c r="O14" s="23"/>
       <c r="P14" s="2"/>
     </row>
@@ -1664,7 +1666,9 @@
       <c r="M15" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="N15" s="14"/>
+      <c r="N15" s="14">
+        <v>0.85</v>
+      </c>
       <c r="O15" s="23"/>
       <c r="P15" s="2"/>
     </row>
@@ -1704,7 +1708,9 @@
       <c r="M16" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="N16" s="14"/>
+      <c r="N16" s="14">
+        <v>0.85</v>
+      </c>
       <c r="O16" s="23"/>
       <c r="P16" s="2"/>
     </row>

--- a/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhang\Documents\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6648D2E8-07A5-4409-9729-5393D9FF840D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0147F34E-04B3-42ED-BC81-CE43ED539240}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1170" windowWidth="20490" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1290" windowWidth="20490" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="78">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -494,6 +494,10 @@
   </si>
   <si>
     <t>詹</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EXCELエラー</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1036,8 +1040,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1539,7 +1543,7 @@
         <v>73</v>
       </c>
       <c r="N12" s="8">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="O12" s="20" t="s">
         <v>61</v>
@@ -1583,10 +1587,12 @@
         <v>73</v>
       </c>
       <c r="N13" s="14">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="O13" s="23"/>
-      <c r="P13" s="2"/>
+      <c r="P13" s="2" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="14" spans="1:16" s="4" customFormat="1">
       <c r="A14" s="12">
@@ -1625,7 +1631,7 @@
         <v>76</v>
       </c>
       <c r="N14" s="14">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="O14" s="23"/>
       <c r="P14" s="2"/>
@@ -1667,7 +1673,7 @@
         <v>76</v>
       </c>
       <c r="N15" s="14">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="O15" s="23"/>
       <c r="P15" s="2"/>
@@ -1709,7 +1715,7 @@
         <v>76</v>
       </c>
       <c r="N16" s="14">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="O16" s="23"/>
       <c r="P16" s="2"/>
@@ -1842,7 +1848,9 @@
       <c r="M19" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="N19" s="9"/>
+      <c r="N19" s="9">
+        <v>1</v>
+      </c>
       <c r="O19" s="20"/>
       <c r="P19" s="2"/>
     </row>
@@ -1882,7 +1890,9 @@
       <c r="M20" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="N20" s="9"/>
+      <c r="N20" s="9">
+        <v>1</v>
+      </c>
       <c r="O20" s="20"/>
       <c r="P20" s="2"/>
     </row>

--- a/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhang\Documents\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ローカル作業_Wang\backdoor\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0147F34E-04B3-42ED-BC81-CE43ED539240}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E8FCE8-0A52-4538-80D4-FBF636FF9DE0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1290" windowWidth="20490" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
@@ -1040,8 +1040,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1417,7 +1417,7 @@
         <v>75</v>
       </c>
       <c r="N9" s="9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O9" s="20" t="s">
         <v>61</v>
@@ -1460,7 +1460,9 @@
       <c r="M10" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="8"/>
+      <c r="N10" s="9">
+        <v>1</v>
+      </c>
       <c r="O10" s="20"/>
       <c r="P10" s="2" t="s">
         <v>34</v>
@@ -1803,7 +1805,7 @@
         <v>75</v>
       </c>
       <c r="N18" s="9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O18" s="20" t="s">
         <v>61</v>

--- a/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ローカル作業_Wang\backdoor\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhang\Documents\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E8FCE8-0A52-4538-80D4-FBF636FF9DE0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE38E13-F611-4D60-9274-D8330B8D64D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="150" windowWidth="20490" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
@@ -327,13 +327,6 @@
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レビュー待</t>
-    <rPh sb="4" eb="5">
-      <t>マ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -498,6 +491,16 @@
   </si>
   <si>
     <t>EXCELエラー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大体完了</t>
+    <rPh sb="0" eb="2">
+      <t>ダイタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリョウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1040,8 +1043,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1150,7 +1153,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>10</v>
@@ -1188,7 +1191,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>10</v>
@@ -1254,7 +1257,7 @@
         <v>62</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N5" s="8"/>
       <c r="O5" s="20"/>
@@ -1294,7 +1297,7 @@
         <v>62</v>
       </c>
       <c r="M6" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="21"/>
@@ -1414,7 +1417,7 @@
         <v>63</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N9" s="9">
         <v>1</v>
@@ -1500,12 +1503,14 @@
       </c>
       <c r="L11" s="20"/>
       <c r="M11" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="N11" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="N11" s="8">
+        <v>0.8</v>
+      </c>
       <c r="O11" s="22"/>
       <c r="P11" s="5" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1516,7 +1521,7 @@
         <v>23</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>33</v>
@@ -1542,7 +1547,7 @@
         <v>63</v>
       </c>
       <c r="M12" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N12" s="8">
         <v>0.95</v>
@@ -1560,7 +1565,7 @@
         <v>27</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>7</v>
@@ -1586,14 +1591,14 @@
         <v>63</v>
       </c>
       <c r="M13" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N13" s="14">
         <v>0.9</v>
       </c>
       <c r="O13" s="23"/>
       <c r="P13" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="4" customFormat="1">
@@ -1630,7 +1635,7 @@
         <v>63</v>
       </c>
       <c r="M14" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N14" s="14">
         <v>0.95</v>
@@ -1672,7 +1677,7 @@
         <v>63</v>
       </c>
       <c r="M15" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N15" s="14">
         <v>0.95</v>
@@ -1714,7 +1719,7 @@
         <v>63</v>
       </c>
       <c r="M16" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N16" s="14">
         <v>0.95</v>
@@ -1756,7 +1761,7 @@
         <v>62</v>
       </c>
       <c r="M17" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N17" s="9">
         <v>1</v>
@@ -1765,7 +1770,7 @@
         <v>61</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="37.5">
@@ -1802,7 +1807,7 @@
         <v>62</v>
       </c>
       <c r="M18" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N18" s="9">
         <v>1</v>
@@ -1811,7 +1816,7 @@
         <v>61</v>
       </c>
       <c r="P18" s="27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1848,7 +1853,7 @@
         <v>63</v>
       </c>
       <c r="M19" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N19" s="9">
         <v>1</v>
@@ -1890,7 +1895,7 @@
         <v>63</v>
       </c>
       <c r="M20" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N20" s="9">
         <v>1</v>

--- a/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhang\Documents\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ローカル作業_Wang\backdoor\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE38E13-F611-4D60-9274-D8330B8D64D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA42702F-F798-4870-87B3-DD12ED378573}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="150" windowWidth="20490" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentManualCount="2"/>
+  <calcPr calcId="191029" concurrentManualCount="2"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="78">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -177,20 +177,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>基本設計書
-修正</t>
-    <rPh sb="0" eb="2">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>セッケイショ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>章</t>
   </si>
   <si>
@@ -327,53 +313,6 @@
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>工程</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>進捗管理</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>工程</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>進捗管理明細</t>
-    </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -407,90 +346,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>上海(蔡)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>⇒詹</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>シャンハイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>サイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上海</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>⇒王</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>シャンハイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>オウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>上海(王)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>⇒王</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>シャンハイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>オウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>オウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>詹</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>EXCELエラー</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -501,6 +357,69 @@
     <rPh sb="2" eb="4">
       <t>カンリョウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本設計書修正</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>セッケイショ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対応中</t>
+    <rPh sb="0" eb="2">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上海⇒王</t>
+    <rPh sb="0" eb="2">
+      <t>シャンハイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上海(王)⇒王</t>
+    <rPh sb="0" eb="2">
+      <t>シャンハイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上海(蔡)⇒詹</t>
+    <rPh sb="0" eb="2">
+      <t>シャンハイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工程進捗管理</t>
+  </si>
+  <si>
+    <t>工程進捗管理明細</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -508,7 +427,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -562,22 +481,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
@@ -700,7 +603,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -720,7 +623,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -733,9 +635,6 @@
     <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -760,6 +659,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1043,15 +951,15 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="4.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.125" customWidth="1"/>
+    <col min="3" max="3" width="27.625" style="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.375" style="18" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="7.375" style="18" hidden="1" customWidth="1"/>
@@ -1059,54 +967,54 @@
     <col min="8" max="8" width="7.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.25" customWidth="1"/>
-    <col min="14" max="14" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.625" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="55.5" customWidth="1"/>
+    <col min="16" max="16" width="26.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="37.5" customHeight="1">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:16">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="30" t="s">
+      <c r="E1" s="27"/>
+      <c r="F1" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="27"/>
+      <c r="H1" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="33"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="32" t="s">
+      <c r="I1" s="27"/>
+      <c r="J1" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="29"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="33"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="28" t="s">
+      <c r="N1" s="29"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="24" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="33"/>
       <c r="D2" s="15" t="s">
         <v>4</v>
       </c>
@@ -1132,18 +1040,18 @@
         <v>31</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="P2" s="29"/>
+        <v>59</v>
+      </c>
+      <c r="P2" s="25"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="2">
@@ -1152,8 +1060,8 @@
       <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>66</v>
+      <c r="C3" s="31" t="s">
+        <v>76</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>10</v>
@@ -1162,7 +1070,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G3" s="8">
         <v>1</v>
@@ -1175,12 +1083,12 @@
       <c r="K3" s="8">
         <v>0.95</v>
       </c>
-      <c r="L3" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="M3" s="19"/>
+      <c r="L3" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="M3" s="16"/>
       <c r="N3" s="8"/>
-      <c r="O3" s="20"/>
+      <c r="O3" s="19"/>
       <c r="P3" s="5"/>
     </row>
     <row r="4" spans="1:16">
@@ -1190,8 +1098,8 @@
       <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>67</v>
+      <c r="C4" s="31" t="s">
+        <v>77</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>10</v>
@@ -1200,7 +1108,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G4" s="8">
         <v>1</v>
@@ -1213,14 +1121,14 @@
       <c r="K4" s="8">
         <v>0.85</v>
       </c>
-      <c r="L4" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="M4" s="19"/>
+      <c r="L4" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" s="16"/>
       <c r="N4" s="8"/>
-      <c r="O4" s="20"/>
+      <c r="O4" s="19"/>
       <c r="P4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1230,8 +1138,8 @@
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>40</v>
+      <c r="C5" s="31" t="s">
+        <v>39</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>13</v>
@@ -1240,7 +1148,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G5" s="8">
         <v>1</v>
@@ -1253,15 +1161,19 @@
       <c r="K5" s="9">
         <v>1</v>
       </c>
-      <c r="L5" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="M5" s="19" t="s">
+      <c r="L5" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="M5" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="N5" s="8"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="2"/>
+      <c r="N5" s="35">
+        <v>0.2</v>
+      </c>
+      <c r="O5" s="19"/>
+      <c r="P5" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="2">
@@ -1270,8 +1182,8 @@
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>41</v>
+      <c r="C6" s="31" t="s">
+        <v>40</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>13</v>
@@ -1280,7 +1192,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G6" s="8">
         <v>1</v>
@@ -1293,16 +1205,16 @@
       <c r="K6" s="8">
         <v>0.95</v>
       </c>
-      <c r="L6" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="M6" s="19" t="s">
+      <c r="L6" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="M6" s="16" t="s">
         <v>73</v>
       </c>
       <c r="N6" s="7"/>
-      <c r="O6" s="21"/>
+      <c r="O6" s="20"/>
       <c r="P6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1312,8 +1224,8 @@
       <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>42</v>
+      <c r="C7" s="31" t="s">
+        <v>41</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>10</v>
@@ -1322,7 +1234,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G7" s="8">
         <v>1</v>
@@ -1335,12 +1247,12 @@
       <c r="K7" s="9">
         <v>1</v>
       </c>
-      <c r="L7" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="M7" s="3"/>
+      <c r="L7" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="M7" s="16"/>
       <c r="N7" s="8"/>
-      <c r="O7" s="20"/>
+      <c r="O7" s="19"/>
       <c r="P7" s="5"/>
     </row>
     <row r="8" spans="1:16" s="4" customFormat="1">
@@ -1350,8 +1262,8 @@
       <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>43</v>
+      <c r="C8" s="16" t="s">
+        <v>42</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>10</v>
@@ -1360,7 +1272,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G8" s="8">
         <v>1</v>
@@ -1373,14 +1285,14 @@
       <c r="K8" s="8">
         <v>0.95</v>
       </c>
-      <c r="L8" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="M8" s="3"/>
+      <c r="L8" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="M8" s="16"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="20"/>
+      <c r="O8" s="19"/>
       <c r="P8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="4" customFormat="1">
@@ -1390,8 +1302,8 @@
       <c r="B9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>44</v>
+      <c r="C9" s="16" t="s">
+        <v>43</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>10</v>
@@ -1400,7 +1312,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G9" s="8">
         <v>1</v>
@@ -1413,8 +1325,8 @@
       <c r="K9" s="8">
         <v>0.95</v>
       </c>
-      <c r="L9" s="20" t="s">
-        <v>63</v>
+      <c r="L9" s="19" t="s">
+        <v>62</v>
       </c>
       <c r="M9" s="16" t="s">
         <v>74</v>
@@ -1422,8 +1334,8 @@
       <c r="N9" s="9">
         <v>1</v>
       </c>
-      <c r="O9" s="20" t="s">
-        <v>61</v>
+      <c r="O9" s="19" t="s">
+        <v>60</v>
       </c>
       <c r="P9" s="5"/>
     </row>
@@ -1434,8 +1346,8 @@
       <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>45</v>
+      <c r="C10" s="16" t="s">
+        <v>44</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>10</v>
@@ -1444,7 +1356,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G10" s="8">
         <v>1</v>
@@ -1457,18 +1369,18 @@
       <c r="K10" s="8">
         <v>0.9</v>
       </c>
-      <c r="L10" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="M10" s="19" t="s">
+      <c r="L10" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="M10" s="16" t="s">
         <v>5</v>
       </c>
       <c r="N10" s="9">
         <v>1</v>
       </c>
-      <c r="O10" s="20"/>
+      <c r="O10" s="19"/>
       <c r="P10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="4" customFormat="1">
@@ -1478,8 +1390,8 @@
       <c r="B11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>46</v>
+      <c r="C11" s="16" t="s">
+        <v>45</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>10</v>
@@ -1488,7 +1400,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G11" s="8">
         <v>1</v>
@@ -1501,16 +1413,16 @@
       <c r="K11" s="8">
         <v>0.95</v>
       </c>
-      <c r="L11" s="20"/>
-      <c r="M11" s="19" t="s">
-        <v>75</v>
+      <c r="L11" s="19"/>
+      <c r="M11" s="16" t="s">
+        <v>69</v>
       </c>
       <c r="N11" s="8">
         <v>0.8</v>
       </c>
-      <c r="O11" s="22"/>
+      <c r="O11" s="21"/>
       <c r="P11" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1520,17 +1432,17 @@
       <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="25" t="s">
-        <v>68</v>
+      <c r="C12" s="31" t="s">
+        <v>65</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12" s="8">
         <v>1</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G12" s="8">
         <v>1</v>
@@ -1543,17 +1455,17 @@
       <c r="K12" s="8">
         <v>1</v>
       </c>
-      <c r="L12" s="20" t="s">
-        <v>63</v>
+      <c r="L12" s="19" t="s">
+        <v>62</v>
       </c>
       <c r="M12" s="16" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N12" s="8">
         <v>0.95</v>
       </c>
-      <c r="O12" s="20" t="s">
-        <v>61</v>
+      <c r="O12" s="19" t="s">
+        <v>60</v>
       </c>
       <c r="P12" s="2"/>
     </row>
@@ -1564,8 +1476,8 @@
       <c r="B13" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="26" t="s">
-        <v>69</v>
+      <c r="C13" s="17" t="s">
+        <v>66</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>7</v>
@@ -1574,7 +1486,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G13" s="8">
         <v>1</v>
@@ -1587,19 +1499,17 @@
       <c r="K13" s="8">
         <v>0.95</v>
       </c>
-      <c r="L13" s="20" t="s">
-        <v>63</v>
+      <c r="L13" s="19" t="s">
+        <v>62</v>
       </c>
       <c r="M13" s="16" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N13" s="14">
         <v>0.9</v>
       </c>
-      <c r="O13" s="23"/>
-      <c r="P13" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="O13" s="22"/>
+      <c r="P13" s="2"/>
     </row>
     <row r="14" spans="1:16" s="4" customFormat="1">
       <c r="A14" s="12">
@@ -1608,8 +1518,8 @@
       <c r="B14" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>47</v>
+      <c r="C14" s="17" t="s">
+        <v>46</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>13</v>
@@ -1618,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G14" s="8">
         <v>1</v>
@@ -1631,16 +1541,16 @@
       <c r="K14" s="8">
         <v>0.95</v>
       </c>
-      <c r="L14" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="M14" s="19" t="s">
-        <v>75</v>
+      <c r="L14" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>69</v>
       </c>
       <c r="N14" s="14">
         <v>0.95</v>
       </c>
-      <c r="O14" s="23"/>
+      <c r="O14" s="22"/>
       <c r="P14" s="2"/>
     </row>
     <row r="15" spans="1:16">
@@ -1650,8 +1560,8 @@
       <c r="B15" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>48</v>
+      <c r="C15" s="17" t="s">
+        <v>47</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>13</v>
@@ -1660,7 +1570,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G15" s="8">
         <v>1</v>
@@ -1673,16 +1583,16 @@
       <c r="K15" s="8">
         <v>0.9</v>
       </c>
-      <c r="L15" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="M15" s="19" t="s">
-        <v>75</v>
+      <c r="L15" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="M15" s="16" t="s">
+        <v>69</v>
       </c>
       <c r="N15" s="14">
         <v>0.95</v>
       </c>
-      <c r="O15" s="23"/>
+      <c r="O15" s="22"/>
       <c r="P15" s="2"/>
     </row>
     <row r="16" spans="1:16">
@@ -1692,8 +1602,8 @@
       <c r="B16" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>49</v>
+      <c r="C16" s="17" t="s">
+        <v>48</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>13</v>
@@ -1702,7 +1612,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G16" s="8">
         <v>1</v>
@@ -1715,16 +1625,16 @@
       <c r="K16" s="8">
         <v>0.9</v>
       </c>
-      <c r="L16" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="M16" s="19" t="s">
-        <v>75</v>
+      <c r="L16" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="M16" s="16" t="s">
+        <v>69</v>
       </c>
       <c r="N16" s="14">
         <v>0.95</v>
       </c>
-      <c r="O16" s="23"/>
+      <c r="O16" s="22"/>
       <c r="P16" s="2"/>
     </row>
     <row r="17" spans="1:16">
@@ -1734,8 +1644,8 @@
       <c r="B17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>50</v>
+      <c r="C17" s="31" t="s">
+        <v>49</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>7</v>
@@ -1744,7 +1654,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G17" s="8">
         <v>1</v>
@@ -1757,8 +1667,8 @@
       <c r="K17" s="9">
         <v>1</v>
       </c>
-      <c r="L17" s="20" t="s">
-        <v>62</v>
+      <c r="L17" s="19" t="s">
+        <v>61</v>
       </c>
       <c r="M17" s="16" t="s">
         <v>74</v>
@@ -1766,11 +1676,11 @@
       <c r="N17" s="9">
         <v>1</v>
       </c>
-      <c r="O17" s="20" t="s">
-        <v>61</v>
+      <c r="O17" s="19" t="s">
+        <v>60</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="37.5">
@@ -1780,8 +1690,8 @@
       <c r="B18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>51</v>
+      <c r="C18" s="31" t="s">
+        <v>50</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>7</v>
@@ -1790,7 +1700,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G18" s="8">
         <v>1</v>
@@ -1803,8 +1713,8 @@
       <c r="K18" s="9">
         <v>1</v>
       </c>
-      <c r="L18" s="20" t="s">
-        <v>62</v>
+      <c r="L18" s="19" t="s">
+        <v>61</v>
       </c>
       <c r="M18" s="16" t="s">
         <v>74</v>
@@ -1812,11 +1722,11 @@
       <c r="N18" s="9">
         <v>1</v>
       </c>
-      <c r="O18" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="P18" s="27" t="s">
-        <v>71</v>
+      <c r="O18" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="P18" s="23" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1824,10 +1734,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>37</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>10</v>
@@ -1836,7 +1746,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G19" s="8">
         <v>1</v>
@@ -1849,16 +1759,16 @@
       <c r="K19" s="9">
         <v>1</v>
       </c>
-      <c r="L19" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="M19" s="19" t="s">
-        <v>75</v>
+      <c r="L19" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="M19" s="16" t="s">
+        <v>69</v>
       </c>
       <c r="N19" s="9">
         <v>1</v>
       </c>
-      <c r="O19" s="20"/>
+      <c r="O19" s="19"/>
       <c r="P19" s="2"/>
     </row>
     <row r="20" spans="1:16">
@@ -1866,10 +1776,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>38</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>10</v>
@@ -1878,7 +1788,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G20" s="8">
         <v>1</v>
@@ -1891,16 +1801,16 @@
       <c r="K20" s="9">
         <v>1</v>
       </c>
-      <c r="L20" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="M20" s="19" t="s">
-        <v>75</v>
+      <c r="L20" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="M20" s="16" t="s">
+        <v>69</v>
       </c>
       <c r="N20" s="9">
         <v>1</v>
       </c>
-      <c r="O20" s="20"/>
+      <c r="O20" s="19"/>
       <c r="P20" s="2"/>
     </row>
     <row r="21" spans="1:16">
@@ -1908,10 +1818,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="31" t="s">
         <v>54</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>10</v>
@@ -1920,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G21" s="8">
         <v>1</v>
@@ -1930,7 +1840,7 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="9"/>
-      <c r="M21" s="2"/>
+      <c r="M21" s="31"/>
       <c r="N21" s="2"/>
       <c r="O21" s="9"/>
       <c r="P21" s="2"/>
@@ -1942,8 +1852,8 @@
       <c r="B22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>52</v>
+      <c r="C22" s="34" t="s">
+        <v>51</v>
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="3"/>
@@ -1954,7 +1864,7 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="9"/>
-      <c r="M22" s="2"/>
+      <c r="M22" s="31"/>
       <c r="N22" s="2"/>
       <c r="O22" s="9"/>
       <c r="P22" s="2"/>
@@ -1964,10 +1874,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>53</v>
+        <v>36</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>52</v>
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="3"/>
@@ -1978,7 +1888,7 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="9"/>
-      <c r="M23" s="2"/>
+      <c r="M23" s="31"/>
       <c r="N23" s="2"/>
       <c r="O23" s="9"/>
       <c r="P23" s="2"/>
@@ -1990,7 +1900,7 @@
     </row>
     <row r="26" spans="1:16">
       <c r="P26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:16">

--- a/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ローカル作業_Wang\backdoor\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA42702F-F798-4870-87B3-DD12ED378573}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DFF0938-69B8-4C8E-9BE4-59AD2818FE83}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="78">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -638,10 +638,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -659,15 +668,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -976,45 +976,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="26" t="s">
+      <c r="E1" s="32"/>
+      <c r="F1" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="26" t="s">
+      <c r="G1" s="32"/>
+      <c r="H1" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="28" t="s">
+      <c r="I1" s="32"/>
+      <c r="J1" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="29"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="28" t="s">
+      <c r="K1" s="34"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="29"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="24" t="s">
+      <c r="N1" s="34"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="27" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="33"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="30"/>
       <c r="D2" s="15" t="s">
         <v>4</v>
       </c>
@@ -1051,7 +1051,7 @@
       <c r="O2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="P2" s="25"/>
+      <c r="P2" s="28"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="2">
@@ -1060,7 +1060,7 @@
       <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="24" t="s">
         <v>76</v>
       </c>
       <c r="D3" s="16" t="s">
@@ -1098,7 +1098,7 @@
       <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="24" t="s">
         <v>77</v>
       </c>
       <c r="D4" s="16" t="s">
@@ -1138,7 +1138,7 @@
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="24" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="16" t="s">
@@ -1167,8 +1167,8 @@
       <c r="M5" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="N5" s="35">
-        <v>0.2</v>
+      <c r="N5" s="26">
+        <v>0.8</v>
       </c>
       <c r="O5" s="19"/>
       <c r="P5" s="2" t="s">
@@ -1182,7 +1182,7 @@
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="24" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="16" t="s">
@@ -1224,7 +1224,7 @@
       <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="24" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="16" t="s">
@@ -1432,7 +1432,7 @@
       <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="24" t="s">
         <v>65</v>
       </c>
       <c r="D12" s="16" t="s">
@@ -1644,7 +1644,7 @@
       <c r="B17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="24" t="s">
         <v>49</v>
       </c>
       <c r="D17" s="16" t="s">
@@ -1690,7 +1690,7 @@
       <c r="B18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="24" t="s">
         <v>50</v>
       </c>
       <c r="D18" s="16" t="s">
@@ -1736,7 +1736,7 @@
       <c r="B19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D19" s="16" t="s">
@@ -1778,7 +1778,7 @@
       <c r="B20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D20" s="16" t="s">
@@ -1820,7 +1820,7 @@
       <c r="B21" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="24" t="s">
         <v>54</v>
       </c>
       <c r="D21" s="16" t="s">
@@ -1840,7 +1840,7 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="9"/>
-      <c r="M21" s="31"/>
+      <c r="M21" s="24"/>
       <c r="N21" s="2"/>
       <c r="O21" s="9"/>
       <c r="P21" s="2"/>
@@ -1852,7 +1852,7 @@
       <c r="B22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="25" t="s">
         <v>51</v>
       </c>
       <c r="D22" s="16"/>
@@ -1864,7 +1864,7 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="9"/>
-      <c r="M22" s="31"/>
+      <c r="M22" s="24"/>
       <c r="N22" s="2"/>
       <c r="O22" s="9"/>
       <c r="P22" s="2"/>
@@ -1876,7 +1876,7 @@
       <c r="B23" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="25" t="s">
         <v>52</v>
       </c>
       <c r="D23" s="16"/>
@@ -1888,7 +1888,7 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="9"/>
-      <c r="M23" s="31"/>
+      <c r="M23" s="24"/>
       <c r="N23" s="2"/>
       <c r="O23" s="9"/>
       <c r="P23" s="2"/>

--- a/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20200220リリース/レイアウト作成一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ローカル作業_Wang\backdoor\GitHub\backdoor\01_基本設計書\20200220リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DFF0938-69B8-4C8E-9BE4-59AD2818FE83}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA486DDB-E452-48B3-9068-87ED97A9CE11}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
@@ -611,7 +611,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -668,6 +667,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -959,69 +959,69 @@
   <cols>
     <col min="1" max="1" width="4.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.375" style="18" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="27.625" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.375" style="17" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="7.375" style="18" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="7.375" style="17" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="6.125" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="7.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.625" style="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.625" style="17" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.25" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="26.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="31" t="s">
+      <c r="E1" s="31"/>
+      <c r="F1" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="31" t="s">
+      <c r="G1" s="31"/>
+      <c r="H1" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="33" t="s">
+      <c r="I1" s="31"/>
+      <c r="J1" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="34"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="33" t="s">
+      <c r="K1" s="33"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="34"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="27" t="s">
+      <c r="N1" s="33"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="26" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="15" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="14" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="14" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -1042,7 +1042,7 @@
       <c r="L2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="14" t="s">
         <v>4</v>
       </c>
       <c r="N2" s="1" t="s">
@@ -1051,7 +1051,7 @@
       <c r="O2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="P2" s="28"/>
+      <c r="P2" s="27"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="2">
@@ -1060,35 +1060,35 @@
       <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="8">
-        <v>1</v>
-      </c>
-      <c r="F3" s="16" t="s">
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <v>1</v>
       </c>
       <c r="H3" s="3"/>
-      <c r="I3" s="8"/>
+      <c r="I3" s="7"/>
       <c r="J3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="7">
         <v>0.95</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="M3" s="16"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="19"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="18"/>
       <c r="P3" s="5"/>
     </row>
     <row r="4" spans="1:16">
@@ -1098,35 +1098,35 @@
       <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="8">
-        <v>1</v>
-      </c>
-      <c r="F4" s="16" t="s">
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <v>1</v>
       </c>
       <c r="H4" s="3"/>
-      <c r="I4" s="8"/>
+      <c r="I4" s="7"/>
       <c r="J4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="7">
         <v>0.85</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="M4" s="16"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="19"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="18"/>
       <c r="P4" s="2" t="s">
         <v>33</v>
       </c>
@@ -1138,39 +1138,39 @@
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="8">
-        <v>1</v>
-      </c>
-      <c r="F5" s="16" t="s">
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <v>1</v>
       </c>
       <c r="H5" s="3"/>
-      <c r="I5" s="8"/>
+      <c r="I5" s="7"/>
       <c r="J5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="9">
-        <v>1</v>
-      </c>
-      <c r="L5" s="19" t="s">
+      <c r="K5" s="8">
+        <v>1</v>
+      </c>
+      <c r="L5" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="M5" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="N5" s="26">
-        <v>0.8</v>
-      </c>
-      <c r="O5" s="19"/>
+      <c r="N5" s="25">
+        <v>1</v>
+      </c>
+      <c r="O5" s="18"/>
       <c r="P5" s="2" t="s">
         <v>72</v>
       </c>
@@ -1182,37 +1182,39 @@
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="8">
-        <v>1</v>
-      </c>
-      <c r="F6" s="16" t="s">
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <v>1</v>
       </c>
       <c r="H6" s="3"/>
-      <c r="I6" s="8"/>
+      <c r="I6" s="7"/>
       <c r="J6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="7">
         <v>0.95</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="L6" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="M6" s="16" t="s">
+      <c r="M6" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="N6" s="7"/>
-      <c r="O6" s="20"/>
+      <c r="N6" s="35">
+        <v>0.2</v>
+      </c>
+      <c r="O6" s="19"/>
       <c r="P6" s="2" t="s">
         <v>33</v>
       </c>
@@ -1224,35 +1226,35 @@
       <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="8">
-        <v>1</v>
-      </c>
-      <c r="F7" s="16" t="s">
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <v>1</v>
       </c>
       <c r="H7" s="3"/>
-      <c r="I7" s="8"/>
+      <c r="I7" s="7"/>
       <c r="J7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="9">
-        <v>1</v>
-      </c>
-      <c r="L7" s="19" t="s">
+      <c r="K7" s="8">
+        <v>1</v>
+      </c>
+      <c r="L7" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="M7" s="16"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="19"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="18"/>
       <c r="P7" s="5"/>
     </row>
     <row r="8" spans="1:16" s="4" customFormat="1">
@@ -1262,35 +1264,35 @@
       <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="8">
-        <v>1</v>
-      </c>
-      <c r="F8" s="16" t="s">
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <v>1</v>
       </c>
       <c r="H8" s="3"/>
-      <c r="I8" s="8"/>
+      <c r="I8" s="7"/>
       <c r="J8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="7">
         <v>0.95</v>
       </c>
-      <c r="L8" s="19" t="s">
+      <c r="L8" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="M8" s="16"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="19"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="18"/>
       <c r="P8" s="2" t="s">
         <v>33</v>
       </c>
@@ -1302,39 +1304,39 @@
       <c r="B9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="8">
-        <v>1</v>
-      </c>
-      <c r="F9" s="16" t="s">
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="8">
-        <v>1</v>
-      </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="8"/>
+      <c r="G9" s="7">
+        <v>1</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="7"/>
       <c r="J9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="7">
         <v>0.95</v>
       </c>
-      <c r="L9" s="19" t="s">
+      <c r="L9" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="M9" s="16" t="s">
+      <c r="M9" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="N9" s="9">
-        <v>1</v>
-      </c>
-      <c r="O9" s="19" t="s">
+      <c r="N9" s="8">
+        <v>1</v>
+      </c>
+      <c r="O9" s="18" t="s">
         <v>60</v>
       </c>
       <c r="P9" s="5"/>
@@ -1346,39 +1348,39 @@
       <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="8">
-        <v>1</v>
-      </c>
-      <c r="F10" s="16" t="s">
+      <c r="E10" s="7">
+        <v>1</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="8">
-        <v>1</v>
-      </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="8"/>
+      <c r="G10" s="7">
+        <v>1</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="7"/>
       <c r="J10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="7">
         <v>0.9</v>
       </c>
-      <c r="L10" s="19" t="s">
+      <c r="L10" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="M10" s="16" t="s">
+      <c r="M10" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="9">
-        <v>1</v>
-      </c>
-      <c r="O10" s="19"/>
+      <c r="N10" s="8">
+        <v>1</v>
+      </c>
+      <c r="O10" s="18"/>
       <c r="P10" s="2" t="s">
         <v>33</v>
       </c>
@@ -1390,37 +1392,37 @@
       <c r="B11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="8">
-        <v>1</v>
-      </c>
-      <c r="F11" s="16" t="s">
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="8">
-        <v>1</v>
-      </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="8"/>
+      <c r="G11" s="7">
+        <v>1</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="7"/>
       <c r="J11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="7">
         <v>0.95</v>
       </c>
-      <c r="L11" s="19"/>
-      <c r="M11" s="16" t="s">
+      <c r="L11" s="18"/>
+      <c r="M11" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="7">
         <v>0.8</v>
       </c>
-      <c r="O11" s="21"/>
+      <c r="O11" s="20"/>
       <c r="P11" s="5" t="s">
         <v>70</v>
       </c>
@@ -1432,209 +1434,209 @@
       <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="8">
-        <v>1</v>
-      </c>
-      <c r="F12" s="16" t="s">
+      <c r="E12" s="7">
+        <v>1</v>
+      </c>
+      <c r="F12" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="8">
-        <v>1</v>
-      </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="8"/>
+      <c r="G12" s="7">
+        <v>1</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="7"/>
       <c r="J12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="8">
-        <v>1</v>
-      </c>
-      <c r="L12" s="19" t="s">
+      <c r="K12" s="7">
+        <v>1</v>
+      </c>
+      <c r="L12" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="M12" s="16" t="s">
+      <c r="M12" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="7">
         <v>0.95</v>
       </c>
-      <c r="O12" s="19" t="s">
+      <c r="O12" s="18" t="s">
         <v>60</v>
       </c>
       <c r="P12" s="2"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="12">
+      <c r="A13" s="11">
         <v>11</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="8">
-        <v>1</v>
-      </c>
-      <c r="F13" s="16" t="s">
+      <c r="E13" s="7">
+        <v>1</v>
+      </c>
+      <c r="F13" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="8">
-        <v>1</v>
-      </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="12" t="s">
+      <c r="G13" s="7">
+        <v>1</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="7">
         <v>0.95</v>
       </c>
-      <c r="L13" s="19" t="s">
+      <c r="L13" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="M13" s="16" t="s">
+      <c r="M13" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="N13" s="14">
+      <c r="N13" s="13">
         <v>0.9</v>
       </c>
-      <c r="O13" s="22"/>
+      <c r="O13" s="21"/>
       <c r="P13" s="2"/>
     </row>
     <row r="14" spans="1:16" s="4" customFormat="1">
-      <c r="A14" s="12">
+      <c r="A14" s="11">
         <v>12</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="8">
-        <v>1</v>
-      </c>
-      <c r="F14" s="16" t="s">
+      <c r="E14" s="7">
+        <v>1</v>
+      </c>
+      <c r="F14" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="G14" s="8">
-        <v>1</v>
-      </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="12" t="s">
+      <c r="G14" s="7">
+        <v>1</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="7">
         <v>0.95</v>
       </c>
-      <c r="L14" s="19" t="s">
+      <c r="L14" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="M14" s="16" t="s">
+      <c r="M14" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="N14" s="14">
+      <c r="N14" s="13">
         <v>0.95</v>
       </c>
-      <c r="O14" s="22"/>
+      <c r="O14" s="21"/>
       <c r="P14" s="2"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="12">
+      <c r="A15" s="11">
         <v>13</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="8">
-        <v>1</v>
-      </c>
-      <c r="F15" s="16" t="s">
+      <c r="E15" s="7">
+        <v>1</v>
+      </c>
+      <c r="F15" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="8">
-        <v>1</v>
-      </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="12" t="s">
+      <c r="G15" s="7">
+        <v>1</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="7">
         <v>0.9</v>
       </c>
-      <c r="L15" s="19" t="s">
+      <c r="L15" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="M15" s="16" t="s">
+      <c r="M15" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="N15" s="14">
+      <c r="N15" s="13">
         <v>0.95</v>
       </c>
-      <c r="O15" s="22"/>
+      <c r="O15" s="21"/>
       <c r="P15" s="2"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="12">
+      <c r="A16" s="11">
         <v>14</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="8">
-        <v>1</v>
-      </c>
-      <c r="F16" s="16" t="s">
+      <c r="E16" s="7">
+        <v>1</v>
+      </c>
+      <c r="F16" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="8">
-        <v>1</v>
-      </c>
-      <c r="H16" s="12"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="12" t="s">
+      <c r="G16" s="7">
+        <v>1</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="7">
         <v>0.9</v>
       </c>
-      <c r="L16" s="19" t="s">
+      <c r="L16" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="M16" s="16" t="s">
+      <c r="M16" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="N16" s="14">
+      <c r="N16" s="13">
         <v>0.95</v>
       </c>
-      <c r="O16" s="22"/>
+      <c r="O16" s="21"/>
       <c r="P16" s="2"/>
     </row>
     <row r="17" spans="1:16">
@@ -1644,39 +1646,39 @@
       <c r="B17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="8">
-        <v>1</v>
-      </c>
-      <c r="F17" s="16" t="s">
+      <c r="E17" s="7">
+        <v>1</v>
+      </c>
+      <c r="F17" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="7">
         <v>1</v>
       </c>
       <c r="H17" s="3"/>
-      <c r="I17" s="9"/>
+      <c r="I17" s="8"/>
       <c r="J17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K17" s="9">
-        <v>1</v>
-      </c>
-      <c r="L17" s="19" t="s">
+      <c r="K17" s="8">
+        <v>1</v>
+      </c>
+      <c r="L17" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="M17" s="16" t="s">
+      <c r="M17" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="N17" s="9">
-        <v>1</v>
-      </c>
-      <c r="O17" s="19" t="s">
+      <c r="N17" s="8">
+        <v>1</v>
+      </c>
+      <c r="O17" s="18" t="s">
         <v>60</v>
       </c>
       <c r="P17" s="2" t="s">
@@ -1690,42 +1692,42 @@
       <c r="B18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="8">
-        <v>1</v>
-      </c>
-      <c r="F18" s="16" t="s">
+      <c r="E18" s="7">
+        <v>1</v>
+      </c>
+      <c r="F18" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="7">
         <v>1</v>
       </c>
       <c r="H18" s="3"/>
-      <c r="I18" s="9"/>
+      <c r="I18" s="8"/>
       <c r="J18" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K18" s="9">
-        <v>1</v>
-      </c>
-      <c r="L18" s="19" t="s">
+      <c r="K18" s="8">
+        <v>1</v>
+      </c>
+      <c r="L18" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="M18" s="16" t="s">
+      <c r="M18" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="N18" s="9">
-        <v>1</v>
-      </c>
-      <c r="O18" s="19" t="s">
+      <c r="N18" s="8">
+        <v>1</v>
+      </c>
+      <c r="O18" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="P18" s="23" t="s">
+      <c r="P18" s="22" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1736,39 +1738,39 @@
       <c r="B19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="8">
-        <v>1</v>
-      </c>
-      <c r="F19" s="16" t="s">
+      <c r="E19" s="7">
+        <v>1</v>
+      </c>
+      <c r="F19" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="G19" s="8">
-        <v>1</v>
-      </c>
-      <c r="H19" s="11"/>
-      <c r="I19" s="9"/>
+      <c r="G19" s="7">
+        <v>1</v>
+      </c>
+      <c r="H19" s="10"/>
+      <c r="I19" s="8"/>
       <c r="J19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K19" s="9">
-        <v>1</v>
-      </c>
-      <c r="L19" s="19" t="s">
+      <c r="K19" s="8">
+        <v>1</v>
+      </c>
+      <c r="L19" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="M19" s="16" t="s">
+      <c r="M19" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="N19" s="9">
-        <v>1</v>
-      </c>
-      <c r="O19" s="19"/>
+      <c r="N19" s="8">
+        <v>1</v>
+      </c>
+      <c r="O19" s="18"/>
       <c r="P19" s="2"/>
     </row>
     <row r="20" spans="1:16">
@@ -1778,39 +1780,39 @@
       <c r="B20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="8">
-        <v>1</v>
-      </c>
-      <c r="F20" s="16" t="s">
+      <c r="E20" s="7">
+        <v>1</v>
+      </c>
+      <c r="F20" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="G20" s="8">
-        <v>1</v>
-      </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="9"/>
+      <c r="G20" s="7">
+        <v>1</v>
+      </c>
+      <c r="H20" s="10"/>
+      <c r="I20" s="8"/>
       <c r="J20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K20" s="9">
-        <v>1</v>
-      </c>
-      <c r="L20" s="19" t="s">
+      <c r="K20" s="8">
+        <v>1</v>
+      </c>
+      <c r="L20" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="M20" s="16" t="s">
+      <c r="M20" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="N20" s="9">
-        <v>1</v>
-      </c>
-      <c r="O20" s="19"/>
+      <c r="N20" s="8">
+        <v>1</v>
+      </c>
+      <c r="O20" s="18"/>
       <c r="P20" s="2"/>
     </row>
     <row r="21" spans="1:16">
@@ -1820,77 +1822,77 @@
       <c r="B21" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="8">
-        <v>1</v>
-      </c>
-      <c r="F21" s="16" t="s">
+      <c r="E21" s="7">
+        <v>1</v>
+      </c>
+      <c r="F21" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="G21" s="8">
-        <v>1</v>
-      </c>
-      <c r="H21" s="11"/>
-      <c r="I21" s="9"/>
+      <c r="G21" s="7">
+        <v>1</v>
+      </c>
+      <c r="H21" s="10"/>
+      <c r="I21" s="8"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="24"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="23"/>
       <c r="N21" s="2"/>
-      <c r="O21" s="9"/>
+      <c r="O21" s="8"/>
       <c r="P21" s="2"/>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="25" t="s">
+      <c r="B22" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="16"/>
+      <c r="D22" s="15"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="16"/>
+      <c r="F22" s="15"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="24"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="23"/>
       <c r="N22" s="2"/>
-      <c r="O22" s="9"/>
+      <c r="O22" s="8"/>
       <c r="P22" s="2"/>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="16"/>
+      <c r="D23" s="15"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="16"/>
+      <c r="F23" s="15"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="24"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="23"/>
       <c r="N23" s="2"/>
-      <c r="O23" s="9"/>
+      <c r="O23" s="8"/>
       <c r="P23" s="2"/>
     </row>
     <row r="25" spans="1:16">
